--- a/0_data/9_evaluation/distances/a2/a2_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a2/a2_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.46045454545455</v>
+        <v>75.90379825653798</v>
       </c>
       <c r="C2" t="n">
-        <v>11.44678492239468</v>
+        <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.438015521064301</v>
+        <v>3.426064757160648</v>
       </c>
       <c r="E2" t="n">
-        <v>18.490022172949</v>
+        <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.054866962305987</v>
+        <v>6.020622665006226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009257206208425722</v>
+        <v>0.008468244084682441</v>
       </c>
       <c r="H2" t="n">
-        <v>2.395388026607538</v>
+        <v>2.397770859277708</v>
       </c>
       <c r="I2" t="n">
-        <v>127.890243902439</v>
+        <v>5.936488169364882</v>
       </c>
       <c r="J2" t="n">
-        <v>340.1762749445676</v>
+        <v>337.4308841843089</v>
       </c>
       <c r="K2" t="n">
-        <v>5.705942350332594</v>
+        <v>5.658555417185553</v>
       </c>
       <c r="L2" t="n">
-        <v>2.997117516629712</v>
+        <v>3.006102117061021</v>
       </c>
       <c r="M2" t="n">
-        <v>6.557716186252771</v>
+        <v>6.707820672478207</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[80.48669623059867, 27.595343680709533, 121.6019955654102, 47.08647450110865, 12.882483370288249, 22.52549889135255, 0.19290465631929046, 14.120842572062084, 3.207317073170732, 4.327050997782705, 1.7427937915742793, 0.13968957871396895, 2.8348115299334813, 0.013303769401330377, 0.21175166297117518, 0.08980044345898004, 0.019955654101995565, 0.07095343680709534, 0.0, 0.008869179600886918, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[29.92239467849224, 25.120842572062084, 31.87139689578714, 27.211751662971174, 30.340354767184035, 28.62860310421286, 26.290465631929045, 32.25720620842572, 24.1119733924612, 30.137472283813747, 25.155210643015522, 29.12860310421286]</t>
+          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[8.688470066518846, 88.46784922394679, 129.10643015521063, 33.20066518847007, 40.40022172949002, 4.116407982261641, 8.147450110864744, 2.809312638580931, 8.37139689578714, 1.2572062084257207, 2.1751662971175167, 0.8470066518847007, 3.4190687361419068, 0.6518847006651884, 1.4567627494456763, 0.5077605321507761, 3.1840354767184036, 0.2860310421286031, 0.6263858093126385, 0.18736141906873613, 0.45454545454545453, 0.0942350332594235, 0.15521064301552107, 0.025498891352549888, 0.28492239467849223, 0.025498891352549888, 0.057649667405764965, 0.014412416851441241, 0.10199556541019955, 0.02106430155210643, 0.02771618625277162, 0.0066518847006651885]</t>
+          <t>[11.865504358655043, 79.33499377334994, 131.32876712328766, 33.910336239103366, 40.57534246575342, 4.149439601494396, 8.23412204234122, 2.652552926525529, 8.450809464508094, 1.2453300124533002, 2.1295143212951433, 0.8343711083437111, 3.4221668742216687, 0.6712328767123288, 1.464508094645081, 0.49813200498132004, 3.2677459526774597, 0.2577833125778331, 0.6463262764632628, 0.1930261519302615, 0.45828144458281445, 0.09090909090909091, 0.1643835616438356, 0.0224159402241594, 0.30510585305105853, 0.024906600249066, 0.06102117061021171, 0.0136986301369863, 0.10211706102117062, 0.021170610211706103, 0.0273972602739726, 0.007471980074719801]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.11086474501108648, 126.22394678492239, 0.0, 79.57427937915743, 0.0, 18.03880266075388, 0.0, 71.7560975609756, 0.0, 4.8503325942350335, 0.0, 4.746119733924612, 0.0, 1.9501108647450112, 0.0, 17.84589800443459, 0.0, 1.2594235033259424, 0.0, 1.475609756097561, 0.0, 0.7405764966740577, 0.0011086474501108647, 1.6075388026607538, 0.0, 0.5665188470066519, 0.27605321507760533, 0.5953436807095344, 0.2516629711751663, 0.32261640798226165, 0.0, 3.3215077605321506, 0.0, 0.1917960088691796, 0.08980044345898004, 0.2793791574279379, 0.03991130820399113, 0.08314855875831485, 0.0, 1.9556541019955653, 0.0, 0.052106430155210645, 0.03991130820399113, 0.1008869179600887, 0.02771618625277162, 0.028824833702882482, 0.0, 0.12195121951219512, 0.0, 0.028824833702882482, 0.025498891352549888, 0.04656319290465632, 0.008869179600886918, 0.011086474501108648, 0.0, 0.6662971175166297, 0.0, 0.011086474501108648, 0.009977827050997782, 0.026607538802660754, 0.0066518847006651885, 0.011086474501108648, 0.0, 0.7982261640798226]</t>
+          <t>[0.08841843088418432, 116.52552926525529, 0.0, 77.9439601494396, 0.0, 17.907845579078455, 0.0, 80.41718555417185, 0.0, 4.9202988792029885, 0.0, 4.731008717310087, 0.0, 1.86799501867995, 0.0, 17.998754669987548, 0.0, 1.273972602739726, 0.0, 1.4408468244084682, 0.0, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 3.2739726027397262, 0.0062266500622665, 0.20672478206724781, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 1.9900373599003736, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.684931506849315, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.788293897882939]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[6.957871396895787, 0.9190687361419069, 5.366962305986696, 2.1263858093126387, 0.7472283813747228, 1.492239467849224, 0.017738359201773836, 1.8891352549889135, 0.6940133037694013, 2.7982261640798227, 5.096452328159645, 1.7028824833702882], [1.106430155210643, 6.039911308203991, 1.1851441241685143, 4.590909090909091, 1.8082039911308203, 0.5509977827050998, 1.211751662971175, 0.013303769401330377, 1.2605321507760532, 0.6940133037694013, 1.8747228381374723, 4.700665188470066], [6.208425720620842, 1.4090909090909092, 7.786031042128603, 1.065410199556541, 5.590909090909091, 2.1674057649667406, 0.7594235033259423, 1.8725055432372506, 0.018847006651884702, 1.7206208425720622, 0.5964523281596452, 2.5920177383592016], [2.3015521064301554, 5.11529933481153, 1.270509977827051, 6.678492239467849, 1.1696230598669624, 4.7926829268292686, 1.8436807095343681, 0.6352549889135255, 1.3004434589800444, 0.018847006651884702, 1.328159645232816, 0.6796008869179601], [0.8037694013303769, 1.893569844789357, 6.595343680709535, 1.3713968957871396, 7.334811529933481, 1.1696230598669624, 4.519955654101995, 2.426829268292683, 0.6341463414634146, 1.7339246119733924, 0.015521064301552107, 1.762749445676275], [1.5110864745011086, 0.6895787139689579, 2.3968957871396896, 5.421286031042128, 1.4246119733924612, 7.124168514412417, 0.7815964523281597, 5.1618625277161865, 1.8492239467849223, 0.6197339246119734, 1.541019955654102, 0.017738359201773836], [0.019955654101995565, 1.3680709534368072, 0.9534368070953437, 2.057649667405765, 5.378048780487805, 0.9490022172949002, 6.6529933481153, 1.1906873614190687, 3.7095343680709534, 1.8337028824833703, 0.39800443458980045, 1.7084257206208426], [1.7361419068736141, 0.01662971175166297, 1.5099778270509978, 0.7394678492239468, 2.7937915742793793, 5.998891352549889, 1.5022172949002217, 8.401330376940132, 0.9878048780487805, 5.725055432372505, 1.941241685144124, 0.8070953436807096], [0.5443458980044346, 1.1319290465631928, 0.012195121951219513, 1.310421286031042, 0.6263858093126385, 2.169623059866962, 4.593126385809312, 1.1984478935698448, 5.7682926829268295, 0.8403547671840355, 4.073170731707317, 1.770509977827051], [2.6574279379157426, 0.5343680709534369, 1.7771618625277161, 0.013303769401330377, 1.8237250554323725, 0.7405764966740577, 2.1186252771618626, 6.383592017738359, 1.1208425720620843, 6.929046563192904, 0.9212860310421286, 5.041019955654102], [4.5798226164079825, 1.646341463414634, 0.5809312638580931, 1.23059866962306, 0.011086474501108648, 1.375831485587583, 0.6363636363636364, 2.074279379157428, 4.676274944567628, 1.1629711751662972, 6.2560975609756095, 0.8514412416851441], [1.417960088691796, 4.2849223946784925, 2.350332594235033, 0.5365853658536586, 1.541019955654102, 0.017738359201773836, 1.5886917960088691, 0.9135254988913526, 2.0144124168514415, 5.954545454545454, 1.033259423503326, 7.3957871396895785]]</t>
+          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0, 0.04434589800443459, 0.0, 0.02106430155210643, 0.0, 0.0, 0.0, 0.03547671840354767, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0033259423503325942, 69.22394678492239, 0.0, 20.30931263858093, 0.0, 6.023281596452328, 0.0, 19.874722838137473, 0.0, 1.630820399113082, 0.0, 0.893569844789357, 0.0, 0.6729490022172949, 0.0, 4.574279379157428, 0.0, 0.3137472283813747, 0.0, 0.2006651884700665, 0.0, 0.15853658536585366, 0.0, 0.2749445676274945, 0.0, 0.09312638580931264, 0.04878048780487805, 0.07760532150776053, 0.06097560975609756, 0.06762749445676275, 0.0, 0.852549889135255, 0.0, 0.045454545454545456, 0.014412416851441241, 0.026607538802660754, 0.0033259423503325942, 0.028824833702882482, 0.0, 0.47117516629711753, 0.0, 0.007760532150776054, 0.0011086474501108647, 0.005543237250554324, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.004434589800443459, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.0, 0.15964523281596452, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.07095343680709534], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.004434589800443459, 19.36031042128603, 0.0, 28.414634146341463, 0.0, 3.6130820399113084, 0.0, 15.403547671840355, 0.0, 1.2184035476718404, 0.0, 1.7483370288248337, 0.0, 0.5421286031042128, 0.0, 4.6862527716186255, 0.0, 0.41019955654101997, 0.0, 0.5277161862527716, 0.0, 0.23503325942350334, 0.0, 0.47117516629711753, 0.0, 0.16518847006651885, 0.07206208425720621, 0.2394678492239468, 0.07095343680709534, 0.08536585365853659, 0.0, 0.9356984478935698, 0.0, 0.052106430155210645, 0.037694013303769404, 0.11862527716186252, 0.005543237250554324, 0.007760532150776054, 0.0, 0.6197339246119734, 0.0, 0.008869179600886918, 0.014412416851441241, 0.026607538802660754, 0.004434589800443459, 0.0066518847006651885, 0.0, 0.014412416851441241, 0.0, 0.007760532150776054, 0.004434589800443459, 0.018847006651884702, 0.0, 0.0, 0.0, 0.1629711751662971, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.009977827050997782, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.22505543237250555], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.352549889135255, 0.0, 3.6031042128603104, 0.0, 2.4212860310421287, 0.0, 3.4722838137472283, 0.0, 0.3436807095343681, 0.0, 0.3082039911308204, 0.0, 0.1385809312638581, 0.0, 1.2416851441241685, 0.0, 0.11197339246119734, 0.0, 0.10421286031042129, 0.0, 0.06984478935698447, 0.0, 0.12749445676274945, 0.0, 0.06097560975609756, 0.025498891352549888, 0.04767184035476718, 0.008869179600886918, 0.03436807095343681, 0.0, 0.17516629711751663, 0.0, 0.01662971175166297, 0.009977827050997782, 0.018847006651884702, 0.007760532150776054, 0.004434589800443459, 0.0, 0.164079822616408, 0.0, 0.0011086474501108647, 0.0033259423503325942, 0.004434589800443459, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.043237250554323724, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.06541019955654102], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0033259423503325942, 19.160753880266075, 0.0, 14.742793791574279, 0.0, 3.4146341463414633, 0.0, 23.2039911308204, 0.0, 0.967849223946785, 0.0, 1.1840354767184036, 0.0, 0.4079822616407982, 0.0, 4.195121951219512, 0.0, 0.311529933481153, 0.0, 0.4977827050997783, 0.0, 0.18181818181818182, 0.0011086474501108647, 0.549889135254989, 0.0, 0.18070953436807094, 0.09534368070953436, 0.17738359201773837, 0.08314855875831485, 0.08425720620842572, 0.0, 0.9334811529933481, 0.0, 0.02993348115299335, 0.019955654101995565, 0.08536585365853659, 0.014412416851441241, 0.01662971175166297, 0.0, 0.4445676274944568, 0.0, 0.026607538802660754, 0.015521064301552107, 0.043237250554323724, 0.007760532150776054, 0.007760532150776054, 0.0, 0.07649667405764966, 0.0, 0.007760532150776054, 0.007760532150776054, 0.012195121951219513, 0.0033259423503325942, 0.004434589800443459, 0.0, 0.21175166297117518, 0.0, 0.0, 0.0022172949002217295, 0.008869179600886918, 0.0033259423503325942, 0.0022172949002217295, 0.0, 0.29490022172949004], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0521064301552108, 0.0, 1.1818181818181819, 0.0, 0.2261640798226164, 0.0, 0.8891352549889135, 0.0, 0.09312638580931264, 0.0, 0.041019955654102, 0.0, 0.013303769401330377, 0.0, 0.15853658536585366, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.0066518847006651885, 0.0, 0.007760532150776054, 0.0, 0.007760532150776054, 0.0066518847006651885, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0, 0.036585365853658534, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0033259423503325942, 0.0022172949002217295, 0.012195121951219513, 0.0, 0.017738359201773836, 0.0, 0.0, 0.0011086474501108647, 0.0022172949002217295, 0.0022172949002217295, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.0033259423503325942, 0.0, 0.005543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.024390243902439025], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3891352549889135, 0.0, 1.6374722838137472, 0.0, 0.18292682926829268, 0.0, 0.9722838137472284, 0.0, 0.0598669623059867, 0.0, 0.10753880266075388, 0.0, 0.015521064301552107, 0.0, 0.17184035476718404, 0.0, 0.0022172949002217295, 0.0, 0.025498891352549888, 0.0, 0.008869179600886918, 0.0, 0.015521064301552107, 0.0, 0.005543237250554324, 0.0, 0.012195121951219513, 0.005543237250554324, 0.004434589800443459, 0.0, 0.024390243902439025, 0.0, 0.005543237250554324, 0.0, 0.007760532150776054, 0.0, 0.0011086474501108647, 0.0, 0.019955654101995565, 0.0, 0.0, 0.0, 0.009977827050997782, 0.0, 0.0011086474501108647, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.013303769401330377], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7738359201773836, 0.0, 0.4611973392461197, 0.0, 0.15299334811529933, 0.0, 0.3736141906873614, 0.0, 0.011086474501108648, 0.0, 0.015521064301552107, 0.0, 0.009977827050997782, 0.0, 0.06873614190687362, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.005543237250554324, 0.0, 0.018847006651884702, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09645232815964523, 4.307095343680709, 0.0, 4.804878048780488, 0.0, 1.1008869179600886, 0.0, 3.929046563192905, 0.0, 0.26718403547671843, 0.0, 0.29379157427937913, 0.0, 0.09534368070953436, 0.0, 1.9778270509977827, 0.0, 0.06208425720620843, 0.0, 0.07649667405764966, 0.0, 0.05543237250554324, 0.0, 0.0942350332594235, 0.0, 0.03436807095343681, 0.01662971175166297, 0.025498891352549888, 0.013303769401330377, 0.024390243902439025, 0.0, 0.1973392461197339, 0.0, 0.025498891352549888, 0.0022172949002217295, 0.011086474501108648, 0.004434589800443459, 0.009977827050997782, 0.0, 0.12084257206208426, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0022172949002217295, 0.005543237250554324, 0.005543237250554324, 0.0, 0.012195121951219513, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04212860310421286, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.045454545454545456], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.458980044345898, 0.0, 0.3458980044345898, 0.0, 0.06873614190687362, 0.0, 0.20620842572062084, 0.0, 0.02328159645232816, 0.0, 0.0066518847006651885, 0.0, 0.004434589800443459, 0.0, 0.06430155210643015, 0.0, 0.013303769401330377, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36807095343680707, 0.0, 0.4844789356984479, 0.0, 0.06762749445676275, 0.0, 0.38470066518847007, 0.0, 0.014412416851441241, 0.0, 0.018847006651884702, 0.0, 0.0022172949002217295, 0.0, 0.05321507760532151, 0.0, 0.0, 0.0, 0.0066518847006651885, 0.0, 0.0033259423503325942, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.013303769401330377, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24611973392461198, 0.0, 0.1729490022172949, 0.0, 0.050997782705099776, 0.0, 0.15631929046563192, 0.0, 0.007760532150776054, 0.0, 0.005543237250554324, 0.0, 0.005543237250554324, 0.0, 0.03325942350332594, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295], [0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3492239467849224, 0.0, 0.5631929046563193, 0.0, 0.07538802660753881, 0.0, 0.35920177383592017, 0.0, 0.025498891352549888, 0.0, 0.011086474501108648, 0.0, 0.0066518847006651885, 0.0, 0.082039911308204, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.011086474501108648, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0011086474501108647, 0.0, 0.02106430155210643, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.009977827050997782, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17516629711751663, 0.0, 0.12416851441241686, 0.0, 0.052106430155210645, 0.0, 0.10643015521064302, 0.0, 0.009977827050997782, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.028824833702882482, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07095343680709534, 0.0, 0.058758314855875834, 0.0, 0.013303769401330377, 0.0, 0.052106430155210645, 0.0, 0.017738359201773836, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.022172949002217297, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14412416851441243, 0.0, 0.2039911308203991, 0.0, 0.036585365853658534, 0.0, 0.1008869179600887, 0.0, 0.02328159645232816, 0.0, 0.0033259423503325942, 0.0, 0.0011086474501108647, 0.0, 0.03436807095343681, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295], [0.0, 0.052106430155210645, 0.0, 0.07095343680709534, 0.0, 0.014412416851441241, 0.0, 0.050997782705099776, 0.0, 0.0066518847006651885, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.01662971175166297, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06208425720620843, 0.0, 0.04988913525498891, 0.0, 0.03325942350332594, 0.0, 0.07982261640798226, 0.0, 0.01662971175166297, 0.0, 0.008869179600886918, 0.0, 0.0011086474501108647, 0.0, 0.012195121951219513, 0.0, 0.0022172949002217295, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0354767184035476, 0.0, 0.7937915742793792, 0.0, 0.1629711751662971, 0.0, 0.8713968957871396, 0.0, 0.012195121951219513, 0.0, 0.050997782705099776, 0.0, 0.018847006651884702, 0.0, 0.17516629711751663, 0.0, 0.0066518847006651885, 0.0, 0.009977827050997782, 0.0, 0.0022172949002217295, 0.0, 0.015521064301552107, 0.0, 0.0033259423503325942, 0.0033259423503325942, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.031042128603104215, 0.0, 0.004434589800443459, 0.0011086474501108647, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.017738359201773836, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0066518847006651885], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06208425720620843, 0.0, 0.02771618625277162, 0.0, 0.005543237250554324, 0.0, 0.03436807095343681, 0.0, 0.0033259423503325942, 0.0, 0.0022172949002217295, 0.0, 0.0033259423503325942, 0.0, 0.013303769401330377, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0066518847006651885, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01662971175166297, 0.0, 0.02771618625277162, 0.0, 0.005543237250554324, 0.0, 0.026607538802660754, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06208425720620843, 0.0, 0.10199556541019955, 0.0, 0.0066518847006651885, 0.0, 0.06651884700665188, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.0, 0.005543237250554324, 0.0, 0.004434589800443459, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0066518847006651885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.025498891352549888, 0.0, 0.014412416851441241, 0.0, 0.0011086474501108647, 0.0, 0.01662971175166297, 0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0022172949002217295, 0.6031042128603105, 0.0, 0.5288248337028825, 0.0, 0.15853658536585366, 0.0, 0.4113082039911308, 0.0, 0.043237250554323724, 0.0, 0.01662971175166297, 0.0, 0.0033259423503325942, 0.0, 0.07206208425720621, 0.0, 0.0066518847006651885, 0.0, 0.0066518847006651885, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.017738359201773836, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.018847006651884702, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0033259423503325942, 0.0, 0.008869179600886918, 0.0, 0.0011086474501108647, 0.0, 0.01662971175166297, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.005543237250554324, 0.0, 0.013303769401330377, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.013303769401330377, 0.0, 0.043237250554323724, 0.0, 0.007760532150776054, 0.0, 0.013303769401330377, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.005543237250554324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0033259423503325942, 0.0, 0.005543237250554324, 0.0, 0.0011086474501108647, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.0, 0.026607538802660754, 0.0, 0.0022172949002217295, 0.0, 0.06541019955654102, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0033259423503325942], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.004434589800443459, 0.0, 0.011086474501108648, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0022172949002217295, 0.0, 0.008869179600886918, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0022172949002217295, 0.0, 0.007760532150776054, 0.0, 0.0011086474501108647, 0.0, 0.01662971175166297, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19623059866962306, 0.0, 0.20620842572062084, 0.0, 0.025498891352549888, 0.0, 0.15853658536585366, 0.0, 0.007760532150776054, 0.0, 0.0, 0.0, 0.0, 0.0, 0.019955654101995565, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.004434589800443459], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004434589800443459, 0.0, 0.013303769401330377, 0.0, 0.0, 0.0, 0.0033259423503325942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.0, 0.0, 0.0066518847006651885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011086474501108647, 0.22394678492239467, 0.0, 0.18625277161862527, 0.0, 0.037694013303769404, 0.0, 0.14966740576496673, 0.0, 0.009977827050997782, 0.0, 0.007760532150776054, 0.0, 0.0011086474501108647, 0.0, 0.041019955654102, 0.0, 0.0011086474501108647, 0.0, 0.0033259423503325942, 0.0, 0.004434589800443459, 0.0, 0.004434589800443459, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0022172949002217295, 0.0, 0.009977827050997782, 0.0, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0, 0.013303769401330377, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0011086474501108647, 0.0, 0.0, 0.0066518847006651885, 0.0, 0.0, 0.0, 0.0011086474501108647, 0.0, 0.0011086474501108647, 0.0, 0.02328159645232816]]</t>
+          <t>[[0.0, 0.033623910336239106, 0.0, 0.014943960149439602, 0.0, 0.0, 0.0, 0.028642590286425903, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 61.32129514321295, 0.0, 18.297633872976338, 0.0, 5.858032378580324, 0.0, 20.7359900373599, 0.0, 1.5877957658779576, 0.0, 0.8605230386052304, 0.0, 0.6276463262764632, 0.0, 4.296388542963886, 0.0, 0.31008717310087175, 0.0, 0.1855541718555417, 0.0, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.09464508094645081, 0.0410958904109589, 0.0859277708592777, 0.0647571606475716, 0.06351183063511831, 0.0, 0.7945205479452054, 0.0, 0.0410958904109589, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.031133250311332503, 0.0, 0.47696139476961397, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.16189290161892902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0049813200498132005, 17.854296388542963, 0.0, 28.36861768368618, 0.0, 3.5491905354919053, 0.0, 15.452054794520548, 0.0, 1.2665006226650062, 0.0, 1.7447073474470736, 0.0, 0.5292652552926526, 0.0, 4.665006226650062, 0.0, 0.41594022415940224, 0.0, 0.4931506849315068, 0.0, 0.21668742216687423, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.9202988792029888, 0.0, 0.057285180572851806, 0.028642590286425903, 0.1133250311332503, 0.0062266500622665, 0.008717310087173101, 0.0, 0.6313823163138231, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.1656288916562889, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.20174346201743462], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.056039850560398, 0.0, 3.5666251556662516, 0.0, 2.4259028642590286, 0.0, 3.6587795765877957, 0.0, 0.3287671232876712, 0.0, 0.30884184308841844, 0.0, 0.11830635118306351, 0.0, 1.240348692403487, 0.0, 0.12453300124533001, 0.0, 0.1133250311332503, 0.0, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.18057285180572852, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.15940224159402241, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0448318804483188, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06973848069738481], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 20.02988792029888, 0.0, 15.130759651307596, 0.0, 3.5056039850560397, 0.0, 30.001245330012452, 0.0, 1.024906600249066, 0.0, 1.1818181818181819, 0.0, 0.40099626400996263, 0.0, 4.596513075965131, 0.0, 0.3150684931506849, 0.0, 0.50186799501868, 0.0, 0.19551681195516812, 0.0, 0.5429638854296388, 0.0, 0.1706102117061021, 0.10585305105853052, 0.1718555417185554, 0.07098381070983811, 0.07721046077210461, 0.0, 0.9551681195516812, 0.0049813200498132005, 0.0410958904109589, 0.021170610211706103, 0.08343711083437111, 0.014943960149439602, 0.017434620174346202, 0.0, 0.4520547945205479, 0.0012453300124533001, 0.024906600249066, 0.017434620174346202, 0.039850560398505604, 0.008717310087173101, 0.008717310087173101, 0.0, 0.08094645080946451, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0136986301369863, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.22291407222914073, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.30884184308841844], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.9564134495641345, 0.0, 1.2328767123287672, 0.0, 0.22540473225404734, 0.0, 1.0199252801992529, 0.0, 0.0821917808219178, 0.0, 0.0410958904109589, 0.0, 0.009962640099626401, 0.0, 0.1519302615193026, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.037359900373599, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2988792029887921, 0.0, 1.6911581569115817, 0.0, 0.17559153175591533, 0.0, 0.9887920298879203, 0.0, 0.05977584059775841, 0.0, 0.11955168119551682, 0.0, 0.014943960149439602, 0.0, 0.16313823163138233, 0.0, 0.0012453300124533001, 0.0, 0.0273972602739726, 0.0, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0224159402241594, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.014943960149439602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6749688667496887, 0.0, 0.4533001245330012, 0.0, 0.1519302615193026, 0.0, 0.41718555417185554, 0.0, 0.012453300124533, 0.0, 0.0136986301369863, 0.0, 0.009962640099626401, 0.0, 0.05105853051058531, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0186799501867995, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0784557907845579, 3.958904109589041, 0.0, 4.8107098381070985, 0.0, 1.1170610211706102, 0.0, 4.297633872976339, 0.0, 0.28019925280199254, 0.0, 0.31008717310087175, 0.0, 0.09713574097135741, 0.0, 2.070983810709838, 0.0, 0.0660024906600249, 0.0, 0.0784557907845579, 0.0, 0.052303860523038606, 0.0, 0.08343711083437111, 0.0, 0.0323785803237858, 0.0186799501867995, 0.024906600249066, 0.014943960149439602, 0.023661270236612703, 0.0, 0.1980074719800747, 0.0, 0.0273972602739726, 0.0024906600249066002, 0.009962640099626401, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.1307596513075965, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0037359900373599006, 0.0, 0.0136986301369863, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4396014943960149, 0.0, 0.33748443337484435, 0.0, 0.07347447073474471, 0.0, 0.24533001245330013, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0660024906600249, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35367372353673726, 0.0, 0.46824408468244083, 0.0, 0.07098381070983811, 0.0, 0.37608966376089664, 0.0, 0.0136986301369863, 0.0, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0547945205479452, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2403486924034869, 0.0, 0.15940224159402241, 0.0, 0.047322540473225407, 0.0, 0.18057285180572852, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.034869240348692404, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33623910336239105, 0.0, 0.5330012453300125, 0.0, 0.08094645080946451, 0.0, 0.37359900373599003, 0.0, 0.026151930261519303, 0.0, 0.008717310087173101, 0.0, 0.007471980074719801, 0.0, 0.08094645080946451, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16189290161892902, 0.0, 0.1295143212951432, 0.0, 0.0547945205479452, 0.0, 0.09838107098381071, 0.0, 0.009962640099626401, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0660024906600249, 0.0, 0.062266500622665005, 0.0, 0.012453300124533, 0.0, 0.057285180572851806, 0.0, 0.019925280199252802, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.023661270236612703, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14819427148194272, 0.0, 0.21419676214196762, 0.0, 0.039850560398505604, 0.0, 0.0921544209215442, 0.0, 0.026151930261519303, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0361145703611457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.052303860523038606, 0.0, 0.0722291407222914, 0.0, 0.012453300124533, 0.0, 0.038605230386052306, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.057285180572851806, 0.0, 0.049813200498132, 0.0, 0.029887920298879204, 0.0, 0.0759651307596513, 0.0, 0.017434620174346202, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9016189290161893, 0.0, 0.8094645080946451, 0.0, 0.14196762141967623, 0.0, 0.9863013698630136, 0.0, 0.012453300124533, 0.0, 0.053549190535491904, 0.0, 0.019925280199252802, 0.0, 0.16936488169364883, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07098381070983811, 0.0, 0.031133250311332503, 0.0, 0.0062266500622665, 0.0, 0.0361145703611457, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0, 0.0273972602739726, 0.0, 0.0062266500622665, 0.0, 0.021170610211706103, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.0958904109589041, 0.0, 0.0062266500622665, 0.0, 0.05977584059775841, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0186799501867995, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.5965130759651308, 0.0, 0.5193026151930261, 0.0, 0.16811955168119552, 0.0, 0.45703611457036114, 0.0, 0.048567870485678705, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0, 0.074719800747198, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.012453300124533, 0.0, 0.0448318804483188, 0.0, 0.007471980074719801, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0024906600249066002, 0.0, 0.06724782067247821, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19551681195516812, 0.0, 0.2129514321295143, 0.0, 0.0273972602739726, 0.0, 0.17559153175591533, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.22291407222914073, 0.0, 0.1843088418430884, 0.0, 0.034869240348692404, 0.0, 0.14694894146948942, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.04234122042341221, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0112079701120797, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.004673947753431</v>
+        <v>3.590809757418174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.997956746217249</v>
+        <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5934550156793083</v>
+        <v>0.5906991495010002</v>
       </c>
       <c r="E3" t="n">
-        <v>3.621414841474782</v>
+        <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.393015653104956</v>
+        <v>1.382981190106598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02116879496908281</v>
+        <v>0.02093743096043811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4372857906897059</v>
+        <v>0.4295189899033051</v>
       </c>
       <c r="I3" t="n">
-        <v>107.7272472216468</v>
+        <v>15.22384905978332</v>
       </c>
       <c r="J3" t="n">
-        <v>90.52809447596864</v>
+        <v>81.5531434743672</v>
       </c>
       <c r="K3" t="n">
-        <v>1.767261887103261</v>
+        <v>1.539005082169607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8719867377950807</v>
+        <v>0.8673079257910516</v>
       </c>
       <c r="M3" t="n">
-        <v>2.231332637353403</v>
+        <v>2.199023129144309</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[56.233963866948955, 26.557415950258658, 38.99025002362304, 24.876128928218325, 9.222642966012955, 12.716197464894327, 0.8213035106107344, 10.028110609396215, 4.5891310554430875, 5.388716958684494, 2.937699025600965, 0.7267452524464653, 3.8730387237426322, 0.16257474749289128, 0.9936357528199901, 0.6772565664881015, 0.20963699547979395, 0.4410466537966432, 0.0, 0.10491812119131683, 0.04703592779511438, 0.04703592779511405, 0.06655579166210117, 0.09983368749315122, 0.07437859475706973, 0.0, 0.0, 0.033277895831050446, 0.09983368749315122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[32.430183711344476, 31.732351942807977, 33.02221724127314, 34.33357551075867, 33.97622931745735, 33.56983953536337, 33.48444881797362, 33.605714462318524, 31.97944341613076, 32.994673920742954, 30.98888060556926, 32.97524910079267]</t>
+          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[36.034681804912104, 81.80520483679312, 90.76317092248189, 39.9354617878017, 39.31616853914284, 6.005981604644161, 9.912890504509004, 4.875523938396349, 10.375894268082622, 2.765067201591766, 4.060562002359547, 2.205336934693006, 5.268362672831236, 1.5033929829579413, 2.78175353205733, 1.2884639423288993, 5.4804075656118725, 1.0790301093405203, 1.902003849875887, 0.8979750070456771, 1.5154914622334308, 0.5082359628984513, 0.7753623786057899, 0.20636631773163755, 1.272153988332628, 0.1711236035524754, 0.3176308803602473, 0.12814832808961296, 0.40863247136564135, 0.1717258756073615, 0.2006284343598977, 0.11514999709621719]</t>
+          <t>[21.525665253278184, 72.82181880105111, 90.9664397319621, 40.265920935742955, 39.21064536022275, 6.083281219522221, 9.952063501619829, 4.670468717428064, 10.551233422781776, 2.7841997688939584, 4.103658500551337, 2.206909606039071, 5.291253789232363, 1.5548123500604227, 2.799603797065708, 1.299845377339415, 5.632744799191575, 0.9374183928259703, 1.9359471160156618, 0.9343859715205173, 1.5620628617477992, 0.4686479803317561, 0.8111162379774007, 0.18538275532681026, 1.3308529021182596, 0.1710777062124476, 0.3272778450272847, 0.1264975797960707, 0.416990344842046, 0.17517150331773998, 0.19773707423744602, 0.12201692367537842]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8162115214706867, 98.33248704005585, 0.0, 59.53944195037696, 0.0, 16.939622856284718, 0.0, 59.24205618591069, 0.0, 5.435450166698086, 0.0, 6.201964982503552, 0.0, 3.0405163139766684, 0.0, 17.25848805668968, 0.0, 2.230432256094399, 0.0, 2.5529782213973413, 0.0, 1.7202636381452667, 0.033277895831050494, 2.971234734816718, 0.0, 1.3465521666276754, 0.9300732807630926, 1.539322151715355, 1.0706073589370888, 1.0050419596524491, 0.0, 4.451109474469168, 0.0, 0.8168264330947206, 0.5821877122022397, 1.1599356069787563, 0.3271918971923217, 0.5123354834025768, 0.0, 3.003734955889517, 0.0, 0.3469074615784253, 0.29885812417690266, 0.48914977875846627, 0.26700917077285685, 0.24749421441360792, 0.0, 0.6529698195197294, 0.0, 0.21385116755972325, 0.20092227898840254, 0.30159286277336217, 0.11500046545356923, 0.12408930004109037, 0.0, 1.3811188916505988, 0.0, 0.11480792431041666, 0.11963636495138665, 0.20352061807855995, 0.08128737374644553, 0.14082877612594846, 0.0, 1.794694435653096]</t>
+          <t>[0.7046565377001578, 90.54245150808252, 0.0, 60.72768031074205, 0.0, 17.00425485442499, 0.0, 68.16034171615819, 0.0, 5.519229277356225, 0.0, 6.218709756636351, 0.0, 2.965137297495919, 0.0, 17.63900490647072, 0.0, 2.251255641720904, 0.0, 2.500296426799668, 0.0, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 4.419999553061349, 0.14536794364889696, 0.8598442372313213, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 3.0581578015737767, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 1.4147803983772498, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 1.7959446369609326]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[11.660211454664895, 3.7725070354214383, 9.457662426693714, 5.839462814507502, 2.7063135657858424, 3.888046049126405, 0.2394473178354557, 4.153233656627079, 2.445763718828406, 6.561940687757556, 9.034953598503261, 4.766658559189279], [4.13059842562421, 11.30226529856087, 4.379209211291096, 9.29797712154157, 5.169394335346067, 2.2224300292761505, 2.9666579239378845, 0.2302999941924394, 3.258244692335176, 2.6619491033165525, 5.3391458663083755, 8.382431977334559], [10.255970948365036, 4.779627574408951, 11.73684591773263, 3.9818241146024858, 9.502948862816067, 5.731203900402855, 2.624884096316042, 4.062747606300056, 0.21752386235774515, 3.6498027848686383, 1.9724006576143813, 6.20705757810865], [5.962184772243455, 9.941180052215923, 4.45847999480661, 13.808909795649901, 4.421406262612484, 8.71692238220719, 5.605366349037617, 2.190738136435, 3.2768724987690625, 0.2799263462022353, 3.118300311840362, 2.4792720876521925], [2.804468082183547, 5.259115484749216, 10.199305465433769, 5.040917062757943, 13.734369746220475, 4.091937840472223, 8.035615068705141, 5.934291972115858, 2.3152986553109898, 3.755873730559164, 0.2659182832564216, 3.868290039355247], [3.892312785423765, 2.5599425835248364, 5.931978737199383, 9.839618056116176, 4.413290451575483, 13.652809832645085, 2.9266673760910384, 9.089257326552387, 5.441636970916044, 2.455494932101562, 3.6861312351803166, 0.22512914808600096], [0.24836672296338191, 3.291425473048559, 2.934624772680152, 6.139996661173272, 9.379181867947374, 3.2866818031168754, 15.171246688163883, 3.994897212744583, 7.826832719957829, 5.34311163487747, 1.4321755612067257, 3.9213888389575615], [3.670944490474667, 0.21770460041492767, 3.3814103447652957, 2.4088194715978593, 6.179111980704342, 10.169680105558486, 4.540223722157287, 13.329140442141377, 3.6841582499545344, 9.946186343500292, 5.4249450332173055, 2.4671757756557704], [2.068592654423098, 2.8419763827189586, 0.17889118215778574, 3.1876080112843983, 2.209908150346818, 5.9013553698787495, 9.274196935942344, 4.164504989050399, 12.683096856271154, 3.4120256688081376, 8.050503746182809, 5.143990483965216], [6.486652271090916, 1.9789453253351126, 3.7310065241614088, 0.18788221875223884, 3.9945878413130975, 2.593975388299153, 5.754041007029766, 10.505477251694842, 4.1370410711570615, 12.044883677977756, 3.645823675820126, 8.997996960006406], [8.792366723875682, 4.863569141785515, 2.282584216853146, 2.8611697088414734, 0.14082877612594635, 3.3702745725594965, 2.3928772892538883, 5.2502796126148175, 8.984926542324605, 4.464325609261824, 11.448130467509687, 3.2316500776498707], [4.426466090143165, 8.14746127426867, 5.95337528406982, 2.04719609309896, 3.6055485483367486, 0.24403342582280704, 3.706290669668263, 2.5965299607231502, 5.711932955799859, 9.973975913601121, 3.648801130039773, 12.295407899803115]]</t>
+          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.0, 0.46878879183737676, 0.0, 0.2272943583887033, 0.0, 0.0, 0.0, 0.4326794066860151, 0.0, 0.06655579166210102, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09407185559022985, 0.0, 0.0, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210081, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07437859475706973, 78.58266907454636, 0.0, 17.99262911949631, 0.0, 7.790530317223967, 0.0, 21.22472002695241, 0.0, 3.0228368038096822, 0.0, 1.8272945072693856, 0.0, 1.8444258793592823, 0.0, 6.084450327589967, 0.0, 1.0477563053270553, 0.0, 0.8160526379204309, 0.0, 0.8034910443916725, 0.0, 0.9865018867376872, 0.0, 0.5138625779265984, 0.3457913872867804, 0.4945015043442587, 0.4536698613373177, 0.40898273406182906, 0.0, 2.0163932189344136, 0.0, 0.3572752943606503, 0.1787262104273362, 0.26082212480106015, 0.07437859475707047, 0.3180639784260471, 0.0, 1.3111962659377152, 0.0, 0.11015850440141375, 0.03327789583105051, 0.09973514712367923, 0.047035927795114986, 0.0332778958310504, 0.0, 0.05757499854810959, 0.0, 0.03327789583105056, 0.06644489606994097, 0.07437859475706995, 0.03327789583105042, 0.0, 0.0, 0.6864309559517292, 0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.07437859475707002, 0.0, 0.4282939134801094], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.10519890167872825, 17.59553899046107, 0.0, 42.37483102843912, 0.0, 5.0199121943461975, 0.0, 17.220080214108236, 0.0, 2.6035057596819215, 0.0, 3.8100509662400803, 0.0, 1.508989733067572, 0.0, 6.43440460933901, 0.0, 1.315196091236336, 0.0, 1.5166507823901614, 0.0, 0.930019758153976, 0.0, 1.5463104483176149, 0.0, 0.7159777074470058, 0.42420653010181564, 1.0467322949557447, 0.6080201048836569, 0.5141315943475082, 0.0, 2.206689715633824, 0.0, 0.4322772650804568, 0.39777430054872004, 0.8372608010290276, 0.08791930772907727, 0.09958715374853608, 0.0, 1.7038396498097321, 0.0, 0.13288979213988195, 0.1724116103790401, 0.265038630554041, 0.09407185559022868, 0.10508200098512321, 0.0, 0.15903198921302378, 0.0, 0.12872251509506702, 0.0814384375707648, 0.17198334655790953, 0.0, 0.0, 0.0, 0.6291542533887503, 0.0, 0.03327789583105054, 0.07437859475706986, 0.14479207339991387, 0.03327789583105053, 0.0332778958310505, 0.0, 0.8055473874202416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.341064612164404, 0.0, 5.504474224083223, 0.0, 5.57034348184826, 0.0, 5.713290908955969, 0.0, 1.0969919463816085, 0.0, 1.1697969627236078, 0.0, 0.6804828919879421, 0.0, 2.729349523835396, 0.0, 0.675588506990491, 0.0, 0.5073779288387978, 0.0, 0.4031469587711381, 0.0, 0.6033334392214671, 0.0, 0.3389797223680737, 0.20092227898840231, 0.3600783834117038, 0.12426746136764563, 0.24902156604450545, 0.0, 0.7810985818180832, 0.0, 0.17853355074123017, 0.15937168606716073, 0.23703546210623944, 0.128722515095067, 0.08143843757076359, 0.0, 0.7634355960859681, 0.0, 0.033277895831050404, 0.07437859475707065, 0.08143843757076466, 0.07437859475707098, 0.057574998548109546, 0.0, 0.12872251509506702, 0.0, 0.0, 0.04703592779511487, 0.03327789583105033, 0.03327789583105044, 0.03327789583105058, 0.0, 0.3002470291671611, 0.0, 0.047035927795114674, 0.0, 0.06655579166210109, 0.03327789583105049, 0.0, 0.0, 0.4038901716564975], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07437859475706973, 21.088286875279927, 0.0, 17.317189855127854, 0.0, 5.45439943560975, 0.0, 34.243559376818766, 0.0, 2.1273396217815925, 0.0, 2.934134704537847, 0.0, 1.2196935966675597, 0.0, 6.34919365103847, 0.0, 0.9224113347037822, 0.0, 1.482901649098209, 0.0, 0.8088903311506876, 0.033277895831050494, 1.8259204734303718, 0.0, 0.7633108141510947, 0.6506013280742664, 0.770592125021677, 0.48795225550345955, 0.4888971846171341, 0.0, 2.0958222801880595, 0.0, 0.3495194610724422, 0.19877897291552704, 0.549568293854438, 0.22781288900260244, 0.20184996492731558, 0.0, 1.365852308721661, 0.0, 0.2691890981934134, 0.19352805963662356, 0.2965315895878325, 0.09958715374853608, 0.14492782925595307, 0.0, 0.5046587060917321, 0.0, 0.11015850440141375, 0.11015850440141375, 0.14462219937721005, 0.07437859475706994, 0.08143843757076463, 0.0, 0.8050253968343094, 0.0, 0.0, 0.06655579166210052, 0.1049181211913168, 0.05757499854810864, 0.047035927795115, 0.0, 1.1160771004985104], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.290204334865723, 0.0, 2.5371260645871225, 0.0, 0.9262508937047778, 0.0, 2.2328214692208235, 0.0, 0.6543199306224549, 0.0, 0.398837364729298, 0.0, 0.16925673818964782, 0.0, 0.6810137124900106, 0.0, 0.14875718951414185, 0.0, 0.033277895831050265, 0.0, 0.08128737374644553, 0.0, 0.08775138911443416, 0.0, 0.09958715374853608, 0.09394110937611946, 0.09983368749315352, 0.0, 0.047035927795114285, 0.0, 0.3880028500804386, 0.0, 0.057574998548109844, 0.07437859475707047, 0.07437859475707018, 0.04703592779511438, 0.272269458731645, 0.0, 0.23000093090713844, 0.0, 0.0, 0.03327789583105035, 0.047035927795114035, 0.06655579166210045, 0.06655579166210102, 0.0, 0.0, 0.0, 0.06644489606994097, 0.0332778958310506, 0.08791930772907795, 0.0, 0.07437859475706995, 0.0, 0.08791930772907698, 0.0, 0.033277895831050425, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.2293909187559561], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.3816588355087847, 0.0, 4.045809394298867, 0.0, 0.7495875238045118, 0.0, 2.2396119138750774, 0.0, 0.4426877995203932, 0.0, 0.9420979184576497, 0.0, 0.1817099889006465, 0.0, 0.7112999443814386, 0.0, 0.047035927795114466, 0.0, 0.23641240765967755, 0.0, 0.12426746136764565, 0.0, 0.1554005806468758, 0.0, 0.08791930772907713, 0.0, 0.1908838517377874, 0.1371724431971264, 0.0814384375707637, 0.0, 0.22450589904828763, 0.0, 0.0879193077290775, 0.0, 0.11980063018272494, 0.0, 0.0332778958310505, 0.0, 0.2933875814992999, 0.0, 0.0, 0.0, 0.152256492208603, 0.0, 0.03327789583105058, 0.0, 0.11992368144876643, 0.0, 0.0, 0.03327789583105051, 0.03327789583105058, 0.033277895831050536, 0.0, 0.0, 0.11500046545356926, 0.0, 0.07437859475707052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2153745635500438], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.9045582292137402, 0.0, 1.4134850652883977, 0.0, 0.8336645507062904, 0.0, 1.1384686576320875, 0.0, 0.14082877612594488, 0.0, 0.21522613565179172, 0.0, 0.268258321817881, 0.0, 0.41818205331376285, 0.0, 0.03327789583105041, 0.0, 0.0, 0.0, 0.05757499854811011, 0.0, 0.03327789583105042, 0.0, 0.03327789583105049, 0.0, 0.07437859475706995, 0.033277895831050446, 0.13717244319712676, 0.0, 0.19034220812505703, 0.0, 0.13717244319712682, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06644489606994099, 0.0, 0.033277895831050494, 0.03327789583105037, 0.0, 0.0, 0.033277895831050355, 0.0, 0.0, 0.0, 0.03327789583105035, 0.03327789583105038, 0.0, 0.033277895831050355, 0.0, 0.0, 0.06655579166210115, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06644489606994097], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7939688451737512, 5.309483481899928, 0.0, 6.846888892982246, 0.0, 2.5449004028415714, 0.0, 6.232866447020227, 0.0, 0.9936654396939892, 0.0, 0.9222221024385145, 0.0, 0.48685656663268767, 0.0, 6.098740059352587, 0.0, 0.3947034048790542, 0.0, 0.42603952624945, 0.0, 0.366605422616951, 0.0, 0.4904747035082907, 0.0, 0.2784471308108767, 0.17853355074122967, 0.26723003348612895, 0.16257474749289055, 0.2814742126916105, 0.0, 0.7969409461235473, 0.0, 0.20636631773163772, 0.04703592779511425, 0.14849255565634956, 0.06644489606994099, 0.14479207339991648, 0.0, 0.5765446423843676, 0.0, 0.04703592779511407, 0.03327789583105038, 0.04703592779511484, 0.13717244319712638, 0.09973514712367786, 0.0, 0.21799798016349195, 0.0, 0.05757499854810955, 0.0, 0.0, 0.0, 0.0, 0.0, 0.34020848095283907, 0.0, 0.033277895831050536, 0.033277895831050584, 0.0, 0.0, 0.03327789583105053, 0.0, 0.2886169398286527], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3936752372800345, 0.0, 1.085113859075568, 0.0, 0.4439022175163513, 0.0, 0.7337638237334376, 0.0, 0.3060931239444183, 0.0, 0.1696484191874814, 0.0, 0.08143843757076462, 0.0, 0.3971496419649524, 0.0, 0.2048209286765611, 0.0, 0.0, 0.0, 0.033277895831050286, 0.0, 0.06655579166210099, 0.0, 0.047035927795114056, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09958715374853609, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105046, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105044, 0.0, 0.0, 0.03327789583105021, 0.0, 0.06655579166210053, 0.0, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1571624267507008, 0.0, 1.4715644363583111, 0.0, 0.43269218950968347, 0.0, 1.2685470454930925, 0.0, 0.17872621042733358, 0.0, 0.2370354621062383, 0.0, 0.04703592779511445, 0.0, 0.34190946188638244, 0.0, 0.0, 0.0, 0.1050820009851241, 0.0, 0.07437859475707083, 0.0, 0.057574998548109914, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.03327789583105021, 0.0, 0.18188576971011922, 0.0, 0.03327789583105027, 0.0, 0.047035927795114243, 0.0, 0.0332778958310504, 0.0, 0.033277895831050584, 0.0, 0.0, 0.0, 0.04703592779511457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310504], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9331071399716087, 0.0, 0.8612242843238945, 0.0, 0.3323872230854739, 0.0, 0.7070746235941144, 0.0, 0.11015850440141374, 0.0, 0.08791930772907713, 0.0, 0.1371724431971268, 0.0, 0.280564479498399, 0.0, 0.03327789583105038, 0.0, 0.06655579166210053, 0.0, 0.057574998548109865, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050515, 0.0, 0.03327789583105019, 0.0, 0.047035927795114355, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0814384375707633, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310502, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210053], [0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0763505190550153, 0.0, 1.8787816275526819, 0.0, 0.5189038572526866, 0.0, 1.3316955770983587, 0.0, 0.2063663177316368, 0.0, 0.148492555656348, 0.0, 0.0939411093761195, 0.0, 0.4960252731240776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105031, 0.0, 0.1627409871108005, 0.0, 0.0, 0.0, 0.0, 0.0998336874931506, 0.03327789583105037, 0.0, 0.2989259752164435, 0.0, 0.0, 0.0, 0.0, 0.03327789583105022, 0.0, 0.0, 0.1910125881218272, 0.0, 0.0332778958310504, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.057574998548109914], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7097075730944246, 0.0, 0.58253700660481, 0.0, 0.3775152128073846, 0.0, 0.5860373760241918, 0.0, 0.13692132638571997, 0.0, 0.19966737498630144, 0.0, 0.033277895831050355, 0.0, 0.26896070469367467, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.03327789583105053, 0.0, 0.047035927795114334, 0.0, 0.047035927795114334, 0.0, 0.03327789583105034, 0.0, 0.033277895831050286, 0.0, 0.09973514712367731, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06644489606994097, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310506, 0.0, 0.03327789583105027, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3932058527301253, 0.0, 0.4636280924481828, 0.0, 0.1406366375512154, 0.0, 0.3715954064578315, 0.0, 0.2615750227366948, 0.0, 0.0470359277951141, 0.0, 0.0, 0.0, 0.23439439591869146, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.033277895831050314, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07437859475707098, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6735943383799236, 0.0, 0.9947008329893716, 0.0, 0.34247158738677397, 0.0, 0.4959026020904928, 0.0, 0.31677260807512686, 0.0, 0.07437859475706984, 0.0, 0.033277895831050355, 0.0, 0.2824006011980698, 0.0, 0.0, 0.0, 0.03327789583105023, 0.0, 0.0, 0.0, 0.0940718555902281, 0.0, 0.0, 0.033277895831050196, 0.0, 0.0, 0.047035927795114056, 0.0, 0.033277895831050466, 0.0, 0.0, 0.0, 0.03327789583105034, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050563, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210099], [0.0, 0.3775152128073871, 0.0, 0.5506083916324569, 0.0, 0.1848251963178666, 0.0, 0.4018445579768035, 0.0, 0.14875718951414058, 0.0, 0.05757499854810955, 0.0, 0.0, 0.0, 0.17853355074123067, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21039780335745412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09407185559022818, 0.0, 0.0, 0.0, 0.047035927795114056, 0.03327789583105019, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3833035327546977, 0.0, 0.29548522406795735, 0.0, 0.2725469452328626, 0.0, 0.4688202531166937, 0.0, 0.20726963897633552, 0.0, 0.11500046545356923, 0.0, 0.03327789583105029, 0.0, 0.13674167489276895, 0.0, 0.04703592779511504, 0.0, 0.13311158332420103, 0.0, 0.0665557916621012, 0.0, 0.06655579166210052, 0.0, 0.0, 0.03327789583105029, 0.0, 0.0, 0.0, 0.0, 0.033277895831050425, 0.0, 0.0, 0.0, 0.033277895831050446, 0.0, 0.0, 0.0, 0.0665557916621004, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050286, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105053], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0424716410928703, 0.0, 2.2270373548869893, 0.0, 0.802603328788256, 0.0, 1.9986364642145202, 0.0, 0.12837831106638697, 0.0, 0.5647185021683913, 0.0, 0.18442576092753676, 0.0, 0.7725355817804708, 0.0, 0.11514999709621916, 0.0, 0.15225649220860188, 0.0, 0.06655579166210052, 0.0, 0.19352805963662356, 0.0, 0.05757499854810978, 0.09983368749315105, 0.07437859475707076, 0.0, 0.10519890167872692, 0.0, 0.4530395258389817, 0.0, 0.06644489606994097, 0.033277895831050355, 0.04703592779511427, 0.0, 0.03327789583105022, 0.0, 0.14014636889632334, 0.0, 0.03327789583105055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.033277895831050355, 0.0, 0.0, 0.0, 0.07424627782817406, 0.0, 0.0, 0.03327789583105053, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0939411093761195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4522955511919132, 0.0, 0.24537200894906802, 0.0, 0.09973514712367912, 0.0, 0.3522726182397178, 0.0, 0.07437859475707048, 0.0, 0.06655579166210111, 0.0, 0.09983368749315151, 0.0, 0.16257474749289097, 0.0, 0.06655579166210078, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19966737498630235, 0.0, 0.03327789583105055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06644489606994097, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050314, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105047, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21770460041492787, 0.0, 0.2983827348868898, 0.0, 0.09973514712367854, 0.0, 0.277303733091761, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16638947915525348, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.561636902846566, 0.0, 0.6957396548897492, 0.0, 0.09394110937611952, 0.0, 0.407807491728607, 0.0, 0.0, 0.0, 0.03327789583105058, 0.0, 0.0, 0.0, 0.13288979213988195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105045, 0.0, 0.0, 0.0, 0.0, 0.07437859475707012, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310505, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06644489606994097, 0.0, 0.08791930772907713, 0.0, 0.09407185559022857, 0.0, 0.128722515095067, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0470359277951149, 0.0, 0.1996673749863063, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026], [0.0, 0.31660183906585, 0.0, 0.22781288900260327, 0.0, 0.03327789583105019, 0.0, 0.16564914409627343, 0.0, 0.10519890167872692, 0.0, 0.047035927795114126, 0.0, 0.0, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0665557916621006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06655579166210082, 1.4351894071419562, 0.0, 1.4577381845000812, 0.0, 1.142957452700533, 0.0, 1.2433435432940834, 0.0, 0.38444498426884166, 0.0, 0.20184996492731486, 0.0, 0.07437859475707097, 0.0, 0.43960772238707707, 0.0, 0.1487571895141417, 0.0, 0.12440585489228591, 0.0, 0.0, 0.0, 0.047035927795114646, 0.0, 0.23294527081735455, 0.0, 0.0, 0.07437859475707079, 0.0, 0.0, 0.18150695335483627, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.0, 0.0, 0.24621210387867323, 0.0, 0.033277895831050265, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05757499854811003, 0.0, 0.0, 0.0, 0.03327789583105029, 0.0, 0.03327789583105051, 0.0, 0.057574998548109824], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07437859475707077, 0.0, 0.1049181211913168, 0.0, 0.03327789583105051, 0.0, 0.2072696389763341, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.20506082209291113, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09973514712367797, 0.0, 0.16925673818964787, 0.0, 0.03327789583105051, 0.0, 0.07437859475707108, 0.0, 0.0998336874931506, 0.0, 0.0, 0.0, 0.0332778958310503, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0665557916621006, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16257474749289103, 0.0, 0.33514359239873076, 0.0, 0.09958715374853609, 0.0, 0.15560608478512514, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13311158332420103, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210103, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0814384375707648, 0.0, 0.0470359277951149, 0.0, 0.0, 0.0, 0.08791930772907697, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310503, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1331115833242012, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105025, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07437859475707005, 0.0, 0.11029231374852613, 0.0, 0.03327789583105025, 0.0, 0.15238559837814206, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.06655579166210052, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0332778958310504, 0.0, 0.0, 0.0, 0.033277895831050494], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08143843757076412, 0.0, 0.21413834729800804, 0.0, 0.06655579166210106, 0.0, 0.5297583415789411, 0.0, 0.03327789583105021, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12426746136764563, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07437859475707072], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.08143843757076459, 0.0, 0.08143843757076477, 0.0, 0.11480792431041717, 0.0, 0.033277895831050494, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04703592779511411, 0.0, 0.14098578564949052, 0.0, 0.0, 0.0, 0.06655579166210097, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210052, 0.0, 0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06655579166210074, 0.0, 0.09958715374853609, 0.0, 0.03327789583105058, 0.0, 0.20184996492731483, 0.0, 0.0, 0.0, 0.06655579166210115, 0.0, 0.0, 0.0, 0.06644489606994097, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105049, 0.0, 0.0, 0.0, 0.03327789583105057, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050355, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.057574998548108935, 0.0, 0.0, 0.0, 0.03327789583105042, 0.0, 0.033277895831050536, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03327789583105058, 0.0, 0.03327789583105052, 0.0, 0.0, 0.0, 0.07437859475706995, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06655579166210102, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6954613584865613, 0.0, 0.7604739688009751, 0.0, 0.21167038525579543, 0.0, 0.7065807774083438, 0.0, 0.11015850440141375, 0.0, 0.0, 0.0, 0.0, 0.0, 0.20428013847061538, 0.0, 0.0, 0.0, 0.09983368749315272, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050196, 0.0, 0.0, 0.08143843757076337, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.033277895831050563, 0.0, 0.0, 0.03327789583105023, 0.0, 0.06655579166210047, 0.0, 0.0, 0.0, 0.033277895831050244, 0.0, 0.0, 0.0, 0.08143843757076304], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.047035927795114674, 0.0, 0.03327789583105035, 0.0, 0.033277895831050563, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105035, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07437859475706986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08143843757076487, 0.0, 0.14831034597064985, 0.0, 0.0, 0.0, 0.07437859475707012, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03327789583105053, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0470359277951149, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0332778958310505, 0.0, 0.06655579166210099, 0.0, 0.0, 0.0, 0.11514999709621719, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03327789583105053, 0.9620070652653654, 0.0, 0.7480273646891594, 0.0, 0.2719690937746312, 0.0, 0.6182685395053253, 0.0, 0.16618251779327375, 0.0, 0.11015850440141375, 0.0, 0.033277895831050563, 0.0, 0.32535544547293377, 0.0, 0.03327789583105049, 0.0, 0.05757499854810999, 0.0, 0.08143843757076304, 0.0, 0.06644489606994097, 0.0, 0.0, 0.0, 0.03327789583105054, 0.0, 0.04703592779511494, 0.0, 0.119636364951387, 0.0, 0.0, 0.0332778958310505, 0.03327789583105049, 0.0, 0.0, 0.0, 0.16925673818964787, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03327789583105046, 0.0, 0.033277895831050404, 0.0, 0.03327789583105053, 0.033277895831050536, 0.0, 0.0, 0.10508200098512407, 0.0, 0.0, 0.0, 0.0332778958310504, 0.0, 0.03327789583105051, 0.0, 0.18985081806589316]]</t>
+          <t>[[0.0, 0.3565647541981538, 0.0, 0.16484519504378692, 0.0, 0.0, 0.0, 0.4180563763149647, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0996886480507565, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168812, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 70.93287923964961, 0.0, 17.668028603953953, 0.0, 7.715344779718885, 0.0, 23.441244475821733, 0.0, 3.0484997021493054, 0.0, 1.7765521970930178, 0.0, 1.756562593221831, 0.0, 5.933573716113354, 0.0, 1.0702522915155377, 0.0, 0.7917322059381653, 0.0, 0.8407720865311248, 0.0, 0.9811224839210358, 0.0, 0.5000709462095569, 0.314933102102731, 0.5223175959099488, 0.4769044898731617, 0.3925852250797812, 0.0, 1.9357989107029374, 0.0, 0.3341199768415293, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.3351950952181536, 0.0, 1.328077752924219, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.035267253445844166, 0.07053450689168834, 0.035267253445844075, 0.0, 0.0, 0.703092194246869, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243537, 0.0, 0.43109648596875205], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11148312237776016, 17.223530513060375, 0.0, 42.459898143931746, 0.0, 4.984010170249033, 0.0, 17.347553547522782, 0.0, 2.673370563595412, 0.0, 3.8568186139556113, 0.0, 1.4846924477427395, 0.0, 6.502311752426153, 0.0, 1.3085959532187599, 0.0, 1.4621468413816456, 0.0, 0.7877458014801705, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2299051820945017, 0.0, 0.4537993501305289, 0.30426855400399416, 0.8459760603018561, 0.09315867601128319, 0.10550819217920296, 0.0, 1.7470448864165657, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.6341970707478032, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.7644967245088606], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.096249707327681, 0.0, 5.437655888510956, 0.0, 5.480219294185036, 0.0, 5.8278014502420605, 0.0, 1.0710764824222736, 0.0, 1.1754055090594748, 0.0, 0.5986295022743896, 0.0, 2.793118367461833, 0.0, 0.7141574034175634, 0.0, 0.5313197250903469, 0.0, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.8022516076349712, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.7499244570306806, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.30842477764736526, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.4236099457674603], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.035267253445844055, 22.94520199861077, 0.0, 17.764730272076104, 0.0, 5.541277775018089, 0.0, 42.27486702534726, 0.0, 2.2300734810769267, 0.0, 2.9549238190530067, 0.0, 1.2360701813152588, 0.0, 6.957912098315579, 0.0, 0.9224525159191787, 0.0, 1.483301489952902, 0.0, 0.8471649743716004, 0.0, 1.7321470584423648, 0.0, 0.7142268904584004, 0.6861033788001838, 0.7717650802104099, 0.4449158242263317, 0.46977506001687913, 0.0, 2.0979697391836702, 0.1410690137833764, 0.41701637803238084, 0.20769775082828748, 0.5595427255680409, 0.238876241237813, 0.21101638435840725, 0.0, 1.3561832520669443, 0.03526725344584425, 0.2722121635989663, 0.1988632555749859, 0.27948712605938364, 0.10550819217920143, 0.15357499386767554, 0.0, 0.5254879493653946, 0.0, 0.10568443093039617, 0.08629696706884352, 0.15321102365359743, 0.08629696706884211, 0.08629696706884217, 0.0, 0.8314329039747757, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 1.149696599164147], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.3024151452686232, 0.0, 2.6174650629776384, 0.0, 0.923069317931281, 0.0, 2.406322410051656, 0.0, 0.5096519732428465, 0.0, 0.41701637803238145, 0.0, 0.11114875584899035, 0.0, 0.6501886957591321, 0.0, 0.15764126922487304, 0.0, 0.03526725344584391, 0.0, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.4067904368502481, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.24120856130395588, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0862969670688437, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.2380437813447033], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.333434763897047, 0.0, 4.146959038727561, 0.0, 0.7421163856103026, 0.0, 2.1624265486180545, 0.0, 0.4192306890890823, 0.0, 1.0009478935914595, 0.0, 0.18613414088700717, 0.0, 0.6965748721411671, 0.0, 0.03526725344584399, 0.0, 0.2480239721320208, 0.0, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.23527840339477765, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.3108589175095745, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.11671605991392282, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22821160920972303], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.802228755168092, 0.0, 1.3843992698346834, 0.0, 0.8450754776983171, 0.0, 1.2412798397374032, 0.0, 0.14920072231784717, 0.0, 0.21995503635527222, 0.0, 0.2821380275667512, 0.0, 0.33274323072806267, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.19559215180336503, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689278, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768866], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.689773443756574, 5.057778719321288, 0.0, 6.986842989729219, 0.0, 2.60256513562926, 0.0, 6.603318678102789, 0.0, 1.0178697067281803, 0.0, 0.9493973272836879, 0.0, 0.502079625598506, 0.0, 6.397477118204055, 0.0, 0.41078527597478676, 0.0, 0.43228560098924473, 0.0, 0.3560598650080203, 0.0, 0.44555325224983844, 0.0, 0.2667972418495151, 0.18911803145698147, 0.27674920421951754, 0.1722341381780362, 0.2878841001603976, 0.0, 0.8105137370837415, 0.0, 0.2158053071699267, 0.04984432402537842, 0.14080492179429777, 0.07040246089714872, 0.14938770373228444, 0.0, 0.6043328779845395, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.07882063461243632, 0.0, 0.23100116464611686, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.3602298689492697, 0.0, 0.03526725344584419, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.2815272253278437], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.373934851779479, 0.0, 1.0689444512204713, 0.0, 0.4637077898358893, 0.0, 0.8036885603582327, 0.0, 0.3242978994722724, 0.0, 0.1797852881565914, 0.0, 0.07882063461243556, 0.0, 0.41078527597478676, 0.0, 0.14953297207613514, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10550819217920401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.07053450689168782, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1223733207483821, 0.0, 1.4686174249684079, 0.0, 0.4477060985422264, 0.0, 1.2257210862388495, 0.0, 0.17591360903495365, 0.0, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.3521664688583445, 0.0, 0.0, 0.0, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.17950904055170688, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9300656134315697, 0.0, 0.7124550306544375, 0.0, 0.31206886765491826, 0.0, 0.7754137099184424, 0.0, 0.11134392501746977, 0.0, 0.08629696706884356, 0.0, 0.14536794364889521, 0.0, 0.2889058270861465, 0.0, 0.03526725344584404, 0.0, 0.07053450689168782, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884339, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168782], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.078035805584502, 0.0, 1.7615922645009436, 0.0, 0.5464005171597189, 0.0, 1.3648862386413065, 0.0, 0.21305700411948192, 0.0, 0.11671605991392046, 0.0, 0.09953295742310303, 0.0, 0.5012294730751393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.3089372367037815, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.20241114548592845, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6685926212108927, 0.0, 0.6035702315308191, 0.0, 0.3954741484748924, 0.0, 0.5030763336708686, 0.0, 0.14080492179429757, 0.0, 0.21160352067506322, 0.0, 0.035267253445844006, 0.0, 0.24321904091125665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.10568443093039523, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37263470404513116, 0.0, 0.4850012838037022, 0.0, 0.140606527285403, 0.0, 0.3919566170583829, 0.0, 0.27715238404366227, 0.0, 0.03526725344584402, 0.0, 0.0, 0.0, 0.24588882630368028, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243652, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6963388348845994, 0.0, 1.0331721919511425, 0.0, 0.36113282065740643, 0.0, 0.47761937258736037, 0.0, 0.33562048161107094, 0.0, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.2951510946817111, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832], [0.0, 0.392652375191469, 0.0, 0.5688146222788149, 0.0, 0.16505203903612162, 0.0, 0.36640224827946927, 0.0, 0.1576412692248712, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.18591738586820974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22296624475551793, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075713, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.0, 0.3724057323758755, 0.0, 0.2994546142200476, 0.0, 0.226738996961806, 0.0, 0.4633062821858818, 0.0, 0.21683766852786868, 0.0, 0.12183885238988858, 0.0, 0.035267253445843944, 0.0, 0.1362142855678741, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.07053450689168768, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.91644514967074, 0.0, 2.288595383431523, 0.0, 0.7762153056305189, 0.0, 2.19101792451358, 0.0, 0.13145164696706596, 0.0, 0.5933393108013166, 0.0, 0.1922573368758145, 0.0, 0.7376769906791236, 0.0, 0.11687539931905357, 0.0, 0.07040246089714874, 0.0, 0.0705345068916878, 0.0, 0.1863173520225662, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.4062868887216017, 0.0, 0.049844324025377876, 0.035267253445844006, 0.04984432402537845, 0.0, 0.03526725344584385, 0.0, 0.14007610152566816, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.09953295742310303], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47992569317633016, 0.0, 0.2598535576242571, 0.0, 0.10568443093039691, 0.0, 0.3700369835434605, 0.0, 0.07882063461243574, 0.0, 0.07053450689168844, 0.0, 0.10580176033753227, 0.0, 0.1573261439337863, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584396, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.0, 0.2981830830649509, 0.0, 0.10568443093039637, 0.0, 0.22496741047060465, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.590890390979193, 0.0, 0.6747689409947849, 0.0, 0.09315867601128223, 0.0, 0.38517153373547103, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.13639632946543445, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.07882063461243612, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.0, 0.09315867601128307, 0.0, 0.09968864805075678, 0.0, 0.08629696706884303, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.21160352067506732, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.0, 0.23887624123781437, 0.0, 0.03526725344584383, 0.0, 0.1754545803686836, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168814, 1.4452525608517164, 0.0, 1.4637380325644744, 0.0, 1.2041355991434601, 0.0, 1.326644164675334, 0.0, 0.4071372172102203, 0.0, 0.15341333593459053, 0.0, 0.07882063461243645, 0.0, 0.4594609597595577, 0.0, 0.1410690137833756, 0.0, 0.13182863758724722, 0.0, 0.0, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.1891180314569825, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2513222833258918, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768784, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445844166, 0.0, 0.04984432402537851], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.0, 0.11114875584899023, 0.0, 0.035267253445844166, 0.0, 0.15341333593459083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2173091951010616, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.0, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.04984432402537791, 0.0, 0.10580176033753151, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15732614393378633, 0.0, 0.339191868514091, 0.0, 0.09953295742310306, 0.0, 0.13166383701150325, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.0, 0.04984432402537786, 0.0, 0.0, 0.0, 0.09315867601128291, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.0, 0.11687539931905308, 0.0, 0.0, 0.0, 0.16148045939482333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.0, 0.20102727913036317, 0.0, 0.07053450689168839, 0.0, 0.5425467109877259, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1269381686756839, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.11114875584898978, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.1318286375872472, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.0, 0.10550819217920085, 0.0, 0.0, 0.0, 0.2020737422205393, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.06100846183768903, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6917984760108976, 0.0, 0.7720081890546565, 0.0, 0.22150076890975368, 0.0, 0.7636198727869011, 0.0, 0.11671605991392184, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12160952045562846, 0.0, 0.0, 0.0, 0.1058017603375333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0862969670688434, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.08629696706884354], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04984432402537779, 0.0, 0.13621428556787427, 0.0, 0.0, 0.0, 0.07053450689168825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.11687539931905205, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.9950677749785297, 0.0, 0.7238356832856068, 0.0, 0.2711160947356388, 0.0, 0.621992164488976, 0.0, 0.179509040551707, 0.0, 0.09315867601128387, 0.0, 0.04984432402537798, 0.0, 0.33582373680066324, 0.0, 0.03526725344584415, 0.0, 0.06100846183768789, 0.0, 0.08629696706884349, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.04984432402537784, 0.0, 0.10550819217920339, 0.0, 0.035267253445844124, 0.03526725344584416, 0.03526725344584415, 0.0, 0.0, 0.03526725344584421, 0.16886968849498357, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.035267253445844124, 0.0, 0.0, 0.0, 0.03526725344584419, 0.03526725344584419, 0.0, 0.0, 0.11134392501747037, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.1983635198880408]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.8399</v>
+        <v>75.6647</v>
       </c>
       <c r="C4" t="n">
-        <v>14.7</v>
+        <v>13.64</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4433</v>
+        <v>3.4561</v>
       </c>
       <c r="E4" t="n">
-        <v>23.21</v>
+        <v>22.05</v>
       </c>
       <c r="F4" t="n">
-        <v>5.966600000000001</v>
+        <v>6.249599999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0165</v>
+        <v>0.0159</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2361</v>
+        <v>2.4286</v>
       </c>
       <c r="I4" t="n">
-        <v>103.3</v>
+        <v>2.76</v>
       </c>
       <c r="J4" t="n">
-        <v>280.75</v>
+        <v>281.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.1166</v>
+        <v>5.911400000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7639</v>
+        <v>2.8402</v>
       </c>
       <c r="M4" t="n">
-        <v>5.9907</v>
+        <v>6.4263</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[71.3, 20.64, 103.73, 38.12, 10.12, 16.72, 0.41, 11.24, 1.75, 2.01, 1.49, 0.11, 1.42, 0.04, 0.34, 0.07, 0.02, 0.07, 0.01, 0.03, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.03, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[69.9, 19.28, 91.8, 41.03, 12.38, 23.16, 0.53, 12.77, 2.05, 3.42, 1.59, 0.16, 1.62, 0.0, 0.31, 0.16, 0.03, 0.09, 0.01, 0.06, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[25.6, 18.29, 27.05, 22.67, 24.21, 22.62, 22.44, 27.92, 18.75, 27.11, 21.15, 22.94]</t>
+          <t>[51.79, 0.44, 49.9, 0.32, 54.56, 11.38, 0.82, 44.1, 0.91, 48.75, 0.27, 18.16]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[4.05, 73.44, 123.2, 26.81, 25.8, 2.33, 5.26, 2.0, 4.84, 1.09, 2.14, 0.8, 2.18, 0.55, 1.49, 0.39, 1.68, 0.3, 0.34, 0.12, 0.54, 0.1, 0.22, 0.01, 0.24, 0.02, 0.06, 0.0, 0.05, 0.0, 0.03, 0.0]</t>
+          <t>[8.58, 66.34, 116.28, 30.43, 30.34, 2.75, 5.89, 2.16, 5.09, 0.94, 1.71, 0.68, 2.56, 0.64, 1.16, 0.39, 2.09, 0.35, 0.66, 0.12, 0.72, 0.04, 0.17, 0.03, 0.32, 0.01, 0.04, 0.03, 0.11, 0.02, 0.02, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.13, 115.85, 0.0, 70.28, 0.0, 10.17, 0.0, 51.32, 0.0, 3.48, 0.0, 3.27, 0.0, 1.44, 0.0, 13.58, 0.0, 0.95, 0.0, 1.58, 0.0, 0.51, 0.0, 1.08, 0.0, 0.36, 0.09, 0.55, 0.14, 0.16, 0.0, 2.51, 0.0, 0.12, 0.06, 0.25, 0.01, 0.03, 0.0, 1.24, 0.0, 0.01, 0.02, 0.04, 0.0, 0.0, 0.0, 0.15, 0.0, 0.05, 0.0, 0.08, 0.0, 0.0, 0.0, 0.33, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.56]</t>
+          <t>[0.07, 103.64, 0.0, 69.15, 0.0, 14.75, 0.0, 59.69, 0.0, 3.75, 0.0, 3.37, 0.0, 1.45, 0.0, 13.37, 0.0, 0.96, 0.0, 1.05, 0.0, 0.54, 0.0, 1.27, 0.0, 0.48, 0.15, 0.53, 0.14, 0.34, 0.0, 2.48, 0.0, 0.17, 0.09, 0.34, 0.02, 0.06, 0.0, 1.64, 0.0, 0.05, 0.05, 0.11, 0.01, 0.01, 0.0, 0.12, 0.0, 0.05, 0.03, 0.04, 0.01, 0.0, 0.0, 0.57, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.53]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[6.43, 0.78, 5.49, 1.2, 0.89, 1.1, 0.07, 1.51, 0.36, 3.05, 3.01, 1.6], [0.92, 4.49, 0.57, 4.06, 0.83, 0.36, 0.91, 0.05, 0.88, 0.37, 1.67, 3.11], [6.29, 0.72, 6.71, 0.4, 5.18, 1.95, 0.54, 1.76, 0.05, 1.34, 0.43, 1.57], [1.24, 3.99, 0.56, 6.69, 0.83, 4.4, 1.76, 0.46, 1.09, 0.02, 1.15, 0.4], [0.85, 0.83, 6.03, 0.9, 6.01, 0.99, 3.24, 2.38, 0.28, 1.44, 0.03, 1.15], [0.94, 0.59, 1.95, 5.02, 1.14, 5.42, 0.63, 4.13, 1.4, 0.49, 0.81, 0.04], [0.05, 1.03, 0.65, 1.79, 3.77, 0.92, 6.11, 1.19, 3.16, 1.91, 0.73, 1.06], [1.35, 0.03, 1.54, 0.26, 2.64, 4.3, 1.27, 7.87, 0.48, 6.03, 1.35, 0.69], [0.35, 1.0, 0.01, 1.04, 0.33, 1.49, 3.89, 0.37, 4.54, 0.55, 4.15, 0.96], [2.9, 0.32, 1.42, 0.02, 1.49, 0.58, 2.14, 6.11, 0.72, 6.02, 0.77, 4.54], [2.83, 1.32, 0.3, 0.88, 0.04, 1.03, 0.64, 1.27, 4.82, 0.87, 5.9, 1.17], [1.39, 3.12, 1.69, 0.37, 0.98, 0.01, 1.18, 0.7, 0.93, 4.89, 1.06, 6.54]]</t>
+          <t>[[13.42, 0.03, 12.14, 0.02, 4.78, 0.83, 0.06, 4.33, 0.1, 9.97, 0.03, 5.92], [0.04, 0.08, 0.04, 0.04, 0.03, 0.04, 0.01, 0.03, 0.09, 0.01, 0.01, 0.02], [13.36, 0.05, 12.4, 0.03, 14.73, 1.1, 0.06, 3.32, 0.05, 3.05, 0.04, 1.51], [0.02, 0.03, 0.03, 0.04, 0.04, 0.03, 0.02, 0.03, 0.05, 0.0, 0.02, 0.0], [5.03, 0.05, 16.55, 0.05, 13.52, 3.5, 0.23, 9.16, 0.01, 4.93, 0.03, 1.36], [0.66, 0.03, 0.99, 0.05, 4.17, 2.87, 0.04, 1.83, 0.06, 0.48, 0.01, 0.11], [0.05, 0.03, 0.05, 0.01, 0.26, 0.05, 0.12, 0.08, 0.02, 0.1, 0.01, 0.03], [4.14, 0.02, 3.48, 0.02, 10.13, 2.15, 0.1, 11.32, 0.05, 11.35, 0.0, 1.18], [0.08, 0.07, 0.05, 0.03, 0.05, 0.14, 0.05, 0.03, 0.16, 0.12, 0.04, 0.06], [9.92, 0.0, 3.04, 0.01, 5.37, 0.51, 0.1, 11.78, 0.12, 13.68, 0.0, 4.07], [0.01, 0.02, 0.02, 0.01, 0.03, 0.03, 0.0, 0.02, 0.07, 0.01, 0.04, 0.01], [4.9, 0.03, 1.07, 0.01, 1.17, 0.1, 0.03, 1.92, 0.13, 4.83, 0.04, 3.87]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 72.4, 0.0, 15.93, 0.0, 3.64, 0.0, 15.72, 0.0, 1.28, 0.0, 0.56, 0.0, 0.44, 0.0, 3.63, 0.0, 0.25, 0.0, 0.18, 0.0, 0.1, 0.0, 0.08, 0.0, 0.06, 0.04, 0.05, 0.03, 0.03, 0.0, 0.58, 0.0, 0.03, 0.01, 0.01, 0.0, 0.0, 0.0, 0.29, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 15.57, 0.0, 30.9, 0.0, 1.92, 0.0, 12.14, 0.0, 0.86, 0.0, 1.26, 0.0, 0.31, 0.0, 3.74, 0.0, 0.22, 0.0, 0.54, 0.0, 0.14, 0.0, 0.31, 0.0, 0.12, 0.01, 0.27, 0.03, 0.03, 0.0, 0.76, 0.0, 0.01, 0.01, 0.13, 0.0, 0.02, 0.0, 0.42, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.08, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.17], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 3.34, 0.0, 2.19, 0.0, 1.15, 0.0, 1.81, 0.0, 0.18, 0.0, 0.16, 0.0, 0.09, 0.0, 0.79, 0.0, 0.03, 0.0, 0.04, 0.0, 0.05, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.1, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 14.79, 0.0, 11.48, 0.0, 1.89, 0.0, 14.88, 0.0, 0.65, 0.0, 0.8, 0.0, 0.36, 0.0, 3.08, 0.0, 0.22, 0.0, 0.46, 0.0, 0.11, 0.0, 0.34, 0.0, 0.13, 0.02, 0.13, 0.06, 0.04, 0.0, 0.7, 0.0, 0.05, 0.02, 0.09, 0.0, 0.01, 0.0, 0.26, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.08, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.13, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.52, 0.0, 0.66, 0.0, 0.2, 0.0, 0.68, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.0, 0.18, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.83, 0.0, 1.16, 0.0, 0.14, 0.0, 0.72, 0.0, 0.07, 0.0, 0.09, 0.0, 0.0, 0.0, 0.1, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.49, 0.0, 0.39, 0.0, 0.1, 0.0, 0.36, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 3.79, 0.0, 3.6, 0.0, 0.7, 0.0, 2.7, 0.0, 0.16, 0.0, 0.23, 0.0, 0.13, 0.0, 1.28, 0.0, 0.08, 0.0, 0.11, 0.0, 0.07, 0.0, 0.13, 0.0, 0.01, 0.01, 0.02, 0.0, 0.03, 0.0, 0.2, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.08, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32, 0.0, 0.3, 0.0, 0.04, 0.0, 0.19, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.29, 0.0, 0.65, 0.0, 0.05, 0.0, 0.3, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.1, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.17, 0.0, 0.14, 0.0, 0.02, 0.0, 0.07, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.38, 0.0, 0.02, 0.0, 0.29, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.09, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.07, 0.0, 0.03, 0.0, 0.1, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.0, 0.3, 0.0, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.06, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.75, 0.0, 0.69, 0.0, 0.11, 0.0, 0.47, 0.0, 0.06, 0.0, 0.02, 0.0, 0.02, 0.0, 0.14, 0.0, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.17, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.4, 0.0, 0.4, 0.0, 0.02, 0.0, 0.21, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.09, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.05, 0.0, 0.02, 0.0, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.0, 0.23, 0.0, 0.01, 0.0, 0.1, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 57.49, 0.0, 17.42, 0.0, 5.06, 0.0, 14.58, 0.0, 1.41, 0.0, 0.91, 0.0, 0.43, 0.0, 3.45, 0.0, 0.28, 0.0, 0.2, 0.0, 0.1, 0.0, 0.27, 0.0, 0.1, 0.02, 0.06, 0.06, 0.08, 0.0, 0.45, 0.0, 0.08, 0.03, 0.06, 0.0, 0.01, 0.0, 0.42, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.15, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.16], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 17.75, 0.0, 27.77, 0.0, 3.2, 0.0, 10.98, 0.0, 0.86, 0.0, 1.01, 0.0, 0.39, 0.0, 3.37, 0.0, 0.29, 0.0, 0.32, 0.0, 0.15, 0.0, 0.39, 0.0, 0.11, 0.03, 0.23, 0.02, 0.08, 0.0, 0.73, 0.0, 0.04, 0.01, 0.11, 0.0, 0.01, 0.0, 0.47, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.01, 0.03, 0.0, 0.0, 0.0, 0.19, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.19], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.69, 0.0, 3.47, 0.0, 1.94, 0.0, 2.48, 0.0, 0.22, 0.0, 0.25, 0.0, 0.11, 0.0, 0.84, 0.0, 0.06, 0.0, 0.07, 0.0, 0.02, 0.0, 0.07, 0.0, 0.04, 0.02, 0.0, 0.01, 0.01, 0.0, 0.15, 0.0, 0.01, 0.02, 0.02, 0.0, 0.01, 0.0, 0.13, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 14.02, 0.0, 11.9, 0.0, 2.49, 0.0, 23.22, 0.0, 0.64, 0.0, 0.68, 0.0, 0.26, 0.0, 3.33, 0.0, 0.23, 0.0, 0.31, 0.0, 0.12, 0.0, 0.28, 0.0, 0.11, 0.04, 0.12, 0.02, 0.07, 0.0, 0.66, 0.0, 0.03, 0.02, 0.09, 0.01, 0.01, 0.0, 0.36, 0.0, 0.02, 0.02, 0.03, 0.01, 0.01, 0.0, 0.07, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.08], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.37, 0.0, 0.85, 0.0, 0.2, 0.0, 0.74, 0.0, 0.12, 0.0, 0.07, 0.0, 0.0, 0.0, 0.2, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.86, 0.0, 1.02, 0.0, 0.24, 0.0, 0.7, 0.0, 0.09, 0.0, 0.04, 0.0, 0.04, 0.0, 0.15, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.46, 0.0, 0.37, 0.0, 0.06, 0.0, 0.28, 0.0, 0.03, 0.0, 0.07, 0.0, 0.03, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 3.56, 0.0, 3.14, 0.0, 0.64, 0.0, 3.59, 0.0, 0.18, 0.0, 0.16, 0.0, 0.07, 0.0, 1.39, 0.0, 0.04, 0.0, 0.02, 0.0, 0.03, 0.0, 0.05, 0.0, 0.03, 0.0, 0.02, 0.0, 0.04, 0.0, 0.14, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.08, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.19, 0.0, 0.11, 0.0, 0.21, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31, 0.0, 0.26, 0.0, 0.04, 0.0, 0.25, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.13, 0.0, 0.04, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34, 0.0, 0.37, 0.0, 0.1, 0.0, 0.25, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.12, 0.0, 0.01, 0.0, 0.15, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.18, 0.0, 0.03, 0.0, 0.07, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.1, 0.0, 0.04, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.7, 0.0, 0.46, 0.0, 0.18, 0.0, 0.75, 0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.0, 0.13, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.04, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.17, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47, 0.0, 0.43, 0.0, 0.17, 0.0, 0.38, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17, 0.0, 0.14, 0.0, 0.02, 0.0, 0.14, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.0, 0.16, 0.0, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.438054640267513</v>
+        <v>3.551973100967968</v>
       </c>
       <c r="C5" t="n">
-        <v>3.661966684720111</v>
+        <v>2.61732688061694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5360336836431084</v>
+        <v>0.5381484832274454</v>
       </c>
       <c r="E5" t="n">
-        <v>5.014568775079269</v>
+        <v>4.771530152896448</v>
       </c>
       <c r="F5" t="n">
-        <v>1.19281953370994</v>
+        <v>1.144915647547888</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02422292302757865</v>
+        <v>0.02285147697633569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2619003436423862</v>
+        <v>0.1782471318142314</v>
       </c>
       <c r="I5" t="n">
-        <v>92.49394574781637</v>
+        <v>5.990191983567806</v>
       </c>
       <c r="J5" t="n">
-        <v>29.77192469424844</v>
+        <v>35.25308497138938</v>
       </c>
       <c r="K5" t="n">
-        <v>1.62042970844156</v>
+        <v>1.42962513967823</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8626562409210289</v>
+        <v>0.8627931154106412</v>
       </c>
       <c r="M5" t="n">
-        <v>2.373400621471225</v>
+        <v>2.319192814321397</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[17.596874722518205, 14.535143618141511, 17.075628831759023, 14.643961212732025, 4.402908129861446, 5.242289576129881, 0.8496469855181034, 3.5499859154650175, 1.7226433176952214, 1.5652156400956394, 1.2123943252918996, 0.3433656942677882, 1.234341929936758, 0.24166091947189128, 0.6514598989960935, 0.2551470164434615, 0.1399999999999999, 0.29171904291629636, 0.09949874371066196, 0.17058722109231964, 0.13999999999999993, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.17058722109232008, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[13.474791278531923, 13.322222036882584, 18.263077506269305, 10.51708609834492, 5.139610880212626, 6.441614704404479, 0.8655056325639947, 3.972039778249961, 1.5058220346375595, 2.214407369929932, 1.2813664581219537, 0.3929376540877703, 1.354843164355196, 0.0, 0.5421254467371919, 0.39293765408777015, 0.17058722109231975, 0.2861817604250837, 0.09949874371066199, 0.2764054992217049, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[24.890158697766477, 23.709616192591568, 24.40138315751793, 28.081686202933035, 22.96619036758165, 25.54125290583843, 27.17216222533643, 26.385101856919178, 25.134985577875312, 25.45108838537166, 24.558247087282115, 25.44319948434159]</t>
+          <t>[15.104499329669956, 1.4582180906846551, 16.412495239907916, 0.7984985911070857, 12.954010961860423, 14.838315268250637, 3.1285140242613596, 14.691834466805018, 2.2275322668818966, 19.049606295144265, 0.8815327560561781, 16.18932981935942]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[8.995971320541212, 59.53071812098357, 82.14121985945911, 28.0509162060707, 19.746898490649116, 2.470040485498162, 5.68791701767879, 2.8844410203711917, 4.32370211739893, 1.6253922603482525, 4.1833479415415615, 1.3038404810405286, 2.5075087238133396, 1.1169153951844333, 2.816007812489163, 0.988888264668968, 2.556873090319502, 0.714142842854286, 0.6959885056522128, 0.4308131845707596, 1.8078716768620502, 0.36055512754639873, 0.7691553809211767, 0.09949874371066196, 0.6800000000000002, 0.13999999999999987, 0.23748684174075826, 0.0, 0.21794494717703358, 0.0, 0.1705872210923197, 0.0]</t>
+          <t>[7.750070967417007, 51.47314251141074, 71.64790017858165, 25.676158201724803, 24.394761732798287, 2.3339880033967613, 5.4970810436085085, 2.052900387257014, 3.641689168504089, 1.1984990613262914, 1.8400815199332878, 0.8930845424706447, 3.0799999999999996, 0.9002221947941514, 1.7304334717058605, 0.7334166619323557, 2.9566704246499986, 0.7664854858377947, 1.0316976301223142, 0.38157568056677843, 1.4702380759591291, 0.19595917942265423, 0.42555845661906444, 0.17058722109231986, 0.8352245207128444, 0.09949874371066196, 0.19595917942265398, 0.17058722109231977, 0.37134889255254305, 0.13999999999999987, 0.13999999999999987, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.39127995093027684, 81.79882334117036, 0.0, 60.68839757317703, 0.0, 11.372822868575772, 0.0, 35.64937026091766, 0.0, 4.327770788754876, 0.0, 3.9946339006221847, 0.0, 1.904310898986823, 0.0, 12.828234484916466, 0.0, 1.6085707942145413, 0.0, 3.037038030713478, 0.0, 1.0535179163165653, 0.0, 2.138597671372529, 0.0, 0.6858571279792907, 0.3766961640367475, 1.395528573695287, 0.37469987990390397, 0.41761226035642246, 0.0, 3.1921622765768034, 0.0, 0.3249615361854386, 0.2764054992217047, 0.8986100377805715, 0.09949874371066196, 0.17058722109231989, 0.0, 1.5173661390712523, 0.0, 0.09949874371066199, 0.13999999999999996, 0.24166091947189144, 0.0, 0.0, 0.0, 0.7399324293474373, 0.0, 0.21794494717703403, 0.0, 0.3919183588453081, 0.0, 0.0, 0.0, 0.6333245613427599, 0.0, 0.0, 0.0, 0.22158519806160326, 0.0, 0.09949874371066199, 0.0, 1.0031948963187558]</t>
+          <t>[0.29171904291629597, 75.3061113057898, 0.0, 56.71002997706842, 0.0, 11.672510441203297, 0.0, 46.19798588683277, 0.0, 2.878801834096956, 0.0, 3.2082861468391486, 0.0, 1.6933694221876088, 0.0, 13.21185452538742, 0.0, 1.3778243719719876, 0.0, 1.4585952145814813, 0.0, 1.0716342659695055, 0.0, 1.7936276090649372, 0.0, 0.9537295214053096, 0.47696960070847316, 1.1353853971229333, 0.40049968789001583, 0.8272847151978575, 0.0, 2.41445646057244, 0.0, 0.4013726448077897, 0.28618176042508386, 0.8856635930193812, 0.13999999999999987, 0.27640549922170493, 0.0, 1.8895502110290683, 0.0, 0.2179449471770339, 0.21794494717703367, 0.421781934179263, 0.09949874371066196, 0.09949874371066196, 0.0, 0.40693979898751564, 0.0, 0.2598076211353318, 0.17058722109231994, 0.19595917942265415, 0.09949874371066193, 0.0, 0.0, 0.8155366331440909, 0.0, 0.0, 0.0, 0.19595917942265412, 0.0, 0.09949874371066196, 0.0, 0.8769834662067468]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[8.39911304841172, 2.924311884871378, 7.066109254745499, 2.7092434368288147, 2.134923886231076, 1.808314132002512, 0.2917190429162964, 2.25164384395046, 0.9951884243699783, 5.309190145398824, 5.177827729849651, 3.9446165846632013], [2.862446506050375, 7.794222219054318, 2.24613000514218, 6.739169088248192, 2.1309856874226054, 0.9951884243699776, 1.5562454819211538, 0.21794494717703386, 1.5829087149927514, 1.1632282665066207, 2.9767599836063376, 6.028092567305176], [8.155114959336869, 2.5102987869972835, 7.6671963585133245, 1.199999999999999, 7.231016526049432, 4.725198408532702, 1.3886684269471963, 2.1546229368499725, 0.21794494717703367, 1.8451016232175397, 1.1247666424641156, 3.0372849718128174], [2.8848570155208733, 6.4984536622184175, 1.7396551382386118, 9.812945531286719, 2.396059264709451, 8.287339742040265, 4.4679301695527895, 1.1438531374263052, 1.8226080214900853, 0.13999999999999987, 1.768473918382739, 1.0392304845413252], [1.564448784716201, 1.816892952267688, 8.055377086145626, 2.688865931949749, 7.07459539479114, 2.032215539749659, 5.5156504602811856, 4.0540843602470815, 0.9173875952943776, 2.1694238866574698, 0.17058722109231983, 2.0266968199511237], [1.6841615124446947, 1.5172013709458603, 4.486368241685027, 8.98329560907354, 2.5613277806637735, 8.205095977500813, 1.5142985174660895, 7.028022481466602, 3.4263683398023637, 1.2609123680890757, 1.5342424840943505, 0.24166091947189136], [0.21794494717703375, 2.0369339704565785, 1.6332482971061089, 3.8943420496920913, 6.294211626566111, 2.1339165869358636, 9.506729195680284, 2.7191726682945325, 6.116731153156888, 5.651716553402158, 1.648362824137939, 1.8045498053531261], [1.8459414941974732, 0.17058722109231997, 1.9970978944458384, 0.7696752561957539, 4.648698742659066, 7.3491496106692455, 2.9456917693472264, 9.26353604192265, 1.0533755265810958, 7.668709148220446, 3.7666297933298396, 1.4879180084937482], [0.9630680142129118, 1.7204650534085253, 0.09949874371066199, 1.72, 1.0682228231974837, 3.536933700255067, 6.998421250539291, 0.955562661472286, 7.5318258078635925, 1.8241436346954716, 7.580732154614087, 2.5842600488340963], [5.139066063011839, 1.2560254774486053, 1.8771254619763698, 0.13999999999999987, 1.8573906428104998, 1.3724430771438205, 6.256228896068304, 7.718672165599468, 2.2894540834006696, 7.09081095503187, 2.0142244164938514, 7.283433256370245], [5.16150171946111, 2.6566143867712513, 0.9000000000000009, 1.6265300489077976, 0.3136877428271623, 1.6276056033326995, 1.8084247288731718, 3.3372293897782956, 8.282970481656927, 2.330901113303607, 9.187491496594708, 3.5722681870206787], [3.227677183362673, 6.4113649092841305, 3.1006289684513995, 0.955562661472286, 1.5555063484280602, 0.09949874371066196, 2.0850899261182967, 1.5524174696260031, 2.919777388774701, 7.553667983172142, 2.9079889958526333, 9.260043196443526]]</t>
+          <t>[[7.8500700633816, 0.1705872210923198, 5.142022948217949, 0.13999999999999987, 2.689163438692413, 1.3270644294833607, 0.27640549922170493, 3.0134863530469143, 0.3316624790355398, 4.546328188769483, 0.17058722109231986, 4.799333287030605], [0.2416609194718913, 0.4621688003316536, 0.31368774282716233, 0.24166091947189114, 0.1705872210923199, 0.19595917942265415, 0.09949874371066197, 0.17058722109231989, 0.44933283877321917, 0.09949874371066199, 0.09949874371066199, 0.13999999999999987], [5.419446466199293, 0.25980762113533173, 7.2152616030189805, 0.17058722109231994, 6.409141908243257, 1.4866068747318506, 0.23748684174075826, 2.2085289221561033, 0.25980762113533173, 2.1604397700468305, 0.19595917942265415, 1.8627667594199768], [0.1399999999999999, 0.1705872210923199, 0.17058722109231989, 0.19595917942265415, 0.19595917942265415, 0.17058722109231975, 0.13999999999999993, 0.1705872210923198, 0.29580398915498063, 0.0, 0.13999999999999987, 0.0], [2.3977280913398005, 0.21794494717703383, 6.377107494781626, 0.2179449471770338, 5.823194999310944, 4.198809355043403, 0.9576533819707416, 4.016764867402622, 0.09949874371066195, 2.926619209941738, 0.22158519806160315, 1.8249383551232639], [1.097451593465515, 0.2984962311319858, 1.4247455913249913, 0.21794494717703367, 4.737203816598984, 5.574325071253021, 0.1959591794226542, 2.800196421681878, 0.23748684174075818, 0.8182909018191518, 0.09949874371066199, 0.343365694267788], [0.25980762113533207, 0.22158519806160318, 0.21794494717703375, 0.09949874371066199, 1.0547037498748164, 0.3278719262150999, 0.8518215775618736, 0.36551333764994093, 0.19899748742132398, 0.4795831523312722, 0.09949874371066199, 0.17058722109231983], [2.258406517879365, 0.13999999999999993, 1.987360057966346, 0.13999999999999996, 4.0166030423729975, 3.017863482664513, 0.38729833462074154, 7.111793022859987, 0.2598076211353318, 5.671639974469467, 0.0, 1.1779643458101774], [0.2712931993250109, 0.3241913015489464, 0.21794494717703375, 0.1705872210923199, 0.21794494717703375, 0.4903060268852506, 0.3278719262150998, 0.17058722109231986, 0.6590902821313628, 0.3815756805667784, 0.19595917942265415, 0.3104834939252006], [4.849082387421357, 0.0, 2.153694500155489, 0.09949874371066196, 3.15802153254217, 0.9109884741312587, 0.5567764362830024, 5.275566320311024, 0.35440090293338716, 9.579018738889701, 0.0, 4.140664197927672], [0.09949874371066195, 0.1399999999999999, 0.13999999999999987, 0.09949874371066196, 0.1705872210923197, 0.22158519806160312, 0.0, 0.13999999999999996, 0.3809199390948179, 0.09949874371066196, 0.2799999999999999, 0.09949874371066199], [4.366921112179609, 0.1705872210923199, 1.1424097338520898, 0.09949874371066199, 1.53006535808115, 0.2999999999999999, 0.17058722109231972, 1.8258148865643522, 0.4160528812542941, 4.762467847660496, 0.1959591794226539, 5.4802463448279415]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.21794494717703397, 0.0, 0.19899748742132395, 0.0, 0.09949874371066197, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 72.09563093558444, 0.0, 13.166818142588587, 0.0, 5.521811297029264, 0.0, 13.980758205476553, 0.0, 1.934321586500031, 0.0, 0.8639444426582065, 0.0, 0.92, 0.0, 3.727344899522982, 0.0, 0.6689544080129826, 0.0, 0.4975942121849888, 0.0, 0.3316624790355398, 0.0, 0.2712931993250109, 0.0, 0.23748684174075788, 0.195959179422654, 0.21794494717703358, 0.17058722109231977, 0.17058722109231983, 0.0, 1.2180311982868086, 0.0, 0.17058722109231972, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.6048966853934644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21794494717703378, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3605551275463987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 13.203980460452069, 0.0, 49.51716873974116, 0.0, 2.652093512680125, 0.0, 12.630930290362624, 0.0, 1.593863231271742, 0.0, 3.0219861018872978, 0.0, 0.6884039511798287, 0.0, 5.1334588729237876, 0.0, 0.6095900261651273, 0.0, 1.7112568480505777, 0.0, 0.4476605857119881, 0.0, 0.8209141246196222, 0.0, 0.38157568056677843, 0.09949874371066196, 0.9680392554023837, 0.17058722109232005, 0.17058722109231989, 0.0, 1.3792751719653327, 0.0, 0.09949874371066199, 0.09949874371066196, 0.5942221806698231, 0.0, 0.13999999999999987, 0.0, 0.7507329751649386, 0.0, 0.0, 0.09949874371066199, 0.13999999999999993, 0.0, 0.0, 0.0, 0.24166091947189147, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.27129319932501095, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.09949874371066199, 0.0, 0.5840376700179536], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 5.079803145792168, 0.0, 2.655917920418476, 0.0, 2.1926011949280686, 0.0, 3.1644746799429497, 0.0, 0.4556314299957806, 0.0, 0.46303347611160955, 0.0, 0.349141805001922, 0.0, 1.7337531542869646, 0.0, 0.17058722109231989, 0.0, 0.2416609194718913, 0.0, 0.21794494717703358, 0.0, 0.2598076211353317, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.36055512754639873, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.25514701644346155, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231977, 13.140239723840658, 0.0, 11.67345707149343, 0.0, 2.6225750704221973, 0.0, 18.04066517620678, 0.0, 1.227802915780868, 0.0, 1.3266499161421597, 0.0, 0.7002856560004644, 0.0, 4.300418584277582, 0.0, 0.5400000000000003, 0.0, 1.0992724866929038, 0.0, 0.37134889255254305, 0.0, 0.9921693403849972, 0.0, 0.39127995093027684, 0.1399999999999999, 0.4394314508543964, 0.23748684174075815, 0.1959591794226542, 0.0, 1.1958260743101397, 0.0, 0.2179449471770339, 0.1399999999999999, 0.34914180500192193, 0.0, 0.09949874371066196, 0.0, 0.6575712889109435, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.5418486873657623, 0.0, 0.0, 0.0, 0.2598076211353318, 0.0, 0.0, 0.0, 0.4160528812542942, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.46303347611160955], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.3042569301186884, 0.0, 1.1766052864066174, 0.0, 0.5291502622129178, 0.0, 1.4062716664997559, 0.0, 0.2917190429162962, 0.0, 0.21794494717703375, 0.0, 0.1399999999999999, 0.0, 0.4770744176750623, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2215851980616034, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1580587204455564, 0.0, 2.5989228537992433, 0.0, 0.4247352116319063, 0.0, 1.2089665007765933, 0.0, 0.2917190429162964, 0.0, 0.349141805001922, 0.0, 0.0, 0.0, 0.3872983346207416, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21794494717703367, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.22158519806160334, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1357376457615547, 0.0, 0.7196526940128826, 0.0, 0.36055512754639873, 0.0, 0.656048778674269, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.2598076211353321, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703392, 3.747786013101602, 0.0, 4.71805044483418, 0.0, 1.664331697709325, 0.0, 3.9912404086950213, 0.0, 0.4630334761116092, 0.0, 0.6611353870426243, 0.0, 0.4160528812542942, 0.0, 2.3498085028359226, 0.0, 0.43999999999999956, 0.0, 0.563826214360418, 0.0, 0.35369478367654733, 0.0, 0.7022107945624305, 0.0, 0.09949874371066195, 0.09949874371066199, 0.1399999999999999, 0.0, 0.17058722109231994, 0.0, 0.5999999999999995, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.27129319932501095, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265403], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.8231646250902681, 0.0, 0.854400374531754, 0.0, 0.24166091947189125, 0.0, 0.4624932431938871, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2764054992217046, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.6048966853934643, 0.0, 1.986831648630555, 0.0, 0.21794494717703372, 0.0, 0.7416198487095671, 0.0, 0.13999999999999996, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.47958315233127274, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.5301886456724626, 0.0, 0.510294032886923, 0.0, 0.13999999999999987, 0.0, 0.29171904291629575, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21794494717703386, 0.0, 0.1399999999999999, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3316624790355398, 0.0, 0.9775479527879959, 0.0, 0.1399999999999999, 0.0, 0.8036790404135223, 0.0, 0.2598076211353317, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.5494542747126456, 0.0, 0.13999999999999996, 0.0, 0.19899748742132398, 0.0, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2861817604250839, 0.0, 0.2917190429162964, 0.0, 0.17058722109231966, 0.0, 0.36055512754639885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27129319932501095, 0.0, 0.9433981132056609, 0.0, 0.0, 0.0, 0.34914180500192227, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25980762113533173, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.21794494717703367, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231983, 0.0, 0.23748684174075815, 0.0, 0.09949874371066195, 0.0, 0.2416609194718912, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.299038105676658, 0.0, 1.4946236984605865, 0.0, 0.371348892552543, 0.0, 0.9322553298319085, 0.0, 0.27640549922170454, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.4247352116319063, 0.0, 0.13999999999999987, 0.0, 0.27640549922170493, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231983, 0.0, 0.17058722109231994, 0.0, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.8006872048434392, 0.0, 0.0, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.5830951894845298, 0.0, 0.707106781186547, 0.0, 0.13999999999999987, 0.0, 0.4752893855326459, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.34914180500192227, 0.0, 0.13999999999999996, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231964, 0.0, 0.4302324952859786, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19899748742132398, 0.0, 0.2215851980616031, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3544009029333871, 0.0, 0.21794494717703367, 0.0, 0.13999999999999993, 0.0, 0.27129319932501095, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.22158519806160326, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4330127018922199, 0.0, 0.7190966555338721, 0.0, 0.09949874371066196, 0.0, 0.3316624790355398, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 59.04718367543026, 0.0, 14.704543515526082, 0.0, 4.923047836452535, 0.0, 11.837381467199577, 0.0, 1.6315330214249415, 0.0, 1.1233432244866217, 0.0, 0.7517313349861102, 0.0, 3.4967842369811737, 0.0, 0.6013318551349157, 0.0, 0.509901951359278, 0.0, 0.29999999999999977, 0.0, 0.6140846847137614, 0.0, 0.3316624790355398, 0.13999999999999987, 0.2374868417407583, 0.2374868417407583, 0.3059411708155671, 0.0, 0.668954408012983, 0.0, 0.271293199325011, 0.1705872210923201, 0.2764054992217046, 0.0, 0.09949874371066199, 0.0, 0.8268010643437755, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.47696960070847344, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.44090815370097225], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 14.96487554241598, 0.0, 42.372598457021724, 0.0, 3.133687923198481, 0.0, 9.375478654447463, 0.0, 1.1315476127852506, 0.0, 1.7691523393987307, 0.0, 0.6766830868286868, 0.0, 3.859157939240112, 0.0, 0.7522632517942104, 0.0, 0.6305553108173783, 0.0, 0.38405728739343065, 0.0, 0.9262289133902056, 0.0, 0.3433656942677881, 0.17058722109231975, 0.5631163290120439, 0.13999999999999985, 0.3059411708155668, 0.0, 1.0569295151522637, 0.0, 0.19595917942265398, 0.09949874371066199, 0.4217819341792631, 0.0, 0.09949874371066199, 0.0, 0.6993568473962346, 0.0, 0.13999999999999987, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.21794494717703386, 0.0, 0.09949874371066195, 0.09949874371066199, 0.17058722109231986, 0.0, 0.0, 0.0, 0.4624932431938871, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.503884907493765], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.644771253786347, 0.0, 3.26635882903272, 0.0, 3.676465694114388, 0.0, 2.882637681013692, 0.0, 0.558211429478115, 0.0, 0.49749371855331, 0.0, 0.3433656942677881, 0.0, 1.163786922078092, 0.0, 0.23748684174075793, 0.0, 0.25514701644346155, 0.0, 0.13999999999999987, 0.0, 0.2551470164434616, 0.0, 0.19595917942265415, 0.13999999999999993, 0.0, 0.09949874371066196, 0.09949874371066193, 0.0, 0.4092676385936228, 0.0, 0.09949874371066199, 0.13999999999999987, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.36482872693909374, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 11.821150536221083, 0.0, 10.226925246622269, 0.0, 2.8687802285989075, 0.0, 32.403265267562155, 0.0, 0.911262859991561, 0.0, 1.1822013364905326, 0.0, 0.5936328831862325, 0.0, 5.607236395944086, 0.0, 0.5631163290120439, 0.0, 0.7306846104852627, 0.0, 0.4069397989875158, 0.0, 0.6013318551349162, 0.0, 0.31288975694324056, 0.19595917942265412, 0.3815756805667784, 0.13999999999999987, 0.4063249930782007, 0.0, 1.0883014288330222, 0.0, 0.22158519806160326, 0.13999999999999996, 0.34914180500192216, 0.09949874371066196, 0.09949874371066197, 0.0, 0.6560487786742696, 0.0, 0.13999999999999987, 0.13999999999999987, 0.17058722109231972, 0.09949874371066196, 0.09949874371066196, 0.0, 0.29171904291629613, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066193, 0.0, 0.0, 0.28618176042508364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.2712931993250109], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.6831815113053021, 0.0, 1.2913171570144955, 0.0, 0.42426406871192807, 0.0, 0.9446692542895637, 0.0, 0.35440090293338716, 0.0, 0.25514701644346155, 0.0, 0.0, 0.0, 0.509901951359278, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.13999999999999987, 0.0, 0.1705872210923199, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1833849753989611, 0.0, 1.6969384196251798, 0.0, 0.5122499389946283, 0.0, 1.1874342087037928, 0.0, 0.349141805001922, 0.0, 0.19595917942265412, 0.0, 0.19595917942265398, 0.0, 0.38405728739343065, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.19899748742132398, 0.0, 0.2215851980616035, 0.0, 0.0, 0.09949874371066199, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.31921779399024747, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7539230729988304, 0.0, 0.6731270311018566, 0.0, 0.27640549922170443, 0.0, 0.6013318551349163, 0.0, 0.17058722109231972, 0.0, 0.2917190429162964, 0.0, 0.1705872210923198, 0.0, 0.21794494717703358, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 3.5561777233428584, 0.0, 4.091503391175426, 0.0, 1.100181803158005, 0.0, 5.767313065891256, 0.0, 0.4331281565541546, 0.0, 0.44090815370097225, 0.0, 0.2917190429162961, 0.0, 4.002236874549031, 0.0, 0.19595917942265406, 0.0, 0.13999999999999987, 0.0, 0.17058722109231958, 0.0, 0.21794494717703358, 0.0, 0.22158519806160318, 0.0, 0.13999999999999985, 0.0, 0.19595917942265428, 0.0, 0.400499687890016, 0.0, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.30594117081556693, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.195959179422654], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6013318551349157, 0.0, 0.48363209157375003, 0.0, 0.371348892552543, 0.0, 0.4537620521815372, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2215851980616029, 0.0, 0.21794494717703386, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2416609194718912, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.627614531380528, 0.0, 0.6421837743200923, 0.0, 0.1959591794226539, 0.0, 0.51720402163943, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999996, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40693979898751614, 0.0, 0.3648287269390939, 0.0, 0.19595917942265417, 0.0, 0.34336569426778807, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231997, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6666333324999587, 0.0, 0.8905616205518849, 0.0, 0.3605551275463988, 0.0, 0.51720402163943, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.27640549922170465, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31921779399024747, 0.0, 0.40693979898751614, 0.0, 0.09949874371066193, 0.0, 0.4555216789572153, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.25980762113533207, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29999999999999977, 0.0, 0.5173006862551025, 0.0, 0.17058722109231986, 0.0, 0.2551470164434616, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.17058722109231977, 0.0, 0.22158519806160315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265428, 0.0, 0.13999999999999985, 0.0, 0.13999999999999987, 0.0, 0.21794494717703392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25514701644346155, 0.0, 0.33166247903553975, 0.0, 0.24166091947189136, 0.0, 0.2764054992217048, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.8426149773176361, 0.0, 0.8534635317340744, 0.0, 0.49759421218498867, 0.0, 1.2678722333105965, 0.0, 0.19595917942265417, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.0, 0.3912799509302768, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066193, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265398, 0.0, 0.1959591794226542, 0.0, 0.0, 0.0, 0.1959591794226542, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.13999999999999987, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24166091947189133, 0.0, 0.5109794516416488, 0.0, 0.13999999999999996, 0.0, 0.21794494717703386, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6993568473962348, 0.0, 0.6964912059746338, 0.0, 0.5840376700179536, 0.0, 0.703988636271921, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.195959179422654, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.1705872210923196, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.21794494717703386, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.44844174649557345, 0.0, 0.37469987990390397, 0.0, 0.13999999999999987, 0.0, 0.3469870314579496, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2598076211353322, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3746998799039039, 0.0, 0.4409081537009723, 0.0, 0.17058722109231975, 0.0, 0.29999999999999977, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,60 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006143371014949064</v>
+        <v>0.00369925530896383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3395818379721274</v>
+        <v>0.3996332652652302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004160950305938493</v>
+        <v>0.0008151998308015863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2176687117525301</v>
+        <v>2.092528201111677</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004027215492578892</v>
+        <v>0.001851806989457446</v>
       </c>
       <c r="G6" t="n">
-        <v>1.085975176640263</v>
+        <v>0.8788818424504419</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01649029867175106</v>
+        <v>0.003052969842537109</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004594377452731612</v>
+        <v>0.06420354952039416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4933841884642166</v>
+        <v>0.03653030175482832</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005336323085716802</v>
+        <v>0.006591712293467047</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01453181323161498</v>
+        <v>0.008207685789074107</v>
       </c>
       <c r="M6" t="n">
-        <v>0.007218837659972319</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.004714499658393878</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1288980647620469</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06068339749700286</v>
+        <v>0.05287691326958118</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0671917107437537</v>
+        <v>0.02835322981508446</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04044622335380331</v>
+        <v>0.01822078594083341</v>
       </c>
       <c r="R6" t="n">
-        <v>0.785119696021554</v>
+        <v>0.9213572825707376</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1040550891732858</v>
+        <v>0.1062546905892632</v>
       </c>
     </row>
     <row r="7">
@@ -887,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9515360173652629</v>
+        <v>0.9699504878200821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6431214997889728</v>
+        <v>0.681024466312945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9583711826235074</v>
+        <v>0.9557126019639376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6592240170936542</v>
+        <v>0.5530088339306876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9507444914476542</v>
+        <v>0.9426667025179526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7106557033264742</v>
+        <v>0.7281474498460326</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9167401999365153</v>
+        <v>0.8572664754359657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9469251929381879</v>
+        <v>0.6332843190200991</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9374498009834137</v>
+        <v>0.9478572193707986</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9561677848705515</v>
+        <v>0.9562419245012004</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9507982667570707</v>
+        <v>0.9355208619089758</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9494615109411256</v>
+        <v>0.9620932441547247</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7831117733297204</v>
+        <v>0.7934673848558421</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8864774796174435</v>
+        <v>0.8453826928508178</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9180108841108183</v>
+        <v>0.896073150302256</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9402857758017794</v>
+        <v>0.9358718327872775</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7767429232932873</v>
+        <v>0.6700651574254511</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9384215118824406</v>
+        <v>0.9132464278285878</v>
       </c>
     </row>
     <row r="8">
@@ -948,60 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08069341894979883</v>
+        <v>0.01888832791580422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01498956826168856</v>
+        <v>0.06300192831573488</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04880170749657883</v>
+        <v>0.00832068394691279</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01483854733483245</v>
+        <v>0.0304191297386731</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0245506455792095</v>
+        <v>0.004850884337997746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6362109544264034</v>
+        <v>0.3919897504430848</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1187487419303733</v>
+        <v>0.009555810765599965</v>
       </c>
       <c r="I8" t="n">
-        <v>1.351917381166531</v>
+        <v>0.1698181424914174</v>
       </c>
       <c r="J8" t="n">
-        <v>52.34013254980827</v>
+        <v>3.261687609201421</v>
       </c>
       <c r="K8" t="n">
-        <v>28.46057151979651</v>
+        <v>0.003563051958124673</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1666119649102163</v>
+        <v>0.04424067784862201</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4138213228383219</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.2078620329034921</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.608768987850658</v>
       </c>
       <c r="O8" t="n">
-        <v>2.684048606112285</v>
+        <v>3.484790295086218</v>
       </c>
       <c r="P8" t="n">
-        <v>6.896142938778906</v>
+        <v>0.8004193316756425</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.185929590429709</v>
+        <v>0.2016324077518556</v>
       </c>
       <c r="R8" t="n">
-        <v>29.65401192586956</v>
+        <v>4.303135960469371</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8100075004687137</v>
+        <v>0.2456225940350504</v>
       </c>
     </row>
     <row r="9">
@@ -1011,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9381075804071837</v>
+        <v>0.9564462027837175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8509667389614376</v>
+        <v>0.8030299089210063</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9500164336566846</v>
+        <v>0.9467337416310673</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8878206923086993</v>
+        <v>0.8431118332878061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9389972831690032</v>
+        <v>0.916986030172667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7526230787432102</v>
+        <v>0.751546726769579</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8212729528611153</v>
+        <v>0.6894505731989191</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9201651973865704</v>
+        <v>0.6753562556989807</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5673768797986545</v>
+        <v>0.6523498631450163</v>
       </c>
       <c r="K9" t="n">
-        <v>0.959836420009114</v>
+        <v>0.9302586076013464</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9112504369978486</v>
+        <v>0.8848432693223388</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9515342079392312</v>
+        <v>0.9500498491986902</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5059690771746853</v>
+        <v>0.4255861915349697</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8590504309349006</v>
+        <v>0.7360997686597613</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8818561151289513</v>
+        <v>0.8548181799475683</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9200436249351215</v>
+        <v>0.8997600934221521</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7202605806408434</v>
+        <v>0.4820750049490237</v>
       </c>
       <c r="S9" t="n">
-        <v>0.931912835563681</v>
+        <v>0.8943663804991036</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/a2/a2_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a2/a2_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>72.32002490660024</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006102117061021</v>
+        <v>3.005105853051059</v>
       </c>
       <c r="M2" t="n">
-        <v>6.707820672478207</v>
+        <v>6.562154420921545</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.865504358655043, 79.33499377334994, 131.32876712328766, 33.910336239103366, 40.57534246575342, 4.149439601494396, 8.23412204234122, 2.652552926525529, 8.450809464508094, 1.2453300124533002, 2.1295143212951433, 0.8343711083437111, 3.4221668742216687, 0.6712328767123288, 1.464508094645081, 0.49813200498132004, 3.2677459526774597, 0.2577833125778331, 0.6463262764632628, 0.1930261519302615, 0.45828144458281445, 0.09090909090909091, 0.1643835616438356, 0.0224159402241594, 0.30510585305105853, 0.024906600249066, 0.06102117061021171, 0.0136986301369863, 0.10211706102117062, 0.021170610211706103, 0.0273972602739726, 0.007471980074719801]</t>
+          <t>[7.323785803237858, 87.06226650062267, 129.3810709838107, 32.744707347447076, 40.50560398505604, 4.138231631382316, 8.23038605230386, 2.652552926525529, 8.452054794520548, 1.2465753424657535, 2.1295143212951433, 0.8356164383561644, 3.4221668742216687, 0.6712328767123288, 1.4669987546699876, 0.49688667496886674, 3.261519302615193, 0.25155666251556663, 0.6450809464508095, 0.1917808219178082, 0.45828144458281445, 0.08468244084682441, 0.1643835616438356, 0.0224159402241594, 0.3026151930261519, 0.024906600249066, 0.05977584059775841, 0.012453300124533, 0.10336239103362391, 0.021170610211706103, 0.0273972602739726, 0.007471980074719801]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.08841843088418432, 116.52552926525529, 0.0, 77.9439601494396, 0.0, 17.907845579078455, 0.0, 80.41718555417185, 0.0, 4.9202988792029885, 0.0, 4.731008717310087, 0.0, 1.86799501867995, 0.0, 17.998754669987548, 0.0, 1.273972602739726, 0.0, 1.4408468244084682, 0.0, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 3.2739726027397262, 0.0062266500622665, 0.20672478206724781, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 1.9900373599003736, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.684931506849315, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.788293897882939]</t>
+          <t>[0.08468244084682441, 124.36114570361146, 0.0, 79.51681195516812, 0.0, 17.90535491905355, 0.0, 70.97509339975093, 0.0, 4.930261519302615, 0.0, 4.7272727272727275, 0.0, 1.86799501867995, 0.0, 17.993773349937733, 0.0, 1.273972602739726, 0.0, 1.4371108343711083, 0.0, 0.75093399750934, 0.0, 1.5840597758405977, 0.0, 0.5504358655043586, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 3.2752179327521795, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.0921544209215442, 0.0, 1.9912826899128269, 0.0, 0.049813200498132, 0.04234122042341221, 0.10087173100871731, 0.029887920298879204, 0.029887920298879204, 0.0, 0.1232876712328767, 0.0, 0.0273972602739726, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.6874221668742216, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.012453300124533, 0.0, 0.7820672478206725]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0, 0.033623910336239106, 0.0, 0.014943960149439602, 0.0, 0.0, 0.0, 0.028642590286425903, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 61.32129514321295, 0.0, 18.297633872976338, 0.0, 5.858032378580324, 0.0, 20.7359900373599, 0.0, 1.5877957658779576, 0.0, 0.8605230386052304, 0.0, 0.6276463262764632, 0.0, 4.296388542963886, 0.0, 0.31008717310087175, 0.0, 0.1855541718555417, 0.0, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.09464508094645081, 0.0410958904109589, 0.0859277708592777, 0.0647571606475716, 0.06351183063511831, 0.0, 0.7945205479452054, 0.0, 0.0410958904109589, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.031133250311332503, 0.0, 0.47696139476961397, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.16189290161892902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0049813200498132005, 17.854296388542963, 0.0, 28.36861768368618, 0.0, 3.5491905354919053, 0.0, 15.452054794520548, 0.0, 1.2665006226650062, 0.0, 1.7447073474470736, 0.0, 0.5292652552926526, 0.0, 4.665006226650062, 0.0, 0.41594022415940224, 0.0, 0.4931506849315068, 0.0, 0.21668742216687423, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.9202988792029888, 0.0, 0.057285180572851806, 0.028642590286425903, 0.1133250311332503, 0.0062266500622665, 0.008717310087173101, 0.0, 0.6313823163138231, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.1656288916562889, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.20174346201743462], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.056039850560398, 0.0, 3.5666251556662516, 0.0, 2.4259028642590286, 0.0, 3.6587795765877957, 0.0, 0.3287671232876712, 0.0, 0.30884184308841844, 0.0, 0.11830635118306351, 0.0, 1.240348692403487, 0.0, 0.12453300124533001, 0.0, 0.1133250311332503, 0.0, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.18057285180572852, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.15940224159402241, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0448318804483188, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06973848069738481], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 20.02988792029888, 0.0, 15.130759651307596, 0.0, 3.5056039850560397, 0.0, 30.001245330012452, 0.0, 1.024906600249066, 0.0, 1.1818181818181819, 0.0, 0.40099626400996263, 0.0, 4.596513075965131, 0.0, 0.3150684931506849, 0.0, 0.50186799501868, 0.0, 0.19551681195516812, 0.0, 0.5429638854296388, 0.0, 0.1706102117061021, 0.10585305105853052, 0.1718555417185554, 0.07098381070983811, 0.07721046077210461, 0.0, 0.9551681195516812, 0.0049813200498132005, 0.0410958904109589, 0.021170610211706103, 0.08343711083437111, 0.014943960149439602, 0.017434620174346202, 0.0, 0.4520547945205479, 0.0012453300124533001, 0.024906600249066, 0.017434620174346202, 0.039850560398505604, 0.008717310087173101, 0.008717310087173101, 0.0, 0.08094645080946451, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0136986301369863, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.22291407222914073, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.30884184308841844], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.9564134495641345, 0.0, 1.2328767123287672, 0.0, 0.22540473225404734, 0.0, 1.0199252801992529, 0.0, 0.0821917808219178, 0.0, 0.0410958904109589, 0.0, 0.009962640099626401, 0.0, 0.1519302615193026, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.037359900373599, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2988792029887921, 0.0, 1.6911581569115817, 0.0, 0.17559153175591533, 0.0, 0.9887920298879203, 0.0, 0.05977584059775841, 0.0, 0.11955168119551682, 0.0, 0.014943960149439602, 0.0, 0.16313823163138233, 0.0, 0.0012453300124533001, 0.0, 0.0273972602739726, 0.0, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0224159402241594, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.014943960149439602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6749688667496887, 0.0, 0.4533001245330012, 0.0, 0.1519302615193026, 0.0, 0.41718555417185554, 0.0, 0.012453300124533, 0.0, 0.0136986301369863, 0.0, 0.009962640099626401, 0.0, 0.05105853051058531, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0186799501867995, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0784557907845579, 3.958904109589041, 0.0, 4.8107098381070985, 0.0, 1.1170610211706102, 0.0, 4.297633872976339, 0.0, 0.28019925280199254, 0.0, 0.31008717310087175, 0.0, 0.09713574097135741, 0.0, 2.070983810709838, 0.0, 0.0660024906600249, 0.0, 0.0784557907845579, 0.0, 0.052303860523038606, 0.0, 0.08343711083437111, 0.0, 0.0323785803237858, 0.0186799501867995, 0.024906600249066, 0.014943960149439602, 0.023661270236612703, 0.0, 0.1980074719800747, 0.0, 0.0273972602739726, 0.0024906600249066002, 0.009962640099626401, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.1307596513075965, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0037359900373599006, 0.0, 0.0136986301369863, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4396014943960149, 0.0, 0.33748443337484435, 0.0, 0.07347447073474471, 0.0, 0.24533001245330013, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0660024906600249, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35367372353673726, 0.0, 0.46824408468244083, 0.0, 0.07098381070983811, 0.0, 0.37608966376089664, 0.0, 0.0136986301369863, 0.0, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0547945205479452, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2403486924034869, 0.0, 0.15940224159402241, 0.0, 0.047322540473225407, 0.0, 0.18057285180572852, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.034869240348692404, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33623910336239105, 0.0, 0.5330012453300125, 0.0, 0.08094645080946451, 0.0, 0.37359900373599003, 0.0, 0.026151930261519303, 0.0, 0.008717310087173101, 0.0, 0.007471980074719801, 0.0, 0.08094645080946451, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16189290161892902, 0.0, 0.1295143212951432, 0.0, 0.0547945205479452, 0.0, 0.09838107098381071, 0.0, 0.009962640099626401, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0660024906600249, 0.0, 0.062266500622665005, 0.0, 0.012453300124533, 0.0, 0.057285180572851806, 0.0, 0.019925280199252802, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.023661270236612703, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14819427148194272, 0.0, 0.21419676214196762, 0.0, 0.039850560398505604, 0.0, 0.0921544209215442, 0.0, 0.026151930261519303, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0361145703611457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.052303860523038606, 0.0, 0.0722291407222914, 0.0, 0.012453300124533, 0.0, 0.038605230386052306, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.057285180572851806, 0.0, 0.049813200498132, 0.0, 0.029887920298879204, 0.0, 0.0759651307596513, 0.0, 0.017434620174346202, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9016189290161893, 0.0, 0.8094645080946451, 0.0, 0.14196762141967623, 0.0, 0.9863013698630136, 0.0, 0.012453300124533, 0.0, 0.053549190535491904, 0.0, 0.019925280199252802, 0.0, 0.16936488169364883, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07098381070983811, 0.0, 0.031133250311332503, 0.0, 0.0062266500622665, 0.0, 0.0361145703611457, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0, 0.0273972602739726, 0.0, 0.0062266500622665, 0.0, 0.021170610211706103, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.0958904109589041, 0.0, 0.0062266500622665, 0.0, 0.05977584059775841, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0186799501867995, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.5965130759651308, 0.0, 0.5193026151930261, 0.0, 0.16811955168119552, 0.0, 0.45703611457036114, 0.0, 0.048567870485678705, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0, 0.074719800747198, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.012453300124533, 0.0, 0.0448318804483188, 0.0, 0.007471980074719801, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0024906600249066002, 0.0, 0.06724782067247821, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19551681195516812, 0.0, 0.2129514321295143, 0.0, 0.0273972602739726, 0.0, 0.17559153175591533, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.22291407222914073, 0.0, 0.1843088418430884, 0.0, 0.034869240348692404, 0.0, 0.14694894146948942, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.04234122042341221, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0112079701120797, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594]]</t>
+          <t>[[0.0, 0.031133250311332503, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.028642590286425903, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 67.56662515566624, 0.0, 20.326276463262765, 0.0, 5.972602739726027, 0.0, 19.63760896637609, 0.0, 1.647571606475716, 0.0, 0.8792029887920298, 0.0, 0.6363636363636364, 0.0, 4.655043586550436, 0.0, 0.3163138231631382, 0.0, 0.21046077210460773, 0.0, 0.16811955168119552, 0.0, 0.27895392278953923, 0.0, 0.09464508094645081, 0.048567870485678705, 0.0859277708592777, 0.0660024906600249, 0.06351183063511831, 0.0, 0.8119551681195517, 0.0, 0.049813200498132, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.031133250311332503, 0.0, 0.48816936488169366, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.16936488169364883, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0049813200498132005, 19.297633872976338, 0.0, 28.408468244084684, 0.0, 3.571606475716065, 0.0, 15.435865504358656, 0.0, 1.2689912826899128, 0.0, 1.7496886674968868, 0.0, 0.5280199252801993, 0.0, 4.7210460772104605, 0.0, 0.41469489414694893, 0.0, 0.4919053549190536, 0.0, 0.22042341220423411, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.9265255292652553, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11830635118306351, 0.0062266500622665, 0.008717310087173101, 0.0, 0.6326276463262764, 0.0, 0.007471980074719801, 0.0161892901618929, 0.029887920298879204, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.1656288916562889, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.2054794520547945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 5.226650062266501, 0.0, 3.5653798256537983, 0.0, 2.4246575342465753, 0.0, 3.485678704856787, 0.0, 0.3300124533001245, 0.0, 0.30884184308841844, 0.0, 0.11830635118306351, 0.0, 1.2391033623910337, 0.0, 0.12453300124533001, 0.0, 0.1133250311332503, 0.0, 0.07721046077210461, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.18057285180572852, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.15940224159402241, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0448318804483188, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0684931506849315], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 19.03113325031133, 0.0, 14.643835616438356, 0.0, 3.364881693648817, 0.0, 22.805728518057286, 0.0, 0.9701120797011208, 0.0, 1.1544209215442092, 0.0, 0.39476961394769616, 0.0, 4.186799501867995, 0.0, 0.30759651307596514, 0.0, 0.47696139476961397, 0.0, 0.1930261519302615, 0.0, 0.5305105853051059, 0.0, 0.1706102117061021, 0.09838107098381071, 0.1718555417185554, 0.0684931506849315, 0.07721046077210461, 0.0, 0.9315068493150684, 0.0, 0.0323785803237858, 0.021170610211706103, 0.08343711083437111, 0.014943960149439602, 0.0186799501867995, 0.0, 0.4396014943960149, 0.0, 0.026151930261519303, 0.014943960149439602, 0.039850560398505604, 0.008717310087173101, 0.008717310087173101, 0.0, 0.07970112079701121, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0136986301369863, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.21544209215442092, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.3038605230386052], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.1008717310087173, 0.0, 1.2316313823163139, 0.0, 0.2266500622665006, 0.0, 0.8841843088418431, 0.0, 0.08343711083437111, 0.0, 0.04234122042341221, 0.0, 0.009962640099626401, 0.0, 0.1519302615193026, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.037359900373599, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.019925280199252802, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.023661270236612703], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.37733499377335, 0.0, 1.688667496886675, 0.0, 0.17559153175591533, 0.0, 0.9115815691158157, 0.0, 0.05977584059775841, 0.0, 0.11706102117061021, 0.0, 0.014943960149439602, 0.0, 0.16313823163138233, 0.0, 0.0012453300124533001, 0.0, 0.0273972602739726, 0.0, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.014943960149439602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7285180572851806, 0.0, 0.45454545454545453, 0.0, 0.1519302615193026, 0.0, 0.36363636363636365, 0.0, 0.012453300124533, 0.0, 0.0136986301369863, 0.0, 0.009962640099626401, 0.0, 0.05105853051058531, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0186799501867995, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.074719800747198, 4.38107098381071, 0.0, 4.811955168119551, 0.0, 1.1183063511830635, 0.0, 3.8779576587795765, 0.0, 0.28019925280199254, 0.0, 0.30884184308841844, 0.0, 0.09713574097135741, 0.0, 2.063511830635118, 0.0, 0.0660024906600249, 0.0, 0.07721046077210461, 0.0, 0.052303860523038606, 0.0, 0.08343711083437111, 0.0, 0.0323785803237858, 0.0186799501867995, 0.024906600249066, 0.014943960149439602, 0.023661270236612703, 0.0, 0.1980074719800747, 0.0, 0.0273972602739726, 0.0024906600249066002, 0.009962640099626401, 0.0049813200498132005, 0.0112079701120797, 0.0, 0.1307596513075965, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0136986301369863, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.047322540473225407, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.46450809464508097, 0.0, 0.33748443337484435, 0.0, 0.07347447073474471, 0.0, 0.21793275217932753, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0660024906600249, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36363636363636365, 0.0, 0.4669987546699875, 0.0, 0.07098381070983811, 0.0, 0.36363636363636365, 0.0, 0.0136986301369863, 0.0, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0547945205479452, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25529265255292655, 0.0, 0.15940224159402241, 0.0, 0.047322540473225407, 0.0, 0.16687422166874222, 0.0, 0.007471980074719801, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.037359900373599, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34744707347447074, 0.0, 0.5330012453300125, 0.0, 0.08094645080946451, 0.0, 0.36114570361145704, 0.0, 0.026151930261519303, 0.0, 0.008717310087173101, 0.0, 0.007471980074719801, 0.0, 0.08094645080946451, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1656288916562889, 0.0, 0.1295143212951432, 0.0, 0.0547945205479452, 0.0, 0.09464508094645081, 0.0, 0.009962640099626401, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.024906600249066, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.062266500622665005, 0.0, 0.012453300124533, 0.0, 0.05603985056039851, 0.0, 0.019925280199252802, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.023661270236612703, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1506849315068493, 0.0, 0.21419676214196762, 0.0, 0.039850560398505604, 0.0, 0.0896637608966376, 0.0, 0.026151930261519303, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0361145703611457, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.052303860523038606, 0.0, 0.0722291407222914, 0.0, 0.012453300124533, 0.0, 0.038605230386052306, 0.0, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0547945205479452, 0.0, 0.049813200498132, 0.0, 0.029887920298879204, 0.0, 0.0784557907845579, 0.0, 0.017434620174346202, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0199252801992529, 0.0, 0.8119551681195517, 0.0, 0.14196762141967623, 0.0, 0.8679950186799502, 0.0, 0.012453300124533, 0.0, 0.053549190535491904, 0.0, 0.019925280199252802, 0.0, 0.16936488169364883, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.017434620174346202, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06973848069738481, 0.0, 0.031133250311332503, 0.0, 0.0062266500622665, 0.0, 0.0361145703611457, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0, 0.0273972602739726, 0.0, 0.0062266500622665, 0.0, 0.021170610211706103, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06724782067247821, 0.0, 0.099626400996264, 0.0, 0.0062266500622665, 0.0, 0.05977584059775841, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.028642590286425903, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0186799501867995, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.6425902864259029, 0.0, 0.5193026151930261, 0.0, 0.16811955168119552, 0.0, 0.410958904109589, 0.0, 0.048567870485678705, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0, 0.074719800747198, 0.0, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0186799501867995, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.012453300124533, 0.0, 0.0448318804483188, 0.0, 0.008717310087173101, 0.0, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.024906600249066, 0.0, 0.0024906600249066002, 0.0, 0.06724782067247821, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0161892901618929, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21170610211706103, 0.0, 0.21419676214196762, 0.0, 0.0273972602739726, 0.0, 0.16064757160647572, 0.0, 0.008717310087173101, 0.0, 0.0, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.23038605230386053, 0.0, 0.18181818181818182, 0.0, 0.034869240348692404, 0.0, 0.1432129514321295, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0410958904109589, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.009962640099626401, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0224159402241594]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>5.032195795070737</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673079257910516</v>
+        <v>0.8673341774342618</v>
       </c>
       <c r="M3" t="n">
-        <v>2.199023129144309</v>
+        <v>2.232820333381172</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.525665253278184, 72.82181880105111, 90.9664397319621, 40.265920935742955, 39.21064536022275, 6.083281219522221, 9.952063501619829, 4.670468717428064, 10.551233422781776, 2.7841997688939584, 4.103658500551337, 2.206909606039071, 5.291253789232363, 1.5548123500604227, 2.799603797065708, 1.299845377339415, 5.632744799191575, 0.9374183928259703, 1.9359471160156618, 0.9343859715205173, 1.5620628617477992, 0.4686479803317561, 0.8111162379774007, 0.18538275532681026, 1.3308529021182596, 0.1710777062124476, 0.3272778450272847, 0.1264975797960707, 0.416990344842046, 0.17517150331773998, 0.19773707423744602, 0.12201692367537842]</t>
+          <t>[18.63210768341097, 79.53429898892676, 91.16621875694713, 40.296205041294414, 39.25223736247699, 6.0867183142279435, 9.952838889885857, 4.672601344077344, 10.55064900411138, 2.783866095665322, 4.103658500551337, 2.210103982571215, 5.29337157228642, 1.5548123500604227, 2.799189410110044, 1.2998429911351768, 5.630494377234425, 0.9074107198015495, 1.9360408400057092, 0.9339759233703298, 1.5620628617477992, 0.4604421422980329, 0.8111162379774007, 0.18538275532681026, 1.3304857810466957, 0.1710777062124476, 0.32560081384530154, 0.12160952045562633, 0.418175068572185, 0.17517150331773998, 0.19773707423744602, 0.12201692367537842]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7046565377001578, 90.54245150808252, 0.0, 60.72768031074205, 0.0, 17.00425485442499, 0.0, 68.16034171615819, 0.0, 5.519229277356225, 0.0, 6.218709756636351, 0.0, 2.965137297495919, 0.0, 17.63900490647072, 0.0, 2.251255641720904, 0.0, 2.500296426799668, 0.0, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 4.419999553061349, 0.14536794364889696, 0.8598442372313213, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 3.0581578015737767, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 1.4147803983772498, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 1.7959446369609326]</t>
+          <t>[0.6585405899568375, 94.03802301746651, 0.0, 59.94819809296634, 0.0, 17.003801749609853, 0.0, 59.636836822443854, 0.0, 5.517558821507308, 0.0, 6.208024446702059, 0.0, 2.965977159900463, 0.0, 17.622263488107066, 0.0, 2.251255641720904, 0.0, 2.498710526015691, 0.0, 1.7071335203102065, 0.0, 2.96494167894833, 0.0, 1.3122221451475036, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 4.431037485351484, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5411815090321509, 0.0, 3.0591794736646887, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4925717068725344, 0.2807273285898941, 0.2575937361285893, 0.0, 0.6647076535532884, 0.0, 0.21580530716992596, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 1.415332762726535, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.14920072231785061, 0.0, 1.7927700962875062]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.0, 0.3565647541981538, 0.0, 0.16484519504378692, 0.0, 0.0, 0.0, 0.4180563763149647, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0996886480507565, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168812, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 70.93287923964961, 0.0, 17.668028603953953, 0.0, 7.715344779718885, 0.0, 23.441244475821733, 0.0, 3.0484997021493054, 0.0, 1.7765521970930178, 0.0, 1.756562593221831, 0.0, 5.933573716113354, 0.0, 1.0702522915155377, 0.0, 0.7917322059381653, 0.0, 0.8407720865311248, 0.0, 0.9811224839210358, 0.0, 0.5000709462095569, 0.314933102102731, 0.5223175959099488, 0.4769044898731617, 0.3925852250797812, 0.0, 1.9357989107029374, 0.0, 0.3341199768415293, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.3351950952181536, 0.0, 1.328077752924219, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.035267253445844166, 0.07053450689168834, 0.035267253445844075, 0.0, 0.0, 0.703092194246869, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243537, 0.0, 0.43109648596875205], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11148312237776016, 17.223530513060375, 0.0, 42.459898143931746, 0.0, 4.984010170249033, 0.0, 17.347553547522782, 0.0, 2.673370563595412, 0.0, 3.8568186139556113, 0.0, 1.4846924477427395, 0.0, 6.502311752426153, 0.0, 1.3085959532187599, 0.0, 1.4621468413816456, 0.0, 0.7877458014801705, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2299051820945017, 0.0, 0.4537993501305289, 0.30426855400399416, 0.8459760603018561, 0.09315867601128319, 0.10550819217920296, 0.0, 1.7470448864165657, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.6341970707478032, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.7644967245088606], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.096249707327681, 0.0, 5.437655888510956, 0.0, 5.480219294185036, 0.0, 5.8278014502420605, 0.0, 1.0710764824222736, 0.0, 1.1754055090594748, 0.0, 0.5986295022743896, 0.0, 2.793118367461833, 0.0, 0.7141574034175634, 0.0, 0.5313197250903469, 0.0, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.8022516076349712, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.7499244570306806, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.30842477764736526, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.4236099457674603], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.035267253445844055, 22.94520199861077, 0.0, 17.764730272076104, 0.0, 5.541277775018089, 0.0, 42.27486702534726, 0.0, 2.2300734810769267, 0.0, 2.9549238190530067, 0.0, 1.2360701813152588, 0.0, 6.957912098315579, 0.0, 0.9224525159191787, 0.0, 1.483301489952902, 0.0, 0.8471649743716004, 0.0, 1.7321470584423648, 0.0, 0.7142268904584004, 0.6861033788001838, 0.7717650802104099, 0.4449158242263317, 0.46977506001687913, 0.0, 2.0979697391836702, 0.1410690137833764, 0.41701637803238084, 0.20769775082828748, 0.5595427255680409, 0.238876241237813, 0.21101638435840725, 0.0, 1.3561832520669443, 0.03526725344584425, 0.2722121635989663, 0.1988632555749859, 0.27948712605938364, 0.10550819217920143, 0.15357499386767554, 0.0, 0.5254879493653946, 0.0, 0.10568443093039617, 0.08629696706884352, 0.15321102365359743, 0.08629696706884211, 0.08629696706884217, 0.0, 0.8314329039747757, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 1.149696599164147], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.3024151452686232, 0.0, 2.6174650629776384, 0.0, 0.923069317931281, 0.0, 2.406322410051656, 0.0, 0.5096519732428465, 0.0, 0.41701637803238145, 0.0, 0.11114875584899035, 0.0, 0.6501886957591321, 0.0, 0.15764126922487304, 0.0, 0.03526725344584391, 0.0, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.4067904368502481, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.24120856130395588, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0862969670688437, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.2380437813447033], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.333434763897047, 0.0, 4.146959038727561, 0.0, 0.7421163856103026, 0.0, 2.1624265486180545, 0.0, 0.4192306890890823, 0.0, 1.0009478935914595, 0.0, 0.18613414088700717, 0.0, 0.6965748721411671, 0.0, 0.03526725344584399, 0.0, 0.2480239721320208, 0.0, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.23527840339477765, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.3108589175095745, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.11671605991392282, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22821160920972303], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.802228755168092, 0.0, 1.3843992698346834, 0.0, 0.8450754776983171, 0.0, 1.2412798397374032, 0.0, 0.14920072231784717, 0.0, 0.21995503635527222, 0.0, 0.2821380275667512, 0.0, 0.33274323072806267, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.19559215180336503, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689278, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768866], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.689773443756574, 5.057778719321288, 0.0, 6.986842989729219, 0.0, 2.60256513562926, 0.0, 6.603318678102789, 0.0, 1.0178697067281803, 0.0, 0.9493973272836879, 0.0, 0.502079625598506, 0.0, 6.397477118204055, 0.0, 0.41078527597478676, 0.0, 0.43228560098924473, 0.0, 0.3560598650080203, 0.0, 0.44555325224983844, 0.0, 0.2667972418495151, 0.18911803145698147, 0.27674920421951754, 0.1722341381780362, 0.2878841001603976, 0.0, 0.8105137370837415, 0.0, 0.2158053071699267, 0.04984432402537842, 0.14080492179429777, 0.07040246089714872, 0.14938770373228444, 0.0, 0.6043328779845395, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.07882063461243632, 0.0, 0.23100116464611686, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.3602298689492697, 0.0, 0.03526725344584419, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.2815272253278437], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.373934851779479, 0.0, 1.0689444512204713, 0.0, 0.4637077898358893, 0.0, 0.8036885603582327, 0.0, 0.3242978994722724, 0.0, 0.1797852881565914, 0.0, 0.07882063461243556, 0.0, 0.41078527597478676, 0.0, 0.14953297207613514, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10550819217920401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.07053450689168782, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1223733207483821, 0.0, 1.4686174249684079, 0.0, 0.4477060985422264, 0.0, 1.2257210862388495, 0.0, 0.17591360903495365, 0.0, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.3521664688583445, 0.0, 0.0, 0.0, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.17950904055170688, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9300656134315697, 0.0, 0.7124550306544375, 0.0, 0.31206886765491826, 0.0, 0.7754137099184424, 0.0, 0.11134392501746977, 0.0, 0.08629696706884356, 0.0, 0.14536794364889521, 0.0, 0.2889058270861465, 0.0, 0.03526725344584404, 0.0, 0.07053450689168782, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884339, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168782], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.078035805584502, 0.0, 1.7615922645009436, 0.0, 0.5464005171597189, 0.0, 1.3648862386413065, 0.0, 0.21305700411948192, 0.0, 0.11671605991392046, 0.0, 0.09953295742310303, 0.0, 0.5012294730751393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.3089372367037815, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.20241114548592845, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6685926212108927, 0.0, 0.6035702315308191, 0.0, 0.3954741484748924, 0.0, 0.5030763336708686, 0.0, 0.14080492179429757, 0.0, 0.21160352067506322, 0.0, 0.035267253445844006, 0.0, 0.24321904091125665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.10568443093039523, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.37263470404513116, 0.0, 0.4850012838037022, 0.0, 0.140606527285403, 0.0, 0.3919566170583829, 0.0, 0.27715238404366227, 0.0, 0.03526725344584402, 0.0, 0.0, 0.0, 0.24588882630368028, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243652, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6963388348845994, 0.0, 1.0331721919511425, 0.0, 0.36113282065740643, 0.0, 0.47761937258736037, 0.0, 0.33562048161107094, 0.0, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.2951510946817111, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832], [0.0, 0.392652375191469, 0.0, 0.5688146222788149, 0.0, 0.16505203903612162, 0.0, 0.36640224827946927, 0.0, 0.1576412692248712, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.18591738586820974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22296624475551793, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075713, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.0, 0.3724057323758755, 0.0, 0.2994546142200476, 0.0, 0.226738996961806, 0.0, 0.4633062821858818, 0.0, 0.21683766852786868, 0.0, 0.12183885238988858, 0.0, 0.035267253445843944, 0.0, 0.1362142855678741, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.07053450689168768, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.91644514967074, 0.0, 2.288595383431523, 0.0, 0.7762153056305189, 0.0, 2.19101792451358, 0.0, 0.13145164696706596, 0.0, 0.5933393108013166, 0.0, 0.1922573368758145, 0.0, 0.7376769906791236, 0.0, 0.11687539931905357, 0.0, 0.07040246089714874, 0.0, 0.0705345068916878, 0.0, 0.1863173520225662, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.4062868887216017, 0.0, 0.049844324025377876, 0.035267253445844006, 0.04984432402537845, 0.0, 0.03526725344584385, 0.0, 0.14007610152566816, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.09953295742310303], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47992569317633016, 0.0, 0.2598535576242571, 0.0, 0.10568443093039691, 0.0, 0.3700369835434605, 0.0, 0.07882063461243574, 0.0, 0.07053450689168844, 0.0, 0.10580176033753227, 0.0, 0.1573261439337863, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584396, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.0, 0.2981830830649509, 0.0, 0.10568443093039637, 0.0, 0.22496741047060465, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.590890390979193, 0.0, 0.6747689409947849, 0.0, 0.09315867601128223, 0.0, 0.38517153373547103, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.13639632946543445, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.07882063461243612, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.0, 0.09315867601128307, 0.0, 0.09968864805075678, 0.0, 0.08629696706884303, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.21160352067506732, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.0, 0.23887624123781437, 0.0, 0.03526725344584383, 0.0, 0.1754545803686836, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168814, 1.4452525608517164, 0.0, 1.4637380325644744, 0.0, 1.2041355991434601, 0.0, 1.326644164675334, 0.0, 0.4071372172102203, 0.0, 0.15341333593459053, 0.0, 0.07882063461243645, 0.0, 0.4594609597595577, 0.0, 0.1410690137833756, 0.0, 0.13182863758724722, 0.0, 0.0, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.1891180314569825, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2513222833258918, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768784, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445844166, 0.0, 0.04984432402537851], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.0, 0.11114875584899023, 0.0, 0.035267253445844166, 0.0, 0.15341333593459083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2173091951010616, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.0, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.04984432402537791, 0.0, 0.10580176033753151, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15732614393378633, 0.0, 0.339191868514091, 0.0, 0.09953295742310306, 0.0, 0.13166383701150325, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.0, 0.04984432402537786, 0.0, 0.0, 0.0, 0.09315867601128291, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.0, 0.11687539931905308, 0.0, 0.0, 0.0, 0.16148045939482333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.0, 0.20102727913036317, 0.0, 0.07053450689168839, 0.0, 0.5425467109877259, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1269381686756839, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.11114875584898978, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.1318286375872472, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.0, 0.10550819217920085, 0.0, 0.0, 0.0, 0.2020737422205393, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.06100846183768903, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6917984760108976, 0.0, 0.7720081890546565, 0.0, 0.22150076890975368, 0.0, 0.7636198727869011, 0.0, 0.11671605991392184, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12160952045562846, 0.0, 0.0, 0.0, 0.1058017603375333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0862969670688434, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.08629696706884354], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04984432402537779, 0.0, 0.13621428556787427, 0.0, 0.0, 0.0, 0.07053450689168825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.11687539931905205, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.9950677749785297, 0.0, 0.7238356832856068, 0.0, 0.2711160947356388, 0.0, 0.621992164488976, 0.0, 0.179509040551707, 0.0, 0.09315867601128387, 0.0, 0.04984432402537798, 0.0, 0.33582373680066324, 0.0, 0.03526725344584415, 0.0, 0.06100846183768789, 0.0, 0.08629696706884349, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.04984432402537784, 0.0, 0.10550819217920339, 0.0, 0.035267253445844124, 0.03526725344584416, 0.03526725344584415, 0.0, 0.0, 0.03526725344584421, 0.16886968849498357, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.035267253445844124, 0.0, 0.0, 0.0, 0.03526725344584419, 0.03526725344584419, 0.0, 0.0, 0.11134392501747037, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.1983635198880408]]</t>
+          <t>[[0.0, 0.3351950952181478, 0.0, 0.18265217551481125, 0.0, 0.0, 0.0, 0.4180563763149647, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168812, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 74.480476982224, 0.0, 17.923961281013455, 0.0, 7.727890751514273, 0.0, 21.431507636262022, 0.0, 3.067375991424555, 0.0, 1.7956924693483067, 0.0, 1.7658085761328823, 0.0, 6.157081099279632, 0.0, 1.072500301994834, 0.0, 0.8509258963557415, 0.0, 0.8412644374406971, 0.0, 0.9915673852898383, 0.0, 0.5000709462095569, 0.347748232474827, 0.5223175959099488, 0.4780380565974221, 0.3925852250797812, 0.0, 1.9586654001948354, 0.0, 0.37679825702982767, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.3351950952181536, 0.0, 1.3366365517372627, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.04984432402537801, 0.07053450689168834, 0.035267253445844075, 0.0, 0.0, 0.7171327786948001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243537, 0.0, 0.43109648596875205], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.11148312237776016, 17.51945602345737, 0.0, 42.41833443699068, 0.0, 5.0064258369449375, 0.0, 17.545722056459624, 0.0, 2.6717231259884264, 0.0, 3.857467959199109, 0.0, 1.4847164723740889, 0.0, 6.525504548734949, 0.0, 1.307563303853914, 0.0, 1.4612885120931256, 0.0, 0.7906560921724971, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.5939010034368932, 0.517934533785683, 0.0, 2.243758467961436, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8569988009059346, 0.09315867601128319, 0.10550819217920296, 0.0, 1.7469507879800816, 0.0, 0.12201692367537655, 0.18265217551481117, 0.2807273285898912, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.6341970707478032, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.035267253445844166, 0.0, 0.7691886446912705], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 7.145067679197186, 0.0, 5.435380331805128, 0.0, 5.4799750684389394, 0.0, 5.743650487965188, 0.0, 1.0712748308591162, 0.0, 1.1754055090594748, 0.0, 0.5986295022743896, 0.0, 2.7934481596583445, 0.0, 0.7141574034175634, 0.0, 0.5313197250903469, 0.0, 0.4252505692122663, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.8022516076349712, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.7499244570306806, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.30842477764736526, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.4223413313185044], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.035267253445844055, 21.273473495326133, 0.0, 17.653441766680807, 0.0, 5.386215705955767, 0.0, 34.25437212277142, 0.0, 2.1544597927661844, 0.0, 2.935769825005891, 0.0, 1.2234009475348173, 0.0, 6.435423069278175, 0.0, 0.9195697605650929, 0.0, 1.4517236655952532, 0.0, 0.8462656569926714, 0.0, 1.7252077647219963, 0.0, 0.7142268904584004, 0.6707070444444065, 0.7717650802104099, 0.44250064442239273, 0.46977506001687913, 0.0, 2.085719957678519, 0.0, 0.368697611744475, 0.20769775082828748, 0.5595427255680409, 0.238876241237813, 0.21384169360017435, 0.0, 1.3455432048664102, 0.0, 0.27437421034646986, 0.19270853231927834, 0.27948712605938364, 0.10550819217920143, 0.15357499386767554, 0.0, 0.5244924347959045, 0.0, 0.10568443093039617, 0.09315867601128312, 0.15321102365359743, 0.07882063461243528, 0.08629696706884217, 0.0, 0.8198415225601114, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 1.1456007317499548], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.344263203730531, 0.0, 2.617337672477005, 0.0, 0.9234388654998725, 0.0, 2.2469653371390033, 0.0, 0.5106703449516852, 0.0, 0.4183826989986844, 0.0, 0.11114875584899035, 0.0, 0.6501886957591321, 0.0, 0.15764126922487304, 0.0, 0.03526725344584391, 0.0, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.4067904368502481, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.24367770477977616, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0862969670688437, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.23554191739728292], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.367449325739844, 0.0, 4.144069097542604, 0.0, 0.7421163856103026, 0.0, 2.107545092180845, 0.0, 0.4192306890890823, 0.0, 0.9950038730376165, 0.0, 0.18613414088700717, 0.0, 0.6965748721411671, 0.0, 0.03526725344584399, 0.0, 0.2480239721320208, 0.0, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.23527840339477765, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.035267253445844166, 0.0, 0.3108589175095745, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.11671605991392282, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22821160920972303], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.8359957432482417, 0.0, 1.3844407177575222, 0.0, 0.8450754776983171, 0.0, 1.1434028552690199, 0.0, 0.14920072231784717, 0.0, 0.21995503635527222, 0.0, 0.2821380275667512, 0.0, 0.33274323072806267, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.19559215180336503, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714869, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768866], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6425323614889791, 5.418178005595252, 0.0, 6.988035071454866, 0.0, 2.603704826819387, 0.0, 6.1986661332365145, 0.0, 1.0178697067281803, 0.0, 0.949147367862537, 0.0, 0.502079625598506, 0.0, 6.375716783539526, 0.0, 0.41078527597478676, 0.0, 0.4310677054305617, 0.0, 0.3560598650080203, 0.0, 0.44555325224983844, 0.0, 0.2667972418495151, 0.18911803145698147, 0.27674920421951754, 0.1722341381780362, 0.2878841001603976, 0.0, 0.8105137370837415, 0.0, 0.2158053071699267, 0.04984432402537842, 0.14080492179429777, 0.07040246089714872, 0.15341333593459047, 0.0, 0.6043328779845395, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.10568443093039574, 0.0, 0.23100116464611686, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3602298689492697, 0.0, 0.03526725344584419, 0.035267253445844256, 0.0, 0.0, 0.03526725344584419, 0.0, 0.2815272253278437], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3847319384421342, 0.0, 1.0689444512204713, 0.0, 0.4637077898358893, 0.0, 0.764125403216883, 0.0, 0.3242978994722724, 0.0, 0.1797852881565914, 0.0, 0.07882063461243556, 0.0, 0.41078527597478676, 0.0, 0.14953297207613514, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10550819217920401, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.07053450689168782, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1830150085095699, 0.0, 1.46774174733167, 0.0, 0.4477060985422264, 0.0, 1.2069837161004897, 0.0, 0.17591360903495365, 0.0, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.3521664688583445, 0.0, 0.0, 0.0, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.17950904055170688, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9655749590412817, 0.0, 0.7124550306544375, 0.0, 0.31206886765491826, 0.0, 0.7382444038873386, 0.0, 0.11134392501746977, 0.0, 0.09315867601128307, 0.0, 0.14536794364889521, 0.0, 0.2970993078765262, 0.0, 0.03526725344584404, 0.0, 0.07053450689168782, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884339, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168782], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0854306675798493, 0.0, 1.7615922645009436, 0.0, 0.5464005171597189, 0.0, 1.356350198313154, 0.0, 0.21305700411948192, 0.0, 0.11671605991392046, 0.0, 0.09953295742310303, 0.0, 0.5012294730751393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.3089372367037815, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.20241114548592845, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6723236758014889, 0.0, 0.6035702315308191, 0.0, 0.3954741484748924, 0.0, 0.49757440772010675, 0.0, 0.14080492179429757, 0.0, 0.21160352067506322, 0.0, 0.035267253445844006, 0.0, 0.24321904091125665, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.10568443093039523, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.374080221422333, 0.0, 0.4850012838037022, 0.0, 0.140606527285403, 0.0, 0.3905454988933167, 0.0, 0.27715238404366227, 0.0, 0.03526725344584402, 0.0, 0.0, 0.0, 0.24588882630368028, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243652, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6993744966290104, 0.0, 1.0331721919511425, 0.0, 0.36113282065740643, 0.0, 0.4702139218199332, 0.0, 0.33562048161107094, 0.0, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.2951510946817111, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832], [0.0, 0.392652375191469, 0.0, 0.5688146222788149, 0.0, 0.16505203903612162, 0.0, 0.36640224827946927, 0.0, 0.1576412692248712, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.18591738586820974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22296624475551793, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075713, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3660380607092411, 0.0, 0.2994546142200476, 0.0, 0.226738996961806, 0.0, 0.4682407726228201, 0.0, 0.21683766852786868, 0.0, 0.12183885238988858, 0.0, 0.035267253445843944, 0.0, 0.1362142855678741, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.07053450689168768, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0234248353115074, 0.0, 2.2898893126071957, 0.0, 0.7762153056305189, 0.0, 2.030896921639897, 0.0, 0.13145164696706596, 0.0, 0.5933393108013166, 0.0, 0.1922573368758145, 0.0, 0.7376769906791236, 0.0, 0.12201692367537692, 0.0, 0.07040246089714874, 0.0, 0.0705345068916878, 0.0, 0.1863173520225662, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.4062868887216017, 0.0, 0.049844324025377876, 0.035267253445844006, 0.04984432402537845, 0.0, 0.03526725344584385, 0.0, 0.14007610152566816, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.07040246089714884, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.09315867601128382], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.478809551545544, 0.0, 0.2598535576242571, 0.0, 0.10568443093039691, 0.0, 0.3700369835434605, 0.0, 0.07882063461243574, 0.0, 0.07053450689168844, 0.0, 0.10580176033753227, 0.0, 0.1573261439337863, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584396, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.0, 0.2981830830649509, 0.0, 0.10568443093039637, 0.0, 0.22496741047060465, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.590890390979193, 0.0, 0.6879408586909298, 0.0, 0.09315867601128223, 0.0, 0.38517153373547103, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.13639632946543445, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.07882063461243612, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.0, 0.09315867601128307, 0.0, 0.09968864805075678, 0.0, 0.08629696706884303, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.21160352067506732, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33541710325344815, 0.0, 0.23887624123781437, 0.0, 0.03526725344584383, 0.0, 0.1754545803686836, 0.0, 0.11148312237775884, 0.0, 0.049844324025378604, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168814, 1.4898675679795736, 0.0, 1.4637380325644744, 0.0, 1.2041355991434601, 0.0, 1.2327936875323977, 0.0, 0.4071372172102203, 0.0, 0.15341333593459053, 0.0, 0.07882063461243645, 0.0, 0.4594609597595577, 0.0, 0.1410690137833756, 0.0, 0.13182863758724722, 0.0, 0.0, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.1891180314569825, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2513222833258918, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06100846183768784, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445844166, 0.0, 0.04984432402537851], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.0, 0.11114875584899023, 0.0, 0.035267253445844166, 0.0, 0.15341333593459083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2173091951010616, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.0, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.035267253445844256, 0.0, 0.10580176033753151, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168789, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15732614393378633, 0.0, 0.339191868514091, 0.0, 0.10550819217920367, 0.0, 0.13166383701150325, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.0, 0.04984432402537786, 0.0, 0.0, 0.0, 0.09315867601128291, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243541, 0.0, 0.11687539931905308, 0.0, 0.0, 0.0, 0.16148045939482333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.0, 0.1980662052510194, 0.0, 0.07053450689168839, 0.0, 0.5425467109877259, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1269381686756839, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07882063461243602], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.11650326837884499, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.0, 0.10550819217920135, 0.0, 0.03526725344584425, 0.0, 0.2020737422205393, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.06100846183768903, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.06100846183768888, 0.0, 0.0, 0.0, 0.035267253445844075, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7249425301567154, 0.0, 0.7740805471904836, 0.0, 0.22150076890975368, 0.0, 0.7303050960581251, 0.0, 0.11671605991392184, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12160952045562846, 0.0, 0.0, 0.0, 0.1058017603375333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.08629696706884354], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884199, 0.0, 0.13621428556787427, 0.0, 0.0, 0.0, 0.07053450689168825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.0, 0.0705345068916883, 0.0, 0.0, 0.0, 0.12201692367537843, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.9971182514511873, 0.0, 0.7210191913462495, 0.0, 0.2711160947356388, 0.0, 0.6198566806846741, 0.0, 0.17608983990366803, 0.0, 0.09315867601128387, 0.0, 0.035267253445844235, 0.0, 0.3341199768415262, 0.0, 0.03526725344584415, 0.0, 0.049844324025378646, 0.0, 0.08629696706884349, 0.0, 0.06100846183768829, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.04984432402537784, 0.0, 0.12183885238988869, 0.0, 0.0, 0.03526725344584416, 0.03526725344584415, 0.0, 0.0, 0.0, 0.16886968849498357, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844124, 0.0, 0.03526725344584406, 0.0, 0.03526725344584419, 0.03526725344584419, 0.0, 0.0, 0.11134392501747037, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.19198287943841905]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.6647</v>
+        <v>71.94189999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.64</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4561</v>
+        <v>3.686500000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>22.05</v>
+        <v>24.14</v>
       </c>
       <c r="F4" t="n">
-        <v>6.249599999999999</v>
+        <v>6.649199999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0159</v>
+        <v>0.0168</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4286</v>
+        <v>2.4363</v>
       </c>
       <c r="I4" t="n">
-        <v>2.76</v>
+        <v>118.87</v>
       </c>
       <c r="J4" t="n">
-        <v>281.4</v>
+        <v>279.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.911400000000001</v>
+        <v>6.5599</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8402</v>
+        <v>2.5593</v>
       </c>
       <c r="M4" t="n">
-        <v>6.4263</v>
+        <v>5.795199999999999</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[69.9, 19.28, 91.8, 41.03, 12.38, 23.16, 0.53, 12.77, 2.05, 3.42, 1.59, 0.16, 1.62, 0.0, 0.31, 0.16, 0.03, 0.09, 0.01, 0.06, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[72.93, 12.85, 84.75, 40.64, 18.11, 30.79, 1.04, 11.44, 1.37, 2.32, 1.23, 0.17, 0.53, 0.03, 0.13, 0.04, 0.02, 0.03, 0.01, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[51.79, 0.44, 49.9, 0.32, 54.56, 11.38, 0.82, 44.1, 0.91, 48.75, 0.27, 18.16]</t>
+          <t>[27.37, 24.46, 21.12, 28.26, 18.75, 27.72, 18.34, 27.1, 19.97, 19.57, 27.84, 19.1]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[8.58, 66.34, 116.28, 30.43, 30.34, 2.75, 5.89, 2.16, 5.09, 0.94, 1.71, 0.68, 2.56, 0.64, 1.16, 0.39, 2.09, 0.35, 0.66, 0.12, 0.72, 0.04, 0.17, 0.03, 0.32, 0.01, 0.04, 0.03, 0.11, 0.02, 0.02, 0.0]</t>
+          <t>[7.88, 94.59, 94.27, 28.95, 27.13, 3.83, 4.89, 2.2, 4.68, 1.06, 1.54, 0.8, 2.03, 0.52, 0.89, 0.59, 1.83, 0.37, 0.27, 0.07, 0.23, 0.02, 0.06, 0.02, 0.07, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.07, 103.64, 0.0, 69.15, 0.0, 14.75, 0.0, 59.69, 0.0, 3.75, 0.0, 3.37, 0.0, 1.45, 0.0, 13.37, 0.0, 0.96, 0.0, 1.05, 0.0, 0.54, 0.0, 1.27, 0.0, 0.48, 0.15, 0.53, 0.14, 0.34, 0.0, 2.48, 0.0, 0.17, 0.09, 0.34, 0.02, 0.06, 0.0, 1.64, 0.0, 0.05, 0.05, 0.11, 0.01, 0.01, 0.0, 0.12, 0.0, 0.05, 0.03, 0.04, 0.01, 0.0, 0.0, 0.57, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.53]</t>
+          <t>[0.04, 119.5, 0.0, 65.16, 0.0, 11.85, 0.0, 54.09, 0.0, 3.38, 0.0, 3.26, 0.0, 1.22, 0.0, 11.33, 0.0, 0.88, 0.0, 0.89, 0.0, 0.45, 0.0, 1.01, 0.0, 0.32, 0.12, 0.5, 0.18, 0.15, 0.0, 2.02, 0.0, 0.11, 0.04, 0.24, 0.03, 0.01, 0.0, 1.36, 0.0, 0.02, 0.03, 0.06, 0.01, 0.01, 0.0, 0.08, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.45, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.48]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[13.42, 0.03, 12.14, 0.02, 4.78, 0.83, 0.06, 4.33, 0.1, 9.97, 0.03, 5.92], [0.04, 0.08, 0.04, 0.04, 0.03, 0.04, 0.01, 0.03, 0.09, 0.01, 0.01, 0.02], [13.36, 0.05, 12.4, 0.03, 14.73, 1.1, 0.06, 3.32, 0.05, 3.05, 0.04, 1.51], [0.02, 0.03, 0.03, 0.04, 0.04, 0.03, 0.02, 0.03, 0.05, 0.0, 0.02, 0.0], [5.03, 0.05, 16.55, 0.05, 13.52, 3.5, 0.23, 9.16, 0.01, 4.93, 0.03, 1.36], [0.66, 0.03, 0.99, 0.05, 4.17, 2.87, 0.04, 1.83, 0.06, 0.48, 0.01, 0.11], [0.05, 0.03, 0.05, 0.01, 0.26, 0.05, 0.12, 0.08, 0.02, 0.1, 0.01, 0.03], [4.14, 0.02, 3.48, 0.02, 10.13, 2.15, 0.1, 11.32, 0.05, 11.35, 0.0, 1.18], [0.08, 0.07, 0.05, 0.03, 0.05, 0.14, 0.05, 0.03, 0.16, 0.12, 0.04, 0.06], [9.92, 0.0, 3.04, 0.01, 5.37, 0.51, 0.1, 11.78, 0.12, 13.68, 0.0, 4.07], [0.01, 0.02, 0.02, 0.01, 0.03, 0.03, 0.0, 0.02, 0.07, 0.01, 0.04, 0.01], [4.9, 0.03, 1.07, 0.01, 1.17, 0.1, 0.03, 1.92, 0.13, 4.83, 0.04, 3.87]]</t>
+          <t>[[7.58, 0.43, 3.93, 2.15, 0.9, 2.1, 0.1, 2.26, 0.95, 1.79, 4.53, 0.58], [0.44, 7.38, 0.35, 4.57, 1.48, 1.17, 1.43, 0.07, 1.76, 0.61, 2.24, 2.88], [4.49, 0.37, 4.7, 0.64, 2.64, 1.92, 0.69, 2.16, 0.13, 1.19, 1.0, 1.11], [2.17, 4.79, 0.86, 8.1, 0.74, 4.79, 1.67, 1.03, 1.51, 0.07, 1.83, 0.6], [0.78, 1.39, 3.16, 0.76, 4.33, 0.44, 2.54, 1.65, 0.6, 1.61, 0.08, 1.34], [1.97, 1.23, 2.03, 4.58, 0.64, 7.22, 0.48, 4.3, 1.74, 0.84, 2.5, 0.07], [0.13, 1.42, 0.7, 1.51, 2.76, 0.65, 4.54, 0.43, 2.14, 1.67, 0.68, 1.61], [2.39, 0.02, 1.82, 0.79, 1.7, 4.76, 0.5, 7.74, 0.42, 3.21, 2.58, 1.03], [0.67, 1.89, 0.03, 1.8, 0.39, 1.81, 2.42, 0.52, 4.74, 0.35, 3.61, 1.69], [1.75, 0.55, 1.14, 0.15, 1.74, 0.81, 1.81, 3.62, 0.48, 4.47, 0.47, 2.52], [4.24, 2.17, 1.27, 2.36, 0.1, 1.86, 0.72, 2.42, 3.92, 0.67, 7.54, 0.5], [0.63, 2.78, 1.1, 0.72, 1.29, 0.1, 1.37, 0.78, 1.48, 2.97, 0.7, 5.12]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 57.49, 0.0, 17.42, 0.0, 5.06, 0.0, 14.58, 0.0, 1.41, 0.0, 0.91, 0.0, 0.43, 0.0, 3.45, 0.0, 0.28, 0.0, 0.2, 0.0, 0.1, 0.0, 0.27, 0.0, 0.1, 0.02, 0.06, 0.06, 0.08, 0.0, 0.45, 0.0, 0.08, 0.03, 0.06, 0.0, 0.01, 0.0, 0.42, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.15, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.16], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 17.75, 0.0, 27.77, 0.0, 3.2, 0.0, 10.98, 0.0, 0.86, 0.0, 1.01, 0.0, 0.39, 0.0, 3.37, 0.0, 0.29, 0.0, 0.32, 0.0, 0.15, 0.0, 0.39, 0.0, 0.11, 0.03, 0.23, 0.02, 0.08, 0.0, 0.73, 0.0, 0.04, 0.01, 0.11, 0.0, 0.01, 0.0, 0.47, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.01, 0.03, 0.0, 0.0, 0.0, 0.19, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.19], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.69, 0.0, 3.47, 0.0, 1.94, 0.0, 2.48, 0.0, 0.22, 0.0, 0.25, 0.0, 0.11, 0.0, 0.84, 0.0, 0.06, 0.0, 0.07, 0.0, 0.02, 0.0, 0.07, 0.0, 0.04, 0.02, 0.0, 0.01, 0.01, 0.0, 0.15, 0.0, 0.01, 0.02, 0.02, 0.0, 0.01, 0.0, 0.13, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 14.02, 0.0, 11.9, 0.0, 2.49, 0.0, 23.22, 0.0, 0.64, 0.0, 0.68, 0.0, 0.26, 0.0, 3.33, 0.0, 0.23, 0.0, 0.31, 0.0, 0.12, 0.0, 0.28, 0.0, 0.11, 0.04, 0.12, 0.02, 0.07, 0.0, 0.66, 0.0, 0.03, 0.02, 0.09, 0.01, 0.01, 0.0, 0.36, 0.0, 0.02, 0.02, 0.03, 0.01, 0.01, 0.0, 0.07, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.08], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.37, 0.0, 0.85, 0.0, 0.2, 0.0, 0.74, 0.0, 0.12, 0.0, 0.07, 0.0, 0.0, 0.0, 0.2, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.02, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.86, 0.0, 1.02, 0.0, 0.24, 0.0, 0.7, 0.0, 0.09, 0.0, 0.04, 0.0, 0.04, 0.0, 0.15, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.09, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.46, 0.0, 0.37, 0.0, 0.06, 0.0, 0.28, 0.0, 0.03, 0.0, 0.07, 0.0, 0.03, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 3.56, 0.0, 3.14, 0.0, 0.64, 0.0, 3.59, 0.0, 0.18, 0.0, 0.16, 0.0, 0.07, 0.0, 1.39, 0.0, 0.04, 0.0, 0.02, 0.0, 0.03, 0.0, 0.05, 0.0, 0.03, 0.0, 0.02, 0.0, 0.04, 0.0, 0.14, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.08, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.19, 0.0, 0.11, 0.0, 0.21, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31, 0.0, 0.26, 0.0, 0.04, 0.0, 0.25, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.13, 0.0, 0.04, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34, 0.0, 0.37, 0.0, 0.1, 0.0, 0.25, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.0, 0.12, 0.0, 0.01, 0.0, 0.15, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.18, 0.0, 0.03, 0.0, 0.07, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.1, 0.0, 0.04, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.7, 0.0, 0.46, 0.0, 0.18, 0.0, 0.75, 0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.0, 0.13, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.04, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.17, 0.0, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.47, 0.0, 0.43, 0.0, 0.17, 0.0, 0.38, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17, 0.0, 0.14, 0.0, 0.02, 0.0, 0.14, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.0, 0.16, 0.0, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 70.56, 0.0, 19.27, 0.0, 4.18, 0.0, 16.33, 0.0, 1.35, 0.0, 0.84, 0.0, 0.44, 0.0, 3.5, 0.0, 0.33, 0.0, 0.25, 0.0, 0.13, 0.0, 0.24, 0.0, 0.08, 0.05, 0.12, 0.04, 0.05, 0.0, 0.49, 0.0, 0.05, 0.02, 0.06, 0.01, 0.01, 0.0, 0.49, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 18.81, 0.0, 25.49, 0.0, 2.52, 0.0, 10.79, 0.0, 0.73, 0.0, 1.09, 0.0, 0.34, 0.0, 2.76, 0.0, 0.2, 0.0, 0.23, 0.0, 0.1, 0.0, 0.27, 0.0, 0.08, 0.01, 0.11, 0.05, 0.02, 0.0, 0.47, 0.0, 0.0, 0.01, 0.09, 0.01, 0.0, 0.0, 0.28, 0.0, 0.0, 0.0, 0.04, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.17, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.19], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.13, 0.0, 2.5, 0.0, 1.37, 0.0, 2.22, 0.0, 0.17, 0.0, 0.17, 0.0, 0.03, 0.0, 0.56, 0.0, 0.06, 0.0, 0.05, 0.0, 0.02, 0.0, 0.05, 0.0, 0.05, 0.0, 0.03, 0.0, 0.03, 0.0, 0.17, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 16.43, 0.0, 10.34, 0.0, 2.19, 0.0, 18.37, 0.0, 0.6, 0.0, 0.6, 0.0, 0.19, 0.0, 2.84, 0.0, 0.14, 0.0, 0.16, 0.0, 0.11, 0.0, 0.23, 0.0, 0.06, 0.05, 0.15, 0.06, 0.03, 0.0, 0.65, 0.0, 0.01, 0.01, 0.05, 0.01, 0.0, 0.0, 0.24, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.1, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.63, 0.0, 0.75, 0.0, 0.17, 0.0, 0.47, 0.0, 0.06, 0.0, 0.04, 0.0, 0.02, 0.0, 0.08, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.86, 0.0, 1.02, 0.0, 0.2, 0.0, 0.65, 0.0, 0.05, 0.0, 0.09, 0.0, 0.03, 0.0, 0.15, 0.0, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.53, 0.0, 0.24, 0.0, 0.15, 0.0, 0.2, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.32, 0.0, 2.96, 0.0, 0.46, 0.0, 2.63, 0.0, 0.16, 0.0, 0.17, 0.0, 0.11, 0.0, 0.92, 0.0, 0.04, 0.0, 0.06, 0.0, 0.04, 0.0, 0.07, 0.0, 0.01, 0.0, 0.05, 0.01, 0.0, 0.0, 0.09, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.1, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32, 0.0, 0.22, 0.0, 0.03, 0.0, 0.15, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.18, 0.0, 0.31, 0.0, 0.06, 0.0, 0.15, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.0, 0.1, 0.0, 0.03, 0.0, 0.1, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.31, 0.0, 0.02, 0.0, 0.22, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.06, 0.0, 0.01, 0.0, 0.1, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.0, 0.14, 0.0, 0.02, 0.0, 0.15, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.07, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.65, 0.0, 0.44, 0.0, 0.17, 0.0, 0.53, 0.0, 0.05, 0.0, 0.02, 0.0, 0.0, 0.0, 0.1, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.0, 0.08, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5, 0.0, 0.3, 0.0, 0.1, 0.0, 0.28, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.07, 0.0, 0.04, 0.0, 0.13, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.13, 0.0, 0.03, 0.0, 0.08, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.551973100967968</v>
+        <v>4.392989117901386</v>
       </c>
       <c r="C5" t="n">
-        <v>2.61732688061694</v>
+        <v>2.280350850198276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5381484832274454</v>
+        <v>0.5922927907715911</v>
       </c>
       <c r="E5" t="n">
-        <v>4.771530152896448</v>
+        <v>4.613068393163059</v>
       </c>
       <c r="F5" t="n">
-        <v>1.144915647547888</v>
+        <v>1.219650507317568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02285147697633569</v>
+        <v>0.02077883538603644</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1782471318142314</v>
+        <v>0.1972797759528331</v>
       </c>
       <c r="I5" t="n">
-        <v>5.990191983567806</v>
+        <v>84.85795837751461</v>
       </c>
       <c r="J5" t="n">
-        <v>35.25308497138938</v>
+        <v>31.67648970451113</v>
       </c>
       <c r="K5" t="n">
-        <v>1.42962513967823</v>
+        <v>1.613632854772113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8627931154106412</v>
+        <v>0.739435264238865</v>
       </c>
       <c r="M5" t="n">
-        <v>2.319192814321397</v>
+        <v>1.973811784340138</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[13.474791278531923, 13.322222036882584, 18.263077506269305, 10.51708609834492, 5.139610880212626, 6.441614704404479, 0.8655056325639947, 3.972039778249961, 1.5058220346375595, 2.214407369929932, 1.2813664581219537, 0.3929376540877703, 1.354843164355196, 0.0, 0.5421254467371919, 0.39293765408777015, 0.17058722109231975, 0.2861817604250837, 0.09949874371066199, 0.2764054992217049, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[12.55727279308688, 8.22602577190225, 15.09528071948316, 8.99946665086326, 5.961367292828046, 6.681758750508732, 1.3632314550361582, 3.9021019976417843, 1.2300812981262659, 1.7255723688098388, 1.1389029809426259, 0.4013726448077898, 0.7410128204019147, 0.1705872210923201, 0.33630343441600463, 0.19595917942265415, 0.13999999999999993, 0.22158519806160315, 0.09949874371066196, 0.24166091947189108, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.24166091947189144, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[15.104499329669956, 1.4582180906846551, 16.412495239907916, 0.7984985911070857, 12.954010961860423, 14.838315268250637, 3.1285140242613596, 14.691834466805018, 2.2275322668818966, 19.049606295144265, 0.8815327560561781, 16.18932981935942]</t>
+          <t>[30.33138803286127, 28.33246194738465, 22.40905174254369, 28.209792625965907, 22.217729406939856, 25.313269247570528, 22.6000973449231, 28.698954684796455, 23.236804857811237, 23.13752579685218, 25.093712359872146, 24.676507046176535]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[7.750070967417007, 51.47314251141074, 71.64790017858165, 25.676158201724803, 24.394761732798287, 2.3339880033967613, 5.4970810436085085, 2.052900387257014, 3.641689168504089, 1.1984990613262914, 1.8400815199332878, 0.8930845424706447, 3.0799999999999996, 0.9002221947941514, 1.7304334717058605, 0.7334166619323557, 2.9566704246499986, 0.7664854858377947, 1.0316976301223142, 0.38157568056677843, 1.4702380759591291, 0.19595917942265423, 0.42555845661906444, 0.17058722109231986, 0.8352245207128444, 0.09949874371066196, 0.19595917942265398, 0.17058722109231977, 0.37134889255254305, 0.13999999999999987, 0.13999999999999987, 0.0]</t>
+          <t>[11.48675759298506, 56.95877368764183, 57.9009248630797, 21.140659876172265, 22.606041227954975, 2.8532612919254348, 4.7305285116993, 1.9493588689617927, 3.9645428488036294, 1.231421942308972, 1.785609139761555, 1.048808848170152, 2.1234641508629246, 0.6705221845696085, 1.1215614116043764, 0.9065870063044147, 2.1957003438538694, 0.6878226515607057, 0.6611353870426231, 0.25514701644346155, 0.7050531894828933, 0.13999999999999987, 0.2764054992217046, 0.13999999999999987, 0.2917190429162965, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.29171904291629597, 75.3061113057898, 0.0, 56.71002997706842, 0.0, 11.672510441203297, 0.0, 46.19798588683277, 0.0, 2.878801834096956, 0.0, 3.2082861468391486, 0.0, 1.6933694221876088, 0.0, 13.21185452538742, 0.0, 1.3778243719719876, 0.0, 1.4585952145814813, 0.0, 1.0716342659695055, 0.0, 1.7936276090649372, 0.0, 0.9537295214053096, 0.47696960070847316, 1.1353853971229333, 0.40049968789001583, 0.8272847151978575, 0.0, 2.41445646057244, 0.0, 0.4013726448077897, 0.28618176042508386, 0.8856635930193812, 0.13999999999999987, 0.27640549922170493, 0.0, 1.8895502110290683, 0.0, 0.2179449471770339, 0.21794494717703367, 0.421781934179263, 0.09949874371066196, 0.09949874371066196, 0.0, 0.40693979898751564, 0.0, 0.2598076211353318, 0.17058722109231994, 0.19595917942265415, 0.09949874371066193, 0.0, 0.0, 0.8155366331440909, 0.0, 0.0, 0.0, 0.19595917942265412, 0.0, 0.09949874371066196, 0.0, 0.8769834662067468]</t>
+          <t>[0.19595917942265398, 76.76333760331164, 0.0, 50.88137576756352, 0.0, 10.19938723649612, 0.0, 35.782424456707794, 0.0, 2.7740944468420694, 0.0, 3.585024407169357, 0.0, 1.4323407415835099, 0.0, 8.958855953747667, 0.0, 1.2188519188154072, 0.0, 1.3776429145464373, 0.0, 0.6982120021884474, 0.0, 1.9261100695443143, 0.0, 0.6144916598294886, 0.4308131845707605, 0.9746794344808963, 0.43312815655415465, 0.40926763859362314, 0.0, 1.9286264542414628, 0.0, 0.31288975694324056, 0.195959179422654, 0.6019966777316967, 0.17058722109231975, 0.09949874371066199, 0.0, 1.4595889832415159, 0.0, 0.13999999999999987, 0.17058722109231964, 0.27640549922170465, 0.09949874371066196, 0.09949874371066199, 0.0, 0.39191835884530857, 0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.8170067319184099, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.8304215796810686]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[7.8500700633816, 0.1705872210923198, 5.142022948217949, 0.13999999999999987, 2.689163438692413, 1.3270644294833607, 0.27640549922170493, 3.0134863530469143, 0.3316624790355398, 4.546328188769483, 0.17058722109231986, 4.799333287030605], [0.2416609194718913, 0.4621688003316536, 0.31368774282716233, 0.24166091947189114, 0.1705872210923199, 0.19595917942265415, 0.09949874371066197, 0.17058722109231989, 0.44933283877321917, 0.09949874371066199, 0.09949874371066199, 0.13999999999999987], [5.419446466199293, 0.25980762113533173, 7.2152616030189805, 0.17058722109231994, 6.409141908243257, 1.4866068747318506, 0.23748684174075826, 2.2085289221561033, 0.25980762113533173, 2.1604397700468305, 0.19595917942265415, 1.8627667594199768], [0.1399999999999999, 0.1705872210923199, 0.17058722109231989, 0.19595917942265415, 0.19595917942265415, 0.17058722109231975, 0.13999999999999993, 0.1705872210923198, 0.29580398915498063, 0.0, 0.13999999999999987, 0.0], [2.3977280913398005, 0.21794494717703383, 6.377107494781626, 0.2179449471770338, 5.823194999310944, 4.198809355043403, 0.9576533819707416, 4.016764867402622, 0.09949874371066195, 2.926619209941738, 0.22158519806160315, 1.8249383551232639], [1.097451593465515, 0.2984962311319858, 1.4247455913249913, 0.21794494717703367, 4.737203816598984, 5.574325071253021, 0.1959591794226542, 2.800196421681878, 0.23748684174075818, 0.8182909018191518, 0.09949874371066199, 0.343365694267788], [0.25980762113533207, 0.22158519806160318, 0.21794494717703375, 0.09949874371066199, 1.0547037498748164, 0.3278719262150999, 0.8518215775618736, 0.36551333764994093, 0.19899748742132398, 0.4795831523312722, 0.09949874371066199, 0.17058722109231983], [2.258406517879365, 0.13999999999999993, 1.987360057966346, 0.13999999999999996, 4.0166030423729975, 3.017863482664513, 0.38729833462074154, 7.111793022859987, 0.2598076211353318, 5.671639974469467, 0.0, 1.1779643458101774], [0.2712931993250109, 0.3241913015489464, 0.21794494717703375, 0.1705872210923199, 0.21794494717703375, 0.4903060268852506, 0.3278719262150998, 0.17058722109231986, 0.6590902821313628, 0.3815756805667784, 0.19595917942265415, 0.3104834939252006], [4.849082387421357, 0.0, 2.153694500155489, 0.09949874371066196, 3.15802153254217, 0.9109884741312587, 0.5567764362830024, 5.275566320311024, 0.35440090293338716, 9.579018738889701, 0.0, 4.140664197927672], [0.09949874371066195, 0.1399999999999999, 0.13999999999999987, 0.09949874371066196, 0.1705872210923197, 0.22158519806160312, 0.0, 0.13999999999999996, 0.3809199390948179, 0.09949874371066196, 0.2799999999999999, 0.09949874371066199], [4.366921112179609, 0.1705872210923199, 1.1424097338520898, 0.09949874371066199, 1.53006535808115, 0.2999999999999999, 0.17058722109231972, 1.8258148865643522, 0.4160528812542941, 4.762467847660496, 0.1959591794226539, 5.4802463448279415]]</t>
+          <t>[[12.753179995593252, 0.7906326580656781, 6.076602669255246, 3.9783790669065175, 2.1236760581595306, 2.847806173179628, 0.2999999999999999, 3.236108774438833, 2.351063589101748, 3.172680254926425, 6.168395253224293, 1.6442627527253666], [0.886791971095815, 10.175244468807621, 0.8645808232895293, 7.320184423906273, 2.991588206956296, 2.4700404854981666, 2.0506340482884804, 0.2551470164434616, 2.7170572316386723, 1.7826665420094694, 3.9902882101422175, 4.844130468928352], [6.732748324421463, 1.035905401086411, 6.513831437794504, 1.4800000000000015, 4.863167691947293, 3.1198717922376256, 1.8530785196531743, 2.9957302949364464, 0.4394314508543964, 1.8093921631310321, 2.1354156504062622, 2.323338115729176], [3.934602902454073, 7.443513955115553, 2.3238760724272707, 10.286398786747478, 1.7240649639732233, 6.8121876075164005, 2.9259357477566055, 2.118749631268405, 2.1283561732003418, 0.3536947836765469, 2.803765325415092, 1.3856406460551023], [1.9523319389898846, 2.767291094193019, 5.5528731301912515, 1.871470010446333, 6.270653873401085, 1.051855503384377, 4.852669368502248, 3.4996428389194234, 1.5362291495737226, 2.645354418598762, 0.30594117081556704, 2.0110693672770217], [2.670037452920839, 2.4611176322963497, 3.4247773650268103, 6.232463397405555, 1.4595889832415165, 7.831449418849614, 1.1356055653262718, 6.226556030423234, 3.576646474003266, 1.8039955654047493, 3.0967725134404045, 0.2551470164434615], [0.3912799509302768, 2.112723360972751, 1.824828759089467, 2.65892835555981, 4.919593479140327, 1.5898113095584667, 7.792842870223938, 1.1937755232873555, 3.84192660002765, 3.8705425976211667, 1.4133647795243807, 2.633989369758351], [3.218369152226014, 0.13999999999999999, 2.5705252381565926, 1.6928969253915014, 3.713488925525431, 7.255508252355582, 1.40356688476182, 10.203548402394143, 1.0117311895953391, 5.004587895121833, 3.899179400848339, 2.5355669977344313], [1.9751202495038094, 2.7888886675520035, 0.17058722109231972, 2.6832815729997486, 0.9787236586493661, 3.969118289998424, 4.072296649312274, 1.0721940122944162, 7.049283651549281, 1.0136567466356652, 5.732181085764822, 3.568459051187219], [3.118894034750139, 1.5058220346375597, 1.9799999999999998, 0.4769696007084732, 2.8935099792466588, 1.6473918780909413, 4.2911420391313095, 5.957818392666903, 1.236769986699225, 6.7312034585206195, 1.268503054785443, 4.769654075506943], [6.162986289129647, 3.952353729108772, 2.610957678707182, 3.1480787791921614, 0.29999999999999977, 2.5691243644479353, 1.2890306435457626, 3.641922569193363, 6.376017565847821, 1.7553062410872913, 8.689556950731147, 1.1958260743101399], [1.8201922975334222, 5.0844468725712915, 2.2068076490713895, 1.6618062462272787, 2.2507554287394274, 0.3316624790355398, 2.411037121240566, 2.0128586636920156, 3.1669543728951925, 5.600812441066031, 1.6703293088490079, 8.571207616199715]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 59.04718367543026, 0.0, 14.704543515526082, 0.0, 4.923047836452535, 0.0, 11.837381467199577, 0.0, 1.6315330214249415, 0.0, 1.1233432244866217, 0.0, 0.7517313349861102, 0.0, 3.4967842369811737, 0.0, 0.6013318551349157, 0.0, 0.509901951359278, 0.0, 0.29999999999999977, 0.0, 0.6140846847137614, 0.0, 0.3316624790355398, 0.13999999999999987, 0.2374868417407583, 0.2374868417407583, 0.3059411708155671, 0.0, 0.668954408012983, 0.0, 0.271293199325011, 0.1705872210923201, 0.2764054992217046, 0.0, 0.09949874371066199, 0.0, 0.8268010643437755, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.47696960070847344, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.44090815370097225], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 14.96487554241598, 0.0, 42.372598457021724, 0.0, 3.133687923198481, 0.0, 9.375478654447463, 0.0, 1.1315476127852506, 0.0, 1.7691523393987307, 0.0, 0.6766830868286868, 0.0, 3.859157939240112, 0.0, 0.7522632517942104, 0.0, 0.6305553108173783, 0.0, 0.38405728739343065, 0.0, 0.9262289133902056, 0.0, 0.3433656942677881, 0.17058722109231975, 0.5631163290120439, 0.13999999999999985, 0.3059411708155668, 0.0, 1.0569295151522637, 0.0, 0.19595917942265398, 0.09949874371066199, 0.4217819341792631, 0.0, 0.09949874371066199, 0.0, 0.6993568473962346, 0.0, 0.13999999999999987, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.21794494717703386, 0.0, 0.09949874371066195, 0.09949874371066199, 0.17058722109231986, 0.0, 0.0, 0.0, 0.4624932431938871, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.503884907493765], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.644771253786347, 0.0, 3.26635882903272, 0.0, 3.676465694114388, 0.0, 2.882637681013692, 0.0, 0.558211429478115, 0.0, 0.49749371855331, 0.0, 0.3433656942677881, 0.0, 1.163786922078092, 0.0, 0.23748684174075793, 0.0, 0.25514701644346155, 0.0, 0.13999999999999987, 0.0, 0.2551470164434616, 0.0, 0.19595917942265415, 0.13999999999999993, 0.0, 0.09949874371066196, 0.09949874371066193, 0.0, 0.4092676385936228, 0.0, 0.09949874371066199, 0.13999999999999987, 0.13999999999999987, 0.0, 0.09949874371066193, 0.0, 0.36482872693909374, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 11.821150536221083, 0.0, 10.226925246622269, 0.0, 2.8687802285989075, 0.0, 32.403265267562155, 0.0, 0.911262859991561, 0.0, 1.1822013364905326, 0.0, 0.5936328831862325, 0.0, 5.607236395944086, 0.0, 0.5631163290120439, 0.0, 0.7306846104852627, 0.0, 0.4069397989875158, 0.0, 0.6013318551349162, 0.0, 0.31288975694324056, 0.19595917942265412, 0.3815756805667784, 0.13999999999999987, 0.4063249930782007, 0.0, 1.0883014288330222, 0.0, 0.22158519806160326, 0.13999999999999996, 0.34914180500192216, 0.09949874371066196, 0.09949874371066197, 0.0, 0.6560487786742696, 0.0, 0.13999999999999987, 0.13999999999999987, 0.17058722109231972, 0.09949874371066196, 0.09949874371066196, 0.0, 0.29171904291629613, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066193, 0.0, 0.0, 0.28618176042508364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.2712931993250109], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.6831815113053021, 0.0, 1.2913171570144955, 0.0, 0.42426406871192807, 0.0, 0.9446692542895637, 0.0, 0.35440090293338716, 0.0, 0.25514701644346155, 0.0, 0.0, 0.0, 0.509901951359278, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.13999999999999987, 0.0, 0.1705872210923199, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1833849753989611, 0.0, 1.6969384196251798, 0.0, 0.5122499389946283, 0.0, 1.1874342087037928, 0.0, 0.349141805001922, 0.0, 0.19595917942265412, 0.0, 0.19595917942265398, 0.0, 0.38405728739343065, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.19899748742132398, 0.0, 0.2215851980616035, 0.0, 0.0, 0.09949874371066199, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.31921779399024747, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7539230729988304, 0.0, 0.6731270311018566, 0.0, 0.27640549922170443, 0.0, 0.6013318551349163, 0.0, 0.17058722109231972, 0.0, 0.2917190429162964, 0.0, 0.1705872210923198, 0.0, 0.21794494717703358, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 3.5561777233428584, 0.0, 4.091503391175426, 0.0, 1.100181803158005, 0.0, 5.767313065891256, 0.0, 0.4331281565541546, 0.0, 0.44090815370097225, 0.0, 0.2917190429162961, 0.0, 4.002236874549031, 0.0, 0.19595917942265406, 0.0, 0.13999999999999987, 0.0, 0.17058722109231958, 0.0, 0.21794494717703358, 0.0, 0.22158519806160318, 0.0, 0.13999999999999985, 0.0, 0.19595917942265428, 0.0, 0.400499687890016, 0.0, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.30594117081556693, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.195959179422654], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6013318551349157, 0.0, 0.48363209157375003, 0.0, 0.371348892552543, 0.0, 0.4537620521815372, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2215851980616029, 0.0, 0.21794494717703386, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2416609194718912, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.627614531380528, 0.0, 0.6421837743200923, 0.0, 0.1959591794226539, 0.0, 0.51720402163943, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999996, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40693979898751614, 0.0, 0.3648287269390939, 0.0, 0.19595917942265417, 0.0, 0.34336569426778807, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231997, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6666333324999587, 0.0, 0.8905616205518849, 0.0, 0.3605551275463988, 0.0, 0.51720402163943, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.27640549922170465, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31921779399024747, 0.0, 0.40693979898751614, 0.0, 0.09949874371066193, 0.0, 0.4555216789572153, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.25980762113533207, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29999999999999977, 0.0, 0.5173006862551025, 0.0, 0.17058722109231986, 0.0, 0.2551470164434616, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.17058722109231977, 0.0, 0.22158519806160315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265428, 0.0, 0.13999999999999985, 0.0, 0.13999999999999987, 0.0, 0.21794494717703392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25514701644346155, 0.0, 0.33166247903553975, 0.0, 0.24166091947189136, 0.0, 0.2764054992217048, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.8426149773176361, 0.0, 0.8534635317340744, 0.0, 0.49759421218498867, 0.0, 1.2678722333105965, 0.0, 0.19595917942265417, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.0, 0.3912799509302768, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066193, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265398, 0.0, 0.1959591794226542, 0.0, 0.0, 0.0, 0.1959591794226542, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.13999999999999987, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24166091947189133, 0.0, 0.5109794516416488, 0.0, 0.13999999999999996, 0.0, 0.21794494717703386, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6993568473962348, 0.0, 0.6964912059746338, 0.0, 0.5840376700179536, 0.0, 0.703988636271921, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.09949874371066196, 0.0, 0.195959179422654, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.1705872210923196, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.21794494717703386, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.44844174649557345, 0.0, 0.37469987990390397, 0.0, 0.13999999999999987, 0.0, 0.3469870314579496, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2598076211353322, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3746998799039039, 0.0, 0.4409081537009723, 0.0, 0.17058722109231975, 0.0, 0.29999999999999977, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 62.45035148019584, 0.0, 12.732521352819324, 0.0, 4.468512056602289, 0.0, 12.803948609706302, 0.0, 1.538668255342912, 0.0, 1.3016912076218383, 0.0, 0.8404760555780281, 0.0, 2.9410882339705484, 0.0, 0.693613725354393, 0.0, 0.6224949798994366, 0.0, 0.33630343441600447, 0.0, 0.5122499389946285, 0.0, 0.27129319932501095, 0.3570714214271426, 0.3544009029333872, 0.19595917942265423, 0.21794494717703358, 0.0, 0.6402343321003643, 0.0, 0.21794494717703372, 0.1399999999999999, 0.23748684174075804, 0.09949874371066196, 0.09949874371066199, 0.0, 0.7279423054061355, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.27129319932501084, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.34914180500192177], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 12.824737814084154, 0.0, 39.7302139435468, 0.0, 2.740364939200617, 0.0, 9.49135922826652, 0.0, 1.103222552343814, 0.0, 1.811601501434574, 0.0, 0.6200000000000003, 0.0, 3.1721286228650936, 0.0, 0.4690415759823424, 0.0, 0.5631163290120434, 0.0, 0.3316624790355398, 0.0, 0.5264028875300746, 0.0, 0.27129319932501095, 0.09949874371066196, 0.3433656942677881, 0.2179449471770336, 0.13999999999999987, 0.0, 0.7410128204019147, 0.0, 0.0, 0.09949874371066193, 0.37669616403674727, 0.09949874371066199, 0.0, 0.0, 0.6177378084592201, 0.0, 0.0, 0.0, 0.19595917942265398, 0.09949874371066196, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.3756327994198591, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.5233545643251811], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.175296396664555, 0.0, 2.692582403567252, 0.0, 2.8272071024245795, 0.0, 3.2820115782854877, 0.0, 0.47021271782035, 0.0, 0.4013726448077897, 0.0, 0.17058722109231972, 0.0, 0.9624967532412766, 0.0, 0.23748684174075813, 0.0, 0.21794494717703367, 0.0, 0.13999999999999993, 0.0, 0.21794494717703386, 0.0, 0.259807621135332, 0.0, 0.17058722109231972, 0.0, 0.1705872210923198, 0.0, 0.42555845661906444, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.34336569426778807, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.24166091947189133, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 12.777523234179618, 0.0, 9.0798898671735, 0.0, 2.802481043646862, 0.0, 20.9736286798446, 0.0, 0.8831760866327841, 0.0, 1.113552872566004, 0.0, 0.44034077712607966, 0.0, 4.036632259693716, 0.0, 0.34698703145794935, 0.0, 0.4176122603564225, 0.0, 0.371348892552543, 0.0, 0.8815327560561771, 0.0, 0.23748684174075815, 0.21794494717703397, 0.6062177826491074, 0.2374868417407584, 0.17058722109231994, 0.0, 1.0523782589924593, 0.0, 0.09949874371066193, 0.09949874371066193, 0.2179449471770336, 0.09949874371066199, 0.0, 0.0, 0.6019966777316967, 0.0, 0.0, 0.09949874371066199, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.2215851980616033, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.3316624790355398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3363034344160044], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.653209000701363, 0.0, 1.0523782589924593, 0.0, 0.4255584566190644, 0.0, 0.7273926037567335, 0.0, 0.23748684174075824, 0.0, 0.19595917942265428, 0.0, 0.13999999999999996, 0.0, 0.30594117081556726, 0.0, 0.13999999999999996, 0.0, 0.17058722109231975, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2571396103854169, 0.0, 1.8109665927343874, 0.0, 0.5656854249492377, 0.0, 1.16940155635265, 0.0, 0.2179449471770336, 0.0, 0.44933283877321867, 0.0, 0.1705872210923197, 0.0, 0.43301270189221963, 0.0, 0.09949874371066196, 0.0, 0.3536947836765472, 0.0, 0.09949874371066196, 0.0, 0.35707142142714254, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7931582439841374, 0.0, 0.5122499389946283, 0.0, 0.4092676385936232, 0.0, 0.4690415759823425, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.8102668912400466, 0.0, 3.630206605690646, 0.0, 0.8296987405076616, 0.0, 3.9462767262319542, 0.0, 0.44090815370097225, 0.0, 0.44844174649557345, 0.0, 0.343365694267788, 0.0, 1.9681463360228066, 0.0, 0.19595917942265395, 0.0, 0.23748684174075804, 0.0, 0.19595917942265415, 0.0, 0.2917190429162965, 0.0, 0.09949874371066196, 0.0, 0.25980762113533207, 0.09949874371066197, 0.0, 0.0, 0.3192177939902477, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.3872983346207415, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231986], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6144916598294887, 0.0, 0.5015974481593786, 0.0, 0.17058722109231972, 0.0, 0.38405728739343103, 0.0, 0.19595917942265428, 0.0, 0.17058722109231994, 0.0, 0.09949874371066196, 0.0, 0.23748684174075788, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4770744176750623, 0.0, 0.702780193232564, 0.0, 0.23748684174075815, 0.0, 0.45552167895721535, 0.0, 0.1705872210923198, 0.0, 0.22158519806160315, 0.0, 0.09949874371066196, 0.0, 0.29580398915498024, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4630334761116095, 0.0, 0.2999999999999999, 0.0, 0.17058722109231972, 0.0, 0.3316624790355398, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6013318551349165, 0.0, 0.7168681887209111, 0.0, 0.13999999999999987, 0.0, 0.9651942809610926, 0.0, 0.17058722109231983, 0.0, 0.24166091947189147, 0.0, 0.09949874371066199, 0.0, 0.2374868417407583, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29999999999999977, 0.0, 0.23748684174075826, 0.0, 0.09949874371066196, 0.0, 0.36055512754639873, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217049, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.39736632972611075, 0.0, 0.37469987990390413, 0.0, 0.13999999999999987, 0.0, 0.45552167895721535, 0.0, 0.13999999999999996, 0.0, 0.2215851980616031, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265423, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.2917190429162965, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217046, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.1705872210923198, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.8874119674649426, 0.0, 0.7657675887630668, 0.0, 0.44844174649557345, 0.0, 0.8883130078975547, 0.0, 0.21794494717703358, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.43588989435406733, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.2179449471770337, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2712931993250109, 0.0, 0.3059411708155671, 0.0, 0.09949874371066196, 0.0, 0.21794494717703364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7810249675906654, 0.0, 0.6244997998398403, 0.0, 0.3605551275463987, 0.0, 0.6794115100585209, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.17058722109231975, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.2416609194718912, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.24166091947189122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.24166091947189147, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35440090293338716, 0.0, 0.25514701644346155, 0.0, 0.19595917942265406, 0.0, 0.4160528812542941, 0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.39127995093027684, 0.0, 0.3912799509302768, 0.0, 0.17058722109231972, 0.0, 0.30594117081556693, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2416609194718912, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00369925530896383</v>
+        <v>0.007955746005089054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3996332652652302</v>
+        <v>0.7324329853824486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008151998308015863</v>
+        <v>0.04154526136696511</v>
       </c>
       <c r="E6" t="n">
-        <v>2.092528201111677</v>
+        <v>0.4187728379987845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001851806989457446</v>
+        <v>0.001344031417799351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8788818424504419</v>
+        <v>0.9719944847556057</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003052969842537109</v>
+        <v>0.00495182181318149</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06420354952039416</v>
+        <v>0.01728945881483847</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03653030175482832</v>
+        <v>0.04005279040984598</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006591712293467047</v>
+        <v>0.03845288957395085</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008207685789074107</v>
+        <v>0.0016707452827245</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004714499658393878</v>
+        <v>0.001705240605124879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1288980647620469</v>
+        <v>0.07807913995325852</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05287691326958118</v>
+        <v>0.01894843354151323</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02835322981508446</v>
+        <v>0.02729919538821821</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01822078594083341</v>
+        <v>0.02538440254487429</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9213572825707376</v>
+        <v>0.5200127120935472</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1062546905892632</v>
+        <v>0.09813905814446176</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9699504878200821</v>
+        <v>0.9463850162643915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.681024466312945</v>
+        <v>0.510727535507158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9557126019639376</v>
+        <v>0.9460154576731553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5530088339306876</v>
+        <v>0.4736439228705257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9426667025179526</v>
+        <v>0.9728892153462595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7281474498460326</v>
+        <v>0.7322703083177454</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8572664754359657</v>
+        <v>0.8683018873547238</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6332843190200991</v>
+        <v>0.9274223465435716</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9478572193707986</v>
+        <v>0.9461518735476574</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9562419245012004</v>
+        <v>0.9114011723194922</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9355208619089758</v>
+        <v>0.9699323743056618</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9620932441547247</v>
+        <v>0.9634110005974656</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7934673848558421</v>
+        <v>0.8324734174646015</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8453826928508178</v>
+        <v>0.8964771809602947</v>
       </c>
       <c r="P7" t="n">
-        <v>0.896073150302256</v>
+        <v>0.8789200622327413</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9358718327872775</v>
+        <v>0.9147381041763788</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6700651574254511</v>
+        <v>0.7388233969574519</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9132464278285878</v>
+        <v>0.9000107430061005</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01888832791580422</v>
+        <v>0.01218020699428224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06300192831573488</v>
+        <v>0.2142381706456511</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00832068394691279</v>
+        <v>0.06361692979282219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0304191297386731</v>
+        <v>0.02715087237085699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004850884337997746</v>
+        <v>0.01723726965516275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3919897504430848</v>
+        <v>0.4792711783268488</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009555810765599965</v>
+        <v>0.01691423889801098</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1698181424914174</v>
+        <v>1.856406939303422</v>
       </c>
       <c r="J8" t="n">
-        <v>3.261687609201421</v>
+        <v>2.39910630564852</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003563051958124673</v>
+        <v>0.01327807183182985</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04424067784862201</v>
+        <v>0.2201014173305527</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2078620329034921</v>
+        <v>0.3741329955953153</v>
       </c>
       <c r="N8" t="n">
-        <v>1.608768987850658</v>
+        <v>0.4274025207432248</v>
       </c>
       <c r="O8" t="n">
-        <v>3.484790295086218</v>
+        <v>2.243145623480999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8004193316756425</v>
+        <v>0.7328138844649497</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2016324077518556</v>
+        <v>0.1835350424947605</v>
       </c>
       <c r="R8" t="n">
-        <v>4.303135960469371</v>
+        <v>3.466562359838521</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2456225940350504</v>
+        <v>0.2372787643582623</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9564462027837175</v>
+        <v>0.9455202351174808</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8030299089210063</v>
+        <v>0.5515159596874964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9467337416310673</v>
+        <v>0.9539279790831972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8431118332878061</v>
+        <v>0.7875221166233508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.916986030172667</v>
+        <v>0.9230580880234878</v>
       </c>
       <c r="G9" t="n">
-        <v>0.751546726769579</v>
+        <v>0.7804484987386683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6894505731989191</v>
+        <v>0.7412376496789668</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6753562556989807</v>
+        <v>0.9303590018854421</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6523498631450163</v>
+        <v>0.6001776175068738</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9302586076013464</v>
+        <v>0.9536675061675474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8848432693223388</v>
+        <v>0.8791114222361589</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9500498491986902</v>
+        <v>0.9135768463022642</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4255861915349697</v>
+        <v>0.2586078463664192</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7360997686597613</v>
+        <v>0.8406035849710961</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8548181799475683</v>
+        <v>0.779612240825045</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8997600934221521</v>
+        <v>0.8785461969237993</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4820750049490237</v>
+        <v>0.6091206537675425</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8943663804991036</v>
+        <v>0.8818470315514968</v>
       </c>
     </row>
   </sheetData>
